--- a/Results/Filter/lda-partial-ner.xlsx
+++ b/Results/Filter/lda-partial-ner.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2787" uniqueCount="1599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2789" uniqueCount="1702">
   <si>
     <t>id</t>
   </si>
@@ -4021,529 +4021,760 @@
     <t>FOOD,PRICES,FOOD</t>
   </si>
   <si>
-    <t>place|like|staff|rude</t>
-  </si>
-  <si>
-    <t>food|good|always|time</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>good|wine</t>
-  </si>
-  <si>
-    <t>cart|attendant|lotus|leaf</t>
-  </si>
-  <si>
-    <t>great|food</t>
-  </si>
-  <si>
-    <t>rude</t>
+    <t>place|like</t>
+  </si>
+  <si>
+    <t>food|salty</t>
+  </si>
+  <si>
+    <t>good|food|outrageously|many</t>
+  </si>
+  <si>
+    <t>duck|confit|foie|terrine|figs|world</t>
+  </si>
+  <si>
+    <t>wine|good|list|value|many|interesting</t>
+  </si>
+  <si>
+    <t>replied|walked|away|lotus|wrapped|back|attendant|asked|leaf|tend</t>
+  </si>
+  <si>
+    <t>food|great|thing</t>
+  </si>
+  <si>
+    <t>table|share</t>
   </si>
   <si>
     <t>service|price</t>
   </si>
   <si>
-    <t>service|always</t>
-  </si>
-  <si>
-    <t>duck|breast|visit</t>
-  </si>
-  <si>
-    <t>thing|chicken|edamame|puree</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>sake|list|haze|request</t>
-  </si>
-  <si>
-    <t>great|tuna|good</t>
-  </si>
-  <si>
-    <t>great|service</t>
+    <t>service|cool|everything|excellent|cooked|perfection|thing</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>food|thing</t>
+  </si>
+  <si>
+    <t>special|thing</t>
+  </si>
+  <si>
+    <t>edamame|pureed|salt</t>
+  </si>
+  <si>
+    <t>made|list|list</t>
+  </si>
+  <si>
+    <t>good|great|spicy|rock|unusually|tuna|awesome|roll|shrimp|tempura|share</t>
+  </si>
+  <si>
+    <t>service|great</t>
+  </si>
+  <si>
+    <t>food|awesome</t>
   </si>
   <si>
     <t>service|friendly</t>
   </si>
   <si>
+    <t>long|like</t>
+  </si>
+  <si>
+    <t>food|great</t>
+  </si>
+  <si>
+    <t>restaurant|sushi|sushi|urchin|judge|heavenly|tend|rose</t>
+  </si>
+  <si>
+    <t>fresh|sushi</t>
+  </si>
+  <si>
+    <t>good|also</t>
+  </si>
+  <si>
+    <t>sushi|took|price|deal</t>
+  </si>
+  <si>
+    <t>service|food</t>
+  </si>
+  <si>
+    <t>menu|enough</t>
+  </si>
+  <si>
+    <t>food|fresh</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good|food|like|rather</t>
+  </si>
+  <si>
+    <t>like|somosas|chai|dissapointing|dhosas</t>
+  </si>
+  <si>
+    <t>food|like|specify|bland|spicy|also|rather</t>
+  </si>
+  <si>
+    <t>probably|would</t>
+  </si>
+  <si>
+    <t>long|river</t>
+  </si>
+  <si>
+    <t>service|even|food|great|great|great|price|reasonable</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>cosette|path|bistro</t>
+  </si>
+  <si>
+    <t>restaurant|certain</t>
+  </si>
+  <si>
+    <t>even|live</t>
+  </si>
+  <si>
+    <t>overpriced|price</t>
+  </si>
+  <si>
+    <t>good|even</t>
+  </si>
+  <si>
+    <t>meals|life|minnow</t>
+  </si>
+  <si>
+    <t>wine|good|food|menu|great|list</t>
+  </si>
+  <si>
+    <t>fresh|delicious</t>
+  </si>
+  <si>
+    <t>shrimp</t>
+  </si>
+  <si>
+    <t>sign|even|food|special|menu|waitstaff</t>
+  </si>
+  <si>
+    <t>good|special|live|atmosphere</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>wine|price|reasonable</t>
+  </si>
+  <si>
+    <t>service|food|great|delicious|excellent</t>
+  </si>
+  <si>
+    <t>hostess|point</t>
+  </si>
+  <si>
+    <t>food|bland</t>
+  </si>
+  <si>
+    <t>wine|service|place|food|great|many</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>wine|great</t>
+  </si>
+  <si>
+    <t>people|friendly</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>toppings</t>
+  </si>
+  <si>
+    <t>good|review</t>
+  </si>
+  <si>
+    <t>food|sauce</t>
+  </si>
+  <si>
+    <t>food|waitress</t>
+  </si>
+  <si>
+    <t>service|great|friendly</t>
+  </si>
+  <si>
+    <t>place|food</t>
+  </si>
+  <si>
+    <t>tuna</t>
+  </si>
+  <si>
+    <t>food|great|sushi|excellent</t>
+  </si>
+  <si>
+    <t>menu|great</t>
+  </si>
+  <si>
+    <t>great|atmosphere|price</t>
+  </si>
+  <si>
+    <t>good|fresh|roll</t>
+  </si>
+  <si>
+    <t>garden|terrace</t>
+  </si>
+  <si>
+    <t>great|table</t>
+  </si>
+  <si>
+    <t>restaurant|charm|rather|open</t>
+  </si>
+  <si>
+    <t>wine|great|great|price|value</t>
+  </si>
+  <si>
+    <t>good|food</t>
+  </si>
+  <si>
+    <t>like|fresh</t>
+  </si>
+  <si>
+    <t>food|great|great|review</t>
+  </si>
+  <si>
+    <t>service|special|recommend</t>
+  </si>
+  <si>
+    <t>spicy|roll</t>
+  </si>
+  <si>
+    <t>excellent|salty</t>
+  </si>
+  <si>
+    <t>took</t>
+  </si>
+  <si>
+    <t>made|wine|fairly|price|drink</t>
+  </si>
+  <si>
+    <t>service|deal</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
+    <t>restaurant|romantic</t>
+  </si>
+  <si>
+    <t>food|beautiful|beautifully|presented|delicious</t>
+  </si>
+  <si>
+    <t>wine|price|interesting</t>
+  </si>
+  <si>
+    <t>dinner|table|waitress|want|practically|told|asked|sitting|order</t>
+  </si>
+  <si>
+    <t>service|restaurant|food|away</t>
+  </si>
+  <si>
+    <t>special|especially</t>
+  </si>
+  <si>
+    <t>tuna|excellent</t>
+  </si>
+  <si>
+    <t>even|away|wonderful|atmosphere|outdoor|sidewalk|watching|sitting|cool</t>
+  </si>
+  <si>
+    <t>service|food|great|great</t>
+  </si>
+  <si>
+    <t>menu|would</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>restaurant|food</t>
+  </si>
+  <si>
+    <t>dining|restaurant</t>
+  </si>
+  <si>
+    <t>service|table</t>
+  </si>
+  <si>
+    <t>staff|nonsense</t>
+  </si>
+  <si>
+    <t>live|free|would|would</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>special|roll|rose</t>
+  </si>
+  <si>
+    <t>service|good</t>
+  </si>
+  <si>
+    <t>good|food|long|wish|order</t>
+  </si>
+  <si>
+    <t>wine|wine|good|list</t>
+  </si>
+  <si>
+    <t>restaurant|rather</t>
+  </si>
+  <si>
+    <t>restaurant|even</t>
+  </si>
+  <si>
+    <t>good|food|table|fresh|order</t>
+  </si>
+  <si>
+    <t>dining|great</t>
+  </si>
+  <si>
+    <t>live|atmosphere|order|completely</t>
+  </si>
+  <si>
+    <t>simply</t>
+  </si>
+  <si>
+    <t>upscale|restaurant</t>
+  </si>
+  <si>
+    <t>made|food|food|delicious</t>
+  </si>
+  <si>
+    <t>food|cool|drink</t>
+  </si>
+  <si>
+    <t>made|place|good</t>
+  </si>
+  <si>
+    <t>made|food|delicious|recommend</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>fresh|roll|recommend</t>
+  </si>
+  <si>
+    <t>guests|pizza|santa|fish|chips</t>
+  </si>
+  <si>
+    <t>service|food|wonderful|recommend</t>
+  </si>
+  <si>
+    <t>bland</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>service|restaurant|good|thing</t>
+  </si>
+  <si>
+    <t>tuna|roll|sushi</t>
+  </si>
+  <si>
+    <t>delicious|everything|thing</t>
+  </si>
+  <si>
+    <t>service|price|although|reasonable</t>
+  </si>
+  <si>
+    <t>restaurant|food|fresh|fresh|delicious</t>
+  </si>
+  <si>
+    <t>hats|chef</t>
+  </si>
+  <si>
+    <t>fresh|delicious|spicy</t>
+  </si>
+  <si>
+    <t>great|people</t>
+  </si>
+  <si>
+    <t>like|atmosphere</t>
+  </si>
+  <si>
+    <t>good|vacation|although|business</t>
+  </si>
+  <si>
+    <t>great|although</t>
+  </si>
+  <si>
+    <t>good|sushi</t>
+  </si>
+  <si>
+    <t>spicy|tuna|roll|price|probably</t>
+  </si>
+  <si>
+    <t>food|menu|reservation|fairly|deal|probably|order</t>
+  </si>
+  <si>
+    <t>service|food|great|price</t>
+  </si>
+  <si>
+    <t>atmosphere|thing</t>
+  </si>
+  <si>
+    <t>price|reasonable</t>
+  </si>
+  <si>
+    <t>caesar|wife|arugula|goat|cheese</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>place|food|delicious</t>
+  </si>
+  <si>
+    <t>even|want|manager</t>
+  </si>
+  <si>
+    <t>service|good|food</t>
+  </si>
+  <si>
+    <t>service|service|good|good|food</t>
+  </si>
+  <si>
+    <t>wine|place|atmosphere</t>
+  </si>
+  <si>
+    <t>place|good</t>
+  </si>
+  <si>
+    <t>friend|mushroom|pizza</t>
+  </si>
+  <si>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>service|people|friendly</t>
+  </si>
+  <si>
+    <t>food|delicious</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>like|like|tuna</t>
+  </si>
+  <si>
+    <t>service|great|also</t>
+  </si>
+  <si>
+    <t>service|restaurant|food|excellent|review</t>
+  </si>
+  <si>
+    <t>mignon|dish</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>menu|order|thing</t>
+  </si>
+  <si>
+    <t>dining|made|wine|service|place|back|excellent</t>
+  </si>
+  <si>
+    <t>place|romantic|review</t>
+  </si>
+  <si>
+    <t>wine|restaurant|menu|typical|table|overpriced|simply|list|close|crammed|price</t>
+  </si>
+  <si>
+    <t>wine|list</t>
+  </si>
+  <si>
+    <t>service|price|would</t>
+  </si>
+  <si>
+    <t>service|charm</t>
+  </si>
+  <si>
+    <t>food|completely</t>
+  </si>
+  <si>
+    <t>made|bland|rose</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>place|would</t>
+  </si>
+  <si>
+    <t>also|recommend</t>
+  </si>
+  <si>
+    <t>service|fresh|delicious</t>
+  </si>
+  <si>
+    <t>service|place|cool</t>
+  </si>
+  <si>
+    <t>dining|fresh|music</t>
+  </si>
+  <si>
+    <t>service|menu|tend</t>
+  </si>
+  <si>
+    <t>service|wonderful</t>
+  </si>
+  <si>
+    <t>service|place|special|great|romantic|excellent</t>
+  </si>
+  <si>
+    <t>good|food|food|food|food|food|menu|great|like|price|price</t>
+  </si>
+  <si>
+    <t>place|place|romantic</t>
+  </si>
+  <si>
+    <t>characters|experience</t>
+  </si>
+  <si>
+    <t>service|food|although|order</t>
+  </si>
+  <si>
+    <t>price|drink</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>food|service</t>
-  </si>
-  <si>
-    <t>prix|fixe|menu|penny|quantity|quality</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>food|like|good</t>
-  </si>
-  <si>
-    <t>nice|service|time|time</t>
-  </si>
-  <si>
-    <t>food|like</t>
-  </si>
-  <si>
-    <t>would|nice</t>
-  </si>
-  <si>
-    <t>river|idea|view|chart|house</t>
-  </si>
-  <si>
-    <t>great|great|great|food|service|price</t>
-  </si>
-  <si>
-    <t>lava|cake|dessert</t>
-  </si>
-  <si>
-    <t>cosette|path|bistro</t>
-  </si>
-  <si>
-    <t>pizza|price</t>
-  </si>
-  <si>
-    <t>good|pizza</t>
-  </si>
-  <si>
-    <t>meals|life|minnow</t>
-  </si>
-  <si>
-    <t>great|food|good|always|wine</t>
-  </si>
-  <si>
-    <t>combination|ingredients|dishes</t>
-  </si>
-  <si>
-    <t>wife|shrimp</t>
-  </si>
-  <si>
-    <t>food|staff</t>
-  </si>
-  <si>
-    <t>atmosphere|good</t>
-  </si>
-  <si>
-    <t>friendly|always|always|staff|never</t>
-  </si>
-  <si>
-    <t>price|wine</t>
-  </si>
-  <si>
-    <t>great|food|service</t>
-  </si>
-  <si>
-    <t>great|food|place|service|always|wine|time</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>great|always|wine</t>
-  </si>
-  <si>
-    <t>friendly|always|time</t>
-  </si>
-  <si>
-    <t>like|pizza</t>
-  </si>
-  <si>
-    <t>toppings</t>
-  </si>
-  <si>
-    <t>great|service|friendly</t>
-  </si>
-  <si>
-    <t>great|service|pizza</t>
-  </si>
-  <si>
-    <t>sushi|hands</t>
-  </si>
-  <si>
-    <t>food|place</t>
-  </si>
-  <si>
-    <t>tuna</t>
-  </si>
-  <si>
-    <t>great|food|always</t>
-  </si>
-  <si>
-    <t>great|never</t>
-  </si>
-  <si>
-    <t>great|atmosphere|price</t>
-  </si>
-  <si>
-    <t>menu|choices|dumplings|appetizer|section</t>
-  </si>
-  <si>
-    <t>garden|terrace</t>
-  </si>
-  <si>
-    <t>great|great|price|wine</t>
-  </si>
-  <si>
-    <t>food|good</t>
-  </si>
-  <si>
-    <t>like|pizza|pizza</t>
-  </si>
-  <si>
-    <t>great|great|food</t>
-  </si>
-  <si>
-    <t>nice|service</t>
-  </si>
-  <si>
-    <t>scallop|roll</t>
-  </si>
-  <si>
-    <t>moules|ravioli</t>
-  </si>
-  <si>
-    <t>always|price|wine</t>
-  </si>
-  <si>
-    <t>chef|specials</t>
-  </si>
-  <si>
-    <t>good|always</t>
-  </si>
-  <si>
-    <t>waitress|table|bathroom|dinner|orders|toilet</t>
-  </si>
-  <si>
-    <t>restaurant|food|service|rude</t>
-  </si>
-  <si>
-    <t>everythig|shows|actors</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>great|great|food|service</t>
-  </si>
-  <si>
-    <t>pizza|pizza|cheap</t>
-  </si>
-  <si>
-    <t>restaurant|food</t>
-  </si>
-  <si>
-    <t>would|would</t>
-  </si>
-  <si>
-    <t>sake|menu</t>
-  </si>
-  <si>
-    <t>teriyaki|roll</t>
-  </si>
-  <si>
-    <t>service|good</t>
-  </si>
-  <si>
-    <t>good|wine|wine</t>
-  </si>
-  <si>
-    <t>restaurant|always</t>
-  </si>
-  <si>
-    <t>atmosphere|time</t>
-  </si>
-  <si>
-    <t>food|food</t>
-  </si>
-  <si>
-    <t>place|good</t>
-  </si>
-  <si>
-    <t>workers|bagel|cream|cheese</t>
-  </si>
-  <si>
-    <t>food|service|time</t>
-  </si>
-  <si>
-    <t>roll|mayo</t>
-  </si>
-  <si>
-    <t>chow|chow|oily</t>
-  </si>
-  <si>
-    <t>scallion|pancakes|dumplings|nothing</t>
-  </si>
-  <si>
-    <t>restaurant|service|good</t>
-  </si>
-  <si>
-    <t>penang|everything</t>
-  </si>
-  <si>
-    <t>hats|chef</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>atmosphere|like</t>
-  </si>
-  <si>
-    <t>tuna|price</t>
-  </si>
-  <si>
-    <t>great|food|service|price</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>tiramisu|chocolate|cake</t>
-  </si>
-  <si>
-    <t>food|place|staff</t>
-  </si>
-  <si>
-    <t>visit|manager</t>
-  </si>
-  <si>
-    <t>food|service|good|time</t>
-  </si>
-  <si>
-    <t>food|service|service|good|good|time|time</t>
-  </si>
-  <si>
-    <t>place|atmosphere|wine</t>
-  </si>
-  <si>
-    <t>place|nice|good|pizza</t>
-  </si>
-  <si>
-    <t>goat|cheese|panchetta|raddichio|kind</t>
-  </si>
-  <si>
-    <t>beer</t>
-  </si>
-  <si>
-    <t>place|nice</t>
-  </si>
-  <si>
-    <t>tuna|like|like</t>
-  </si>
-  <si>
-    <t>restaurant|food|service|time</t>
-  </si>
-  <si>
-    <t>mignon|dish</t>
-  </si>
-  <si>
-    <t>beef|noodle|soup|dishes|section|menu|nothing</t>
-  </si>
-  <si>
-    <t>place|service|pizza|wine</t>
-  </si>
-  <si>
-    <t>restaurant|price|wine</t>
-  </si>
-  <si>
-    <t>wine</t>
-  </si>
-  <si>
-    <t>would|service|price</t>
-  </si>
-  <si>
-    <t>meals|bland|rosemary|orange|flavoring</t>
-  </si>
-  <si>
-    <t>would|place|nice|staff|never</t>
-  </si>
-  <si>
-    <t>someone|dessert</t>
-  </si>
-  <si>
-    <t>service|never</t>
-  </si>
-  <si>
-    <t>place|service</t>
-  </si>
-  <si>
-    <t>dining|room|music</t>
-  </si>
-  <si>
-    <t>service|staff</t>
-  </si>
-  <si>
-    <t>great|place|service</t>
-  </si>
-  <si>
-    <t>great|food|food|food|food|food|like|good|price|price</t>
-  </si>
-  <si>
-    <t>place|place</t>
-  </si>
-  <si>
-    <t>characters|experience</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
     <t>ambiance|boot</t>
   </si>
   <si>
-    <t>great|nice|service</t>
-  </si>
-  <si>
-    <t>food|service|price|cheap</t>
-  </si>
-  <si>
-    <t>food|price|wine</t>
-  </si>
-  <si>
-    <t>secret|room</t>
-  </si>
-  <si>
-    <t>great|staff</t>
-  </si>
-  <si>
-    <t>great|service|always</t>
-  </si>
-  <si>
-    <t>dessert|waitress|bill|chance|order</t>
-  </si>
-  <si>
-    <t>food|place|service|like|price|price</t>
-  </si>
-  <si>
-    <t>nice|staff</t>
-  </si>
-  <si>
-    <t>service|time|rude</t>
-  </si>
-  <si>
-    <t>restaurant|time|rude</t>
-  </si>
-  <si>
-    <t>price|cheap</t>
-  </si>
-  <si>
-    <t>great|food|cheap</t>
-  </si>
-  <si>
-    <t>seats|wall|benches</t>
-  </si>
-  <si>
-    <t>great|nice|staff</t>
-  </si>
-  <si>
-    <t>friendly|staff</t>
-  </si>
-  <si>
-    <t>service|good|good</t>
-  </si>
-  <si>
-    <t>restaurant|price</t>
-  </si>
-  <si>
-    <t>food|good|price</t>
-  </si>
-  <si>
-    <t>good|price</t>
-  </si>
-  <si>
-    <t>dessert|candle|anyone|waiter|birthday|card|gift|occassion|sort</t>
+    <t>special|like|atmosphere|sushi|thing</t>
+  </si>
+  <si>
+    <t>owner|staff|ambiance</t>
+  </si>
+  <si>
+    <t>service|food|price</t>
+  </si>
+  <si>
+    <t>service|asked|people</t>
+  </si>
+  <si>
+    <t>restaurant|romantic|list</t>
+  </si>
+  <si>
+    <t>wine|food|price</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>service|food|value</t>
+  </si>
+  <si>
+    <t>service|friendly|excellent</t>
+  </si>
+  <si>
+    <t>waitress|everything|thing</t>
+  </si>
+  <si>
+    <t>waitress|order</t>
+  </si>
+  <si>
+    <t>service|place|food|like|price|price</t>
+  </si>
+  <si>
+    <t>like|also|thing</t>
+  </si>
+  <si>
+    <t>table|wooden|sitting</t>
+  </si>
+  <si>
+    <t>restaurant|close|rather|busy</t>
+  </si>
+  <si>
+    <t>great|feature|cigar</t>
+  </si>
+  <si>
+    <t>waitstaff|friendly</t>
+  </si>
+  <si>
+    <t>service|good|good|outing</t>
+  </si>
+  <si>
+    <t>restaurant|fallback|back|price</t>
+  </si>
+  <si>
+    <t>good|even|food|price</t>
+  </si>
+  <si>
+    <t>good|warrant|nearly|price|although|enough</t>
+  </si>
+  <si>
+    <t>special|anyone|came|asked|birthday|said|open</t>
   </si>
   <si>
     <t>mark|waiter</t>
   </si>
   <si>
-    <t>food|nice|cheap</t>
-  </si>
-  <si>
-    <t>great|would|atmosphere</t>
-  </si>
-  <si>
-    <t>great|great|food|place|good</t>
-  </si>
-  <si>
-    <t>like|staff</t>
-  </si>
-  <si>
-    <t>dinner|manager|boyfriend|things|tips|thing</t>
-  </si>
-  <si>
-    <t>model/waitress|manager</t>
-  </si>
-  <si>
-    <t>great|would|place|good|staff</t>
-  </si>
-  <si>
-    <t>great|food|price</t>
-  </si>
-  <si>
-    <t>restaurant|service</t>
-  </si>
-  <si>
-    <t>gentleman|manager|table|smile|order</t>
-  </si>
-  <si>
-    <t>staff|time</t>
-  </si>
-  <si>
-    <t>patio|music</t>
-  </si>
-  <si>
-    <t>garden|area|herb|garden</t>
-  </si>
-  <si>
-    <t>nice|always|never</t>
-  </si>
-  <si>
-    <t>waiter|money|guys|outta</t>
-  </si>
-  <si>
-    <t>food|cheap</t>
-  </si>
-  <si>
-    <t>great|place</t>
+    <t>wine|list|price</t>
+  </si>
+  <si>
+    <t>great|atmosphere|write|review|would</t>
+  </si>
+  <si>
+    <t>place|good|food|great|great|deal</t>
+  </si>
+  <si>
+    <t>like|people</t>
+  </si>
+  <si>
+    <t>service|people|everything|thing|thing</t>
+  </si>
+  <si>
+    <t>good|waitress|waitress</t>
+  </si>
+  <si>
+    <t>dinner|away|asked|manager|survive|thing|thing</t>
+  </si>
+  <si>
+    <t>waitress|want|manager</t>
+  </si>
+  <si>
+    <t>place|good|great|wish|unprofessional|would</t>
+  </si>
+  <si>
+    <t>charm</t>
+  </si>
+  <si>
+    <t>food|great|price</t>
+  </si>
+  <si>
+    <t>service|restaurant|back</t>
+  </si>
+  <si>
+    <t>table|came|asked|order|manager</t>
+  </si>
+  <si>
+    <t>reservation</t>
+  </si>
+  <si>
+    <t>table|outside</t>
+  </si>
+  <si>
+    <t>staff|bathroom</t>
+  </si>
+  <si>
+    <t>made|waitstaff|table</t>
+  </si>
+  <si>
+    <t>back|cool|music</t>
+  </si>
+  <si>
+    <t>service|good|also</t>
+  </si>
+  <si>
+    <t>back|sitting</t>
+  </si>
+  <si>
+    <t>place|special|especially|money|stand|wonderful|value</t>
+  </si>
+  <si>
+    <t>service|excellent</t>
+  </si>
+  <si>
+    <t>crowd</t>
+  </si>
+  <si>
+    <t>even|price</t>
+  </si>
+  <si>
+    <t>paid|money|said|immediately|outta|took</t>
+  </si>
+  <si>
+    <t>wait|staff</t>
+  </si>
+  <si>
+    <t>place|outside</t>
+  </si>
+  <si>
+    <t>restaurant|river|beautiful</t>
+  </si>
+  <si>
+    <t>place|great|watching</t>
+  </si>
+  <si>
+    <t>service|thing</t>
   </si>
   <si>
     <t>place|price</t>
   </si>
   <si>
-    <t>cheese|sandwich|manager|business</t>
-  </si>
-  <si>
-    <t>great|like</t>
+    <t>told|asked|business|open|manager</t>
+  </si>
+  <si>
+    <t>place|even</t>
+  </si>
+  <si>
+    <t>great|like|want|music|minimun|dollar|system</t>
+  </si>
+  <si>
+    <t>staff|crew</t>
   </si>
   <si>
     <t>food|price</t>
   </si>
   <si>
-    <t>great|great</t>
-  </si>
-  <si>
-    <t>restaurant|staff</t>
-  </si>
-  <si>
-    <t>service|atmosphere|friendly</t>
-  </si>
-  <si>
-    <t>would|place|service</t>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>atmosphere|free</t>
+  </si>
+  <si>
+    <t>great|great|music|completely|shanty|recommend|drink|delish</t>
+  </si>
+  <si>
+    <t>good|outrageously|music</t>
+  </si>
+  <si>
+    <t>good|back|price|reasonable</t>
+  </si>
+  <si>
+    <t>great|feature|outside</t>
+  </si>
+  <si>
+    <t>romantic</t>
+  </si>
+  <si>
+    <t>stand|price</t>
+  </si>
+  <si>
+    <t>typical|long|like|table|atmosphere</t>
+  </si>
+  <si>
+    <t>service|friendly|atmosphere</t>
+  </si>
+  <si>
+    <t>service|place|stand|would</t>
   </si>
   <si>
     <t>management</t>
@@ -4552,157 +4783,235 @@
     <t>great|price</t>
   </si>
   <si>
-    <t>place|like|staff|time</t>
-  </si>
-  <si>
-    <t>place|good|cheap</t>
-  </si>
-  <si>
-    <t>great|place|place|service|never</t>
+    <t>place|like|excellent</t>
+  </si>
+  <si>
+    <t>service|food|great|great|great|price</t>
+  </si>
+  <si>
+    <t>service|place|place|dinner|great|live|romantic|table|want|also</t>
+  </si>
+  <si>
+    <t>service|back</t>
+  </si>
+  <si>
+    <t>place|beautiful</t>
   </si>
   <si>
     <t>quibbles|bill|measures|liquers|courtesey|house</t>
   </si>
   <si>
-    <t>atomosphere|tables</t>
-  </si>
-  <si>
-    <t>great|great|food|place|price</t>
-  </si>
-  <si>
-    <t>great|food|good|price|wine</t>
-  </si>
-  <si>
-    <t>food|would|price</t>
-  </si>
-  <si>
-    <t>money|decor</t>
-  </si>
-  <si>
-    <t>food|good|cheap</t>
-  </si>
-  <si>
-    <t>good|wine|cheap</t>
-  </si>
-  <si>
-    <t>jukebox|everything|opera|strokes</t>
-  </si>
-  <si>
-    <t>drinks|half</t>
+    <t>restaurant|typical</t>
+  </si>
+  <si>
+    <t>romantic|table</t>
+  </si>
+  <si>
+    <t>place|food|great|great|want|price</t>
+  </si>
+  <si>
+    <t>dining|outside|sitting</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>place|food|money</t>
+  </si>
+  <si>
+    <t>friendly|outdoor</t>
+  </si>
+  <si>
+    <t>wine|good|food|great|price|selecion|reasonable</t>
+  </si>
+  <si>
+    <t>good|overpriced|price|everything|thing</t>
+  </si>
+  <si>
+    <t>food|price|would</t>
+  </si>
+  <si>
+    <t>place|great</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>sign|good|atmosphere</t>
+  </si>
+  <si>
+    <t>wine|good</t>
+  </si>
+  <si>
+    <t>everything|thing</t>
+  </si>
+  <si>
+    <t>drink</t>
   </si>
   <si>
     <t>toons|redone|space</t>
   </si>
   <si>
-    <t>location|delight|seating|yorkie</t>
+    <t>outdoor</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>food|great|price|reasonable</t>
+  </si>
+  <si>
+    <t>good|food|simply|price</t>
   </si>
   <si>
     <t>jazz|point</t>
   </si>
   <si>
-    <t>great|food|service|good|price</t>
-  </si>
-  <si>
-    <t>nice|atmosphere</t>
-  </si>
-  <si>
-    <t>restaurant|food|friendly|like|good|price|price|staff|time|cheap</t>
-  </si>
-  <si>
-    <t>restaurant|food|service|good|price|staff</t>
-  </si>
-  <si>
-    <t>food|service|price</t>
-  </si>
-  <si>
-    <t>food|nice|price</t>
-  </si>
-  <si>
-    <t>place|nice|tuna</t>
-  </si>
-  <si>
-    <t>place|time</t>
-  </si>
-  <si>
-    <t>restaurant|nice</t>
-  </si>
-  <si>
-    <t>dinner|feet</t>
-  </si>
-  <si>
-    <t>plate|guacamole</t>
-  </si>
-  <si>
-    <t>food|place|good</t>
-  </si>
-  <si>
-    <t>water|table|voss|bottles|water|piece</t>
-  </si>
-  <si>
-    <t>food|friendly|good|price</t>
+    <t>service|good|food|great|price|music</t>
+  </si>
+  <si>
+    <t>restaurant|good|food|like|friendly|price|price</t>
+  </si>
+  <si>
+    <t>service|restaurant|good|food|overpriced|price|many</t>
+  </si>
+  <si>
+    <t>food|price|reasonable</t>
+  </si>
+  <si>
+    <t>place|tuna</t>
+  </si>
+  <si>
+    <t>paid|good</t>
+  </si>
+  <si>
+    <t>place|away</t>
+  </si>
+  <si>
+    <t>place|dinner|great</t>
+  </si>
+  <si>
+    <t>nearly|back|atmosphere|thing</t>
+  </si>
+  <si>
+    <t>food|great|price|excellent</t>
+  </si>
+  <si>
+    <t>service|food|overpriced|price</t>
+  </si>
+  <si>
+    <t>dinner|romatic</t>
+  </si>
+  <si>
+    <t>place|good|food</t>
+  </si>
+  <si>
+    <t>place|beautiful|recommend</t>
+  </si>
+  <si>
+    <t>table|told</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>sign|restaurant|beautiful|beautifully</t>
+  </si>
+  <si>
+    <t>good|food|people|friendly|price</t>
   </si>
   <si>
     <t>bathroom|mens|bathroom</t>
   </si>
   <si>
-    <t>would|price</t>
-  </si>
-  <si>
-    <t>boths|reviews|people</t>
+    <t>price|would</t>
+  </si>
+  <si>
+    <t>great|romantic</t>
+  </si>
+  <si>
+    <t>people|review</t>
   </si>
   <si>
     <t>belly|dancing|crowd</t>
   </si>
   <si>
-    <t>great|great|place</t>
-  </si>
-  <si>
-    <t>thing|decor</t>
-  </si>
-  <si>
-    <t>environment|name</t>
+    <t>place|great|great|value</t>
+  </si>
+  <si>
+    <t>fairly|price</t>
+  </si>
+  <si>
+    <t>back|awesome|birthday</t>
+  </si>
+  <si>
+    <t>wine|dinner</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>place|certain|want|beautiful</t>
+  </si>
+  <si>
+    <t>restaurant|review</t>
   </si>
   <si>
     <t>restaurant|restaurant</t>
   </si>
   <si>
-    <t>environment|guys|trophy|wives|escorts</t>
-  </si>
-  <si>
-    <t>drinks</t>
-  </si>
-  <si>
-    <t>food|would|good|time</t>
-  </si>
-  <si>
-    <t>restaurant|never</t>
-  </si>
-  <si>
-    <t>restaurant|would|place|price</t>
+    <t>environment|trophy|upscale|paid</t>
+  </si>
+  <si>
+    <t>back|money|value</t>
+  </si>
+  <si>
+    <t>dinner|would</t>
+  </si>
+  <si>
+    <t>good|food|dinner|table|would</t>
+  </si>
+  <si>
+    <t>restaurant|money</t>
+  </si>
+  <si>
+    <t>good|food|fresh</t>
+  </si>
+  <si>
+    <t>upscale|upscale|place|restaurant|price|would</t>
+  </si>
+  <si>
+    <t>place|food|thing</t>
   </si>
   <si>
     <t>lunch|buffet</t>
   </si>
   <si>
-    <t>stone|bowl</t>
-  </si>
-  <si>
-    <t>party|fixe|prix|menu|deal|flight|sake</t>
-  </si>
-  <si>
-    <t>great|good|price|time</t>
-  </si>
-  <si>
-    <t>service|rude</t>
-  </si>
-  <si>
-    <t>great|service|good</t>
-  </si>
-  <si>
-    <t>food|would|good|price</t>
-  </si>
-  <si>
-    <t>decor|distraction|bucks|eggplant|frickin</t>
+    <t>place|dinner|romantic|deal</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>menu|came|wonderful|also|deal</t>
+  </si>
+  <si>
+    <t>good|great|price|enough|reasonable|thing</t>
+  </si>
+  <si>
+    <t>service|even|drink</t>
+  </si>
+  <si>
+    <t>service|good|great|fresh|sauce|kimchi|free</t>
+  </si>
+  <si>
+    <t>good|food|back|price|would</t>
+  </si>
+  <si>
+    <t>restaurant|bland|took</t>
+  </si>
+  <si>
+    <t>menu|list|would|dollar|reasonable</t>
   </si>
   <si>
     <t>negative</t>
@@ -5214,7 +5523,7 @@
         <v>1335</v>
       </c>
       <c r="G2" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5234,10 +5543,10 @@
         <v>1275</v>
       </c>
       <c r="F3" t="s">
-        <v>936</v>
+        <v>1336</v>
       </c>
       <c r="G3" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5257,10 +5566,10 @@
         <v>1276</v>
       </c>
       <c r="F4" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="G4" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5280,10 +5589,10 @@
         <v>1275</v>
       </c>
       <c r="F5" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="G5" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5303,10 +5612,10 @@
         <v>1277</v>
       </c>
       <c r="F6" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5326,10 +5635,10 @@
         <v>1274</v>
       </c>
       <c r="F7" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="G7" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5349,10 +5658,10 @@
         <v>1276</v>
       </c>
       <c r="F8" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G8" t="s">
-        <v>1567</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5372,10 +5681,10 @@
         <v>1275</v>
       </c>
       <c r="F9" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G9" t="s">
-        <v>1568</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5395,10 +5704,10 @@
         <v>1278</v>
       </c>
       <c r="F10" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="G10" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5418,10 +5727,10 @@
         <v>1279</v>
       </c>
       <c r="F11" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G11" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5441,10 +5750,10 @@
         <v>1276</v>
       </c>
       <c r="F12" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G12" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5464,10 +5773,10 @@
         <v>1280</v>
       </c>
       <c r="F13" t="s">
-        <v>936</v>
+        <v>1346</v>
       </c>
       <c r="G13" t="s">
-        <v>1568</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5487,10 +5796,10 @@
         <v>1276</v>
       </c>
       <c r="F14" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="G14" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5510,10 +5819,10 @@
         <v>1275</v>
       </c>
       <c r="F15" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="G15" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5536,7 +5845,7 @@
         <v>1092</v>
       </c>
       <c r="G16" t="s">
-        <v>1570</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5556,10 +5865,10 @@
         <v>1282</v>
       </c>
       <c r="F17" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="G17" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5579,10 +5888,10 @@
         <v>1275</v>
       </c>
       <c r="F18" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G18" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5602,10 +5911,10 @@
         <v>1274</v>
       </c>
       <c r="F19" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G19" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5625,10 +5934,10 @@
         <v>1276</v>
       </c>
       <c r="F20" t="s">
-        <v>936</v>
+        <v>1352</v>
       </c>
       <c r="G20" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5648,10 +5957,10 @@
         <v>1274</v>
       </c>
       <c r="F21" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="G21" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5674,7 +5983,7 @@
         <v>1123</v>
       </c>
       <c r="G22" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5697,7 +6006,7 @@
         <v>936</v>
       </c>
       <c r="G23" t="s">
-        <v>1567</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5720,7 +6029,7 @@
         <v>951</v>
       </c>
       <c r="G24" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5740,10 +6049,10 @@
         <v>1274</v>
       </c>
       <c r="F25" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G25" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5763,10 +6072,10 @@
         <v>1276</v>
       </c>
       <c r="F26" t="s">
-        <v>1340</v>
+        <v>1355</v>
       </c>
       <c r="G26" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5789,7 +6098,7 @@
         <v>951</v>
       </c>
       <c r="G27" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5809,10 +6118,10 @@
         <v>1276</v>
       </c>
       <c r="F28" t="s">
-        <v>971</v>
+        <v>1356</v>
       </c>
       <c r="G28" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -5832,10 +6141,10 @@
         <v>1275</v>
       </c>
       <c r="F29" t="s">
-        <v>999</v>
+        <v>1357</v>
       </c>
       <c r="G29" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5855,10 +6164,10 @@
         <v>1276</v>
       </c>
       <c r="F30" t="s">
-        <v>1352</v>
+        <v>1358</v>
       </c>
       <c r="G30" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5878,10 +6187,10 @@
         <v>1277</v>
       </c>
       <c r="F31" t="s">
-        <v>1353</v>
+        <v>1359</v>
       </c>
       <c r="G31" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -5901,10 +6210,10 @@
         <v>1282</v>
       </c>
       <c r="F32" t="s">
-        <v>1354</v>
+        <v>1360</v>
       </c>
       <c r="G32" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -5924,10 +6233,10 @@
         <v>1284</v>
       </c>
       <c r="F33" t="s">
-        <v>1355</v>
+        <v>1361</v>
       </c>
       <c r="G33" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -5947,10 +6256,10 @@
         <v>1284</v>
       </c>
       <c r="F34" t="s">
-        <v>936</v>
+        <v>1362</v>
       </c>
       <c r="G34" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -5970,10 +6279,10 @@
         <v>1276</v>
       </c>
       <c r="F35" t="s">
-        <v>1356</v>
+        <v>1363</v>
       </c>
       <c r="G35" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -5993,10 +6302,10 @@
         <v>1282</v>
       </c>
       <c r="F36" t="s">
-        <v>1357</v>
+        <v>1364</v>
       </c>
       <c r="G36" t="s">
-        <v>1571</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -6016,10 +6325,10 @@
         <v>1285</v>
       </c>
       <c r="F37" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="G37" t="s">
-        <v>1572</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -6039,10 +6348,10 @@
         <v>1274</v>
       </c>
       <c r="F38" t="s">
-        <v>1358</v>
+        <v>951</v>
       </c>
       <c r="G38" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -6062,10 +6371,10 @@
         <v>1274</v>
       </c>
       <c r="F39" t="s">
-        <v>1337</v>
+        <v>965</v>
       </c>
       <c r="G39" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -6085,10 +6394,10 @@
         <v>1276</v>
       </c>
       <c r="F40" t="s">
-        <v>1359</v>
+        <v>1366</v>
       </c>
       <c r="G40" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -6108,10 +6417,10 @@
         <v>1283</v>
       </c>
       <c r="F41" t="s">
-        <v>1360</v>
+        <v>1367</v>
       </c>
       <c r="G41" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -6131,10 +6440,10 @@
         <v>1283</v>
       </c>
       <c r="F42" t="s">
-        <v>1361</v>
+        <v>1368</v>
       </c>
       <c r="G42" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -6154,10 +6463,10 @@
         <v>1278</v>
       </c>
       <c r="F43" t="s">
-        <v>1362</v>
+        <v>1369</v>
       </c>
       <c r="G43" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -6177,10 +6486,10 @@
         <v>1276</v>
       </c>
       <c r="F44" t="s">
-        <v>1363</v>
+        <v>1370</v>
       </c>
       <c r="G44" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -6200,10 +6509,10 @@
         <v>1283</v>
       </c>
       <c r="F45" t="s">
-        <v>1364</v>
+        <v>1371</v>
       </c>
       <c r="G45" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -6223,10 +6532,10 @@
         <v>1283</v>
       </c>
       <c r="F46" t="s">
-        <v>971</v>
+        <v>1372</v>
       </c>
       <c r="G46" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -6249,7 +6558,7 @@
         <v>936</v>
       </c>
       <c r="G47" t="s">
-        <v>1573</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -6272,7 +6581,7 @@
         <v>936</v>
       </c>
       <c r="G48" t="s">
-        <v>1574</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -6292,10 +6601,10 @@
         <v>1275</v>
       </c>
       <c r="F49" t="s">
-        <v>992</v>
+        <v>1373</v>
       </c>
       <c r="G49" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -6315,10 +6624,10 @@
         <v>1277</v>
       </c>
       <c r="F50" t="s">
-        <v>1365</v>
+        <v>1374</v>
       </c>
       <c r="G50" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -6338,10 +6647,10 @@
         <v>1280</v>
       </c>
       <c r="F51" t="s">
-        <v>1366</v>
+        <v>1375</v>
       </c>
       <c r="G51" t="s">
-        <v>1575</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -6361,10 +6670,10 @@
         <v>1276</v>
       </c>
       <c r="F52" t="s">
-        <v>1367</v>
+        <v>1376</v>
       </c>
       <c r="G52" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -6384,10 +6693,10 @@
         <v>1280</v>
       </c>
       <c r="F53" t="s">
-        <v>1368</v>
+        <v>1377</v>
       </c>
       <c r="G53" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -6407,10 +6716,10 @@
         <v>1276</v>
       </c>
       <c r="F54" t="s">
-        <v>1369</v>
+        <v>1378</v>
       </c>
       <c r="G54" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -6430,10 +6739,10 @@
         <v>1275</v>
       </c>
       <c r="F55" t="s">
-        <v>1356</v>
+        <v>1363</v>
       </c>
       <c r="G55" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -6453,10 +6762,10 @@
         <v>1275</v>
       </c>
       <c r="F56" t="s">
-        <v>1370</v>
+        <v>1379</v>
       </c>
       <c r="G56" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -6476,10 +6785,10 @@
         <v>1288</v>
       </c>
       <c r="F57" t="s">
-        <v>1371</v>
+        <v>1380</v>
       </c>
       <c r="G57" t="s">
-        <v>1576</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -6499,10 +6808,10 @@
         <v>1289</v>
       </c>
       <c r="F58" t="s">
-        <v>1372</v>
+        <v>1381</v>
       </c>
       <c r="G58" t="s">
-        <v>1577</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -6522,10 +6831,10 @@
         <v>1274</v>
       </c>
       <c r="F59" t="s">
-        <v>1373</v>
+        <v>1382</v>
       </c>
       <c r="G59" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -6545,10 +6854,10 @@
         <v>1277</v>
       </c>
       <c r="F60" t="s">
-        <v>1374</v>
+        <v>1383</v>
       </c>
       <c r="G60" t="s">
-        <v>1578</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -6568,10 +6877,10 @@
         <v>1290</v>
       </c>
       <c r="F61" t="s">
-        <v>1375</v>
+        <v>1384</v>
       </c>
       <c r="G61" t="s">
-        <v>1576</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -6591,10 +6900,10 @@
         <v>1274</v>
       </c>
       <c r="F62" t="s">
-        <v>1341</v>
+        <v>1385</v>
       </c>
       <c r="G62" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -6614,10 +6923,10 @@
         <v>1276</v>
       </c>
       <c r="F63" t="s">
-        <v>936</v>
+        <v>1386</v>
       </c>
       <c r="G63" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -6637,10 +6946,10 @@
         <v>1288</v>
       </c>
       <c r="F64" t="s">
-        <v>1376</v>
+        <v>1387</v>
       </c>
       <c r="G64" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -6660,10 +6969,10 @@
         <v>1274</v>
       </c>
       <c r="F65" t="s">
-        <v>1377</v>
+        <v>1388</v>
       </c>
       <c r="G65" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -6683,10 +6992,10 @@
         <v>1276</v>
       </c>
       <c r="F66" t="s">
-        <v>1378</v>
+        <v>1389</v>
       </c>
       <c r="G66" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -6706,10 +7015,10 @@
         <v>1274</v>
       </c>
       <c r="F67" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G67" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -6729,10 +7038,10 @@
         <v>1274</v>
       </c>
       <c r="F68" t="s">
-        <v>1379</v>
+        <v>1390</v>
       </c>
       <c r="G68" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -6752,10 +7061,10 @@
         <v>1291</v>
       </c>
       <c r="F69" t="s">
-        <v>1380</v>
+        <v>1391</v>
       </c>
       <c r="G69" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -6778,7 +7087,7 @@
         <v>992</v>
       </c>
       <c r="G70" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -6798,10 +7107,10 @@
         <v>1293</v>
       </c>
       <c r="F71" t="s">
-        <v>1381</v>
+        <v>1392</v>
       </c>
       <c r="G71" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -6821,10 +7130,10 @@
         <v>1276</v>
       </c>
       <c r="F72" t="s">
-        <v>1352</v>
+        <v>1393</v>
       </c>
       <c r="G72" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -6844,10 +7153,10 @@
         <v>1275</v>
       </c>
       <c r="F73" t="s">
-        <v>936</v>
+        <v>1394</v>
       </c>
       <c r="G73" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -6867,10 +7176,10 @@
         <v>1294</v>
       </c>
       <c r="F74" t="s">
-        <v>936</v>
+        <v>1395</v>
       </c>
       <c r="G74" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -6890,10 +7199,10 @@
         <v>1274</v>
       </c>
       <c r="F75" t="s">
-        <v>1382</v>
+        <v>1396</v>
       </c>
       <c r="G75" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -6913,10 +7222,10 @@
         <v>1282</v>
       </c>
       <c r="F76" t="s">
-        <v>1383</v>
+        <v>1351</v>
       </c>
       <c r="G76" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -6939,7 +7248,7 @@
         <v>988</v>
       </c>
       <c r="G77" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -6962,7 +7271,7 @@
         <v>998</v>
       </c>
       <c r="G78" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -6982,10 +7291,10 @@
         <v>1276</v>
       </c>
       <c r="F79" t="s">
-        <v>1384</v>
+        <v>999</v>
       </c>
       <c r="G79" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -7005,10 +7314,10 @@
         <v>1287</v>
       </c>
       <c r="F80" t="s">
-        <v>1385</v>
+        <v>1397</v>
       </c>
       <c r="G80" t="s">
-        <v>1579</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -7028,10 +7337,10 @@
         <v>1276</v>
       </c>
       <c r="F81" t="s">
-        <v>1386</v>
+        <v>1398</v>
       </c>
       <c r="G81" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -7051,10 +7360,10 @@
         <v>1275</v>
       </c>
       <c r="F82" t="s">
-        <v>1387</v>
+        <v>1399</v>
       </c>
       <c r="G82" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -7074,10 +7383,10 @@
         <v>1276</v>
       </c>
       <c r="F83" t="s">
-        <v>1388</v>
+        <v>1400</v>
       </c>
       <c r="G83" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -7097,10 +7406,10 @@
         <v>1295</v>
       </c>
       <c r="F84" t="s">
-        <v>1389</v>
+        <v>1401</v>
       </c>
       <c r="G84" t="s">
-        <v>1578</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -7123,7 +7432,7 @@
         <v>936</v>
       </c>
       <c r="G85" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -7143,10 +7452,10 @@
         <v>1276</v>
       </c>
       <c r="F86" t="s">
-        <v>1390</v>
+        <v>1003</v>
       </c>
       <c r="G86" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -7166,10 +7475,10 @@
         <v>1280</v>
       </c>
       <c r="F87" t="s">
-        <v>1352</v>
+        <v>1402</v>
       </c>
       <c r="G87" t="s">
-        <v>1580</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -7189,10 +7498,10 @@
         <v>1276</v>
       </c>
       <c r="F88" t="s">
-        <v>1386</v>
+        <v>1398</v>
       </c>
       <c r="G88" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -7212,10 +7521,10 @@
         <v>1283</v>
       </c>
       <c r="F89" t="s">
-        <v>1391</v>
+        <v>1403</v>
       </c>
       <c r="G89" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -7235,10 +7544,10 @@
         <v>1282</v>
       </c>
       <c r="F90" t="s">
-        <v>1354</v>
+        <v>1360</v>
       </c>
       <c r="G90" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -7258,10 +7567,10 @@
         <v>1276</v>
       </c>
       <c r="F91" t="s">
-        <v>1356</v>
+        <v>1404</v>
       </c>
       <c r="G91" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -7281,10 +7590,10 @@
         <v>1296</v>
       </c>
       <c r="F92" t="s">
-        <v>971</v>
+        <v>1405</v>
       </c>
       <c r="G92" t="s">
-        <v>1571</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -7304,10 +7613,10 @@
         <v>1284</v>
       </c>
       <c r="F93" t="s">
-        <v>1392</v>
+        <v>1406</v>
       </c>
       <c r="G93" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -7327,10 +7636,10 @@
         <v>1297</v>
       </c>
       <c r="F94" t="s">
-        <v>1393</v>
+        <v>1407</v>
       </c>
       <c r="G94" t="s">
-        <v>1581</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -7350,10 +7659,10 @@
         <v>1275</v>
       </c>
       <c r="F95" t="s">
-        <v>1394</v>
+        <v>1408</v>
       </c>
       <c r="G95" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -7373,10 +7682,10 @@
         <v>1287</v>
       </c>
       <c r="F96" t="s">
-        <v>1395</v>
+        <v>1409</v>
       </c>
       <c r="G96" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -7396,10 +7705,10 @@
         <v>1298</v>
       </c>
       <c r="F97" t="s">
-        <v>1396</v>
+        <v>1410</v>
       </c>
       <c r="G97" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -7419,10 +7728,10 @@
         <v>1276</v>
       </c>
       <c r="F98" t="s">
-        <v>1397</v>
+        <v>1411</v>
       </c>
       <c r="G98" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -7442,10 +7751,10 @@
         <v>1275</v>
       </c>
       <c r="F99" t="s">
-        <v>1398</v>
+        <v>1412</v>
       </c>
       <c r="G99" t="s">
-        <v>1571</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -7465,10 +7774,10 @@
         <v>1274</v>
       </c>
       <c r="F100" t="s">
-        <v>1341</v>
+        <v>1413</v>
       </c>
       <c r="G100" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -7488,10 +7797,10 @@
         <v>1277</v>
       </c>
       <c r="F101" t="s">
-        <v>1353</v>
+        <v>1374</v>
       </c>
       <c r="G101" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -7511,10 +7820,10 @@
         <v>1277</v>
       </c>
       <c r="F102" t="s">
-        <v>1399</v>
+        <v>1414</v>
       </c>
       <c r="G102" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -7534,10 +7843,10 @@
         <v>1276</v>
       </c>
       <c r="F103" t="s">
-        <v>1400</v>
+        <v>1345</v>
       </c>
       <c r="G103" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -7557,10 +7866,10 @@
         <v>1274</v>
       </c>
       <c r="F104" t="s">
-        <v>951</v>
+        <v>1415</v>
       </c>
       <c r="G104" t="s">
-        <v>1567</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -7580,10 +7889,10 @@
         <v>1283</v>
       </c>
       <c r="F105" t="s">
-        <v>1401</v>
+        <v>1416</v>
       </c>
       <c r="G105" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -7603,10 +7912,10 @@
         <v>1283</v>
       </c>
       <c r="F106" t="s">
-        <v>971</v>
+        <v>1417</v>
       </c>
       <c r="G106" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -7626,10 +7935,10 @@
         <v>1275</v>
       </c>
       <c r="F107" t="s">
-        <v>936</v>
+        <v>1418</v>
       </c>
       <c r="G107" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -7652,7 +7961,7 @@
         <v>934</v>
       </c>
       <c r="G108" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -7672,10 +7981,10 @@
         <v>1284</v>
       </c>
       <c r="F109" t="s">
-        <v>1374</v>
+        <v>1419</v>
       </c>
       <c r="G109" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -7695,10 +8004,10 @@
         <v>1274</v>
       </c>
       <c r="F110" t="s">
-        <v>1402</v>
+        <v>1420</v>
       </c>
       <c r="G110" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -7718,10 +8027,10 @@
         <v>1294</v>
       </c>
       <c r="F111" t="s">
-        <v>1403</v>
+        <v>1421</v>
       </c>
       <c r="G111" t="s">
-        <v>1582</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -7741,10 +8050,10 @@
         <v>1296</v>
       </c>
       <c r="F112" t="s">
-        <v>1404</v>
+        <v>1422</v>
       </c>
       <c r="G112" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -7764,10 +8073,10 @@
         <v>1274</v>
       </c>
       <c r="F113" t="s">
-        <v>1405</v>
+        <v>1382</v>
       </c>
       <c r="G113" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -7787,10 +8096,10 @@
         <v>1276</v>
       </c>
       <c r="F114" t="s">
-        <v>1393</v>
+        <v>1407</v>
       </c>
       <c r="G114" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -7810,10 +8119,10 @@
         <v>1275</v>
       </c>
       <c r="F115" t="s">
-        <v>1386</v>
+        <v>1423</v>
       </c>
       <c r="G115" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -7833,10 +8142,10 @@
         <v>1283</v>
       </c>
       <c r="F116" t="s">
-        <v>1068</v>
+        <v>1424</v>
       </c>
       <c r="G116" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -7859,7 +8168,7 @@
         <v>951</v>
       </c>
       <c r="G117" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -7879,10 +8188,10 @@
         <v>1294</v>
       </c>
       <c r="F118" t="s">
-        <v>1406</v>
+        <v>1425</v>
       </c>
       <c r="G118" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -7902,10 +8211,10 @@
         <v>1275</v>
       </c>
       <c r="F119" t="s">
-        <v>1407</v>
+        <v>1378</v>
       </c>
       <c r="G119" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -7925,10 +8234,10 @@
         <v>1276</v>
       </c>
       <c r="F120" t="s">
-        <v>1360</v>
+        <v>1426</v>
       </c>
       <c r="G120" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -7948,10 +8257,10 @@
         <v>1294</v>
       </c>
       <c r="F121" t="s">
-        <v>934</v>
+        <v>1427</v>
       </c>
       <c r="G121" t="s">
-        <v>1579</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -7971,10 +8280,10 @@
         <v>1276</v>
       </c>
       <c r="F122" t="s">
-        <v>1408</v>
+        <v>1428</v>
       </c>
       <c r="G122" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -7994,10 +8303,10 @@
         <v>1276</v>
       </c>
       <c r="F123" t="s">
-        <v>971</v>
+        <v>1429</v>
       </c>
       <c r="G123" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -8017,10 +8326,10 @@
         <v>1299</v>
       </c>
       <c r="F124" t="s">
-        <v>951</v>
+        <v>1430</v>
       </c>
       <c r="G124" t="s">
-        <v>1576</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -8040,10 +8349,10 @@
         <v>1274</v>
       </c>
       <c r="F125" t="s">
-        <v>934</v>
+        <v>1431</v>
       </c>
       <c r="G125" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -8066,7 +8375,7 @@
         <v>936</v>
       </c>
       <c r="G126" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -8086,10 +8395,10 @@
         <v>1276</v>
       </c>
       <c r="F127" t="s">
-        <v>1409</v>
+        <v>1432</v>
       </c>
       <c r="G127" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -8109,10 +8418,10 @@
         <v>1276</v>
       </c>
       <c r="F128" t="s">
-        <v>1346</v>
+        <v>1433</v>
       </c>
       <c r="G128" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -8132,10 +8441,10 @@
         <v>1276</v>
       </c>
       <c r="F129" t="s">
-        <v>1410</v>
+        <v>1003</v>
       </c>
       <c r="G129" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -8155,10 +8464,10 @@
         <v>1275</v>
       </c>
       <c r="F130" t="s">
-        <v>1411</v>
+        <v>1434</v>
       </c>
       <c r="G130" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -8178,10 +8487,10 @@
         <v>1274</v>
       </c>
       <c r="F131" t="s">
-        <v>1412</v>
+        <v>1435</v>
       </c>
       <c r="G131" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -8201,10 +8510,10 @@
         <v>1275</v>
       </c>
       <c r="F132" t="s">
-        <v>1393</v>
+        <v>1436</v>
       </c>
       <c r="G132" t="s">
-        <v>1571</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -8224,10 +8533,10 @@
         <v>1275</v>
       </c>
       <c r="F133" t="s">
-        <v>1413</v>
+        <v>1437</v>
       </c>
       <c r="G133" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -8247,10 +8556,10 @@
         <v>1296</v>
       </c>
       <c r="F134" t="s">
-        <v>971</v>
+        <v>1438</v>
       </c>
       <c r="G134" t="s">
-        <v>1571</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -8270,10 +8579,10 @@
         <v>1274</v>
       </c>
       <c r="F135" t="s">
-        <v>1412</v>
+        <v>1435</v>
       </c>
       <c r="G135" t="s">
-        <v>1567</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -8293,10 +8602,10 @@
         <v>1274</v>
       </c>
       <c r="F136" t="s">
-        <v>1414</v>
+        <v>1439</v>
       </c>
       <c r="G136" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -8316,10 +8625,10 @@
         <v>1275</v>
       </c>
       <c r="F137" t="s">
-        <v>1393</v>
+        <v>1440</v>
       </c>
       <c r="G137" t="s">
-        <v>1571</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -8339,10 +8648,10 @@
         <v>1296</v>
       </c>
       <c r="F138" t="s">
-        <v>1356</v>
+        <v>1441</v>
       </c>
       <c r="G138" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -8362,10 +8671,10 @@
         <v>1296</v>
       </c>
       <c r="F139" t="s">
-        <v>1415</v>
+        <v>1442</v>
       </c>
       <c r="G139" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -8385,10 +8694,10 @@
         <v>1276</v>
       </c>
       <c r="F140" t="s">
-        <v>1049</v>
+        <v>1443</v>
       </c>
       <c r="G140" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -8408,10 +8717,10 @@
         <v>1283</v>
       </c>
       <c r="F141" t="s">
-        <v>971</v>
+        <v>1444</v>
       </c>
       <c r="G141" t="s">
-        <v>1567</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -8431,10 +8740,10 @@
         <v>1275</v>
       </c>
       <c r="F142" t="s">
-        <v>1416</v>
+        <v>1445</v>
       </c>
       <c r="G142" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -8454,10 +8763,10 @@
         <v>1274</v>
       </c>
       <c r="F143" t="s">
-        <v>936</v>
+        <v>1446</v>
       </c>
       <c r="G143" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -8477,10 +8786,10 @@
         <v>1296</v>
       </c>
       <c r="F144" t="s">
-        <v>1417</v>
+        <v>1447</v>
       </c>
       <c r="G144" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -8500,10 +8809,10 @@
         <v>1280</v>
       </c>
       <c r="F145" t="s">
-        <v>936</v>
+        <v>1448</v>
       </c>
       <c r="G145" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -8526,7 +8835,7 @@
         <v>1053</v>
       </c>
       <c r="G146" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -8546,10 +8855,10 @@
         <v>1276</v>
       </c>
       <c r="F147" t="s">
-        <v>1418</v>
+        <v>1449</v>
       </c>
       <c r="G147" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -8569,10 +8878,10 @@
         <v>1282</v>
       </c>
       <c r="F148" t="s">
-        <v>1419</v>
+        <v>1360</v>
       </c>
       <c r="G148" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -8592,10 +8901,10 @@
         <v>1275</v>
       </c>
       <c r="F149" t="s">
-        <v>1420</v>
+        <v>1450</v>
       </c>
       <c r="G149" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -8615,10 +8924,10 @@
         <v>1280</v>
       </c>
       <c r="F150" t="s">
-        <v>992</v>
+        <v>1451</v>
       </c>
       <c r="G150" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -8638,10 +8947,10 @@
         <v>1300</v>
       </c>
       <c r="F151" t="s">
-        <v>1354</v>
+        <v>1452</v>
       </c>
       <c r="G151" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -8664,7 +8973,7 @@
         <v>934</v>
       </c>
       <c r="G152" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -8684,10 +8993,10 @@
         <v>1276</v>
       </c>
       <c r="F153" t="s">
-        <v>1421</v>
+        <v>1453</v>
       </c>
       <c r="G153" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -8707,10 +9016,10 @@
         <v>1275</v>
       </c>
       <c r="F154" t="s">
-        <v>1422</v>
+        <v>1454</v>
       </c>
       <c r="G154" t="s">
-        <v>1583</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -8730,10 +9039,10 @@
         <v>1274</v>
       </c>
       <c r="F155" t="s">
-        <v>1423</v>
+        <v>1455</v>
       </c>
       <c r="G155" t="s">
-        <v>1571</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -8753,10 +9062,10 @@
         <v>1301</v>
       </c>
       <c r="F156" t="s">
-        <v>1386</v>
+        <v>1456</v>
       </c>
       <c r="G156" t="s">
-        <v>1584</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -8776,10 +9085,10 @@
         <v>1275</v>
       </c>
       <c r="F157" t="s">
-        <v>1424</v>
+        <v>1457</v>
       </c>
       <c r="G157" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -8799,10 +9108,10 @@
         <v>1302</v>
       </c>
       <c r="F158" t="s">
-        <v>1342</v>
+        <v>1458</v>
       </c>
       <c r="G158" t="s">
-        <v>1571</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -8822,10 +9131,10 @@
         <v>1276</v>
       </c>
       <c r="F159" t="s">
-        <v>1408</v>
+        <v>1459</v>
       </c>
       <c r="G159" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -8845,10 +9154,10 @@
         <v>1276</v>
       </c>
       <c r="F160" t="s">
-        <v>1425</v>
+        <v>1460</v>
       </c>
       <c r="G160" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -8868,10 +9177,10 @@
         <v>1276</v>
       </c>
       <c r="F161" t="s">
-        <v>1065</v>
+        <v>1461</v>
       </c>
       <c r="G161" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -8891,10 +9200,10 @@
         <v>1276</v>
       </c>
       <c r="F162" t="s">
-        <v>1426</v>
+        <v>1345</v>
       </c>
       <c r="G162" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -8914,10 +9223,10 @@
         <v>1283</v>
       </c>
       <c r="F163" t="s">
-        <v>1356</v>
+        <v>1462</v>
       </c>
       <c r="G163" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -8937,10 +9246,10 @@
         <v>1283</v>
       </c>
       <c r="F164" t="s">
-        <v>1427</v>
+        <v>1463</v>
       </c>
       <c r="G164" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -8960,10 +9269,10 @@
         <v>1283</v>
       </c>
       <c r="F165" t="s">
-        <v>1352</v>
+        <v>1464</v>
       </c>
       <c r="G165" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -8986,7 +9295,7 @@
         <v>1065</v>
       </c>
       <c r="G166" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -9006,10 +9315,10 @@
         <v>1276</v>
       </c>
       <c r="F167" t="s">
-        <v>1356</v>
+        <v>1465</v>
       </c>
       <c r="G167" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -9032,7 +9341,7 @@
         <v>979</v>
       </c>
       <c r="G168" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -9052,10 +9361,10 @@
         <v>1277</v>
       </c>
       <c r="F169" t="s">
-        <v>1352</v>
+        <v>1466</v>
       </c>
       <c r="G169" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -9075,10 +9384,10 @@
         <v>1284</v>
       </c>
       <c r="F170" t="s">
-        <v>1428</v>
+        <v>1467</v>
       </c>
       <c r="G170" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -9098,10 +9407,10 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1352</v>
+        <v>1416</v>
       </c>
       <c r="G171" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -9121,10 +9430,10 @@
         <v>1277</v>
       </c>
       <c r="F172" t="s">
-        <v>936</v>
+        <v>1468</v>
       </c>
       <c r="G172" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -9144,10 +9453,10 @@
         <v>1303</v>
       </c>
       <c r="F173" t="s">
-        <v>1429</v>
+        <v>1469</v>
       </c>
       <c r="G173" t="s">
-        <v>1576</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -9167,10 +9476,10 @@
         <v>1298</v>
       </c>
       <c r="F174" t="s">
-        <v>1068</v>
+        <v>1470</v>
       </c>
       <c r="G174" t="s">
-        <v>1579</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -9190,10 +9499,10 @@
         <v>1304</v>
       </c>
       <c r="F175" t="s">
-        <v>1353</v>
+        <v>1471</v>
       </c>
       <c r="G175" t="s">
-        <v>1576</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -9213,10 +9522,10 @@
         <v>1274</v>
       </c>
       <c r="F176" t="s">
-        <v>1356</v>
+        <v>1363</v>
       </c>
       <c r="G176" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -9236,10 +9545,10 @@
         <v>1275</v>
       </c>
       <c r="F177" t="s">
-        <v>1430</v>
+        <v>1472</v>
       </c>
       <c r="G177" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -9259,10 +9568,10 @@
         <v>1294</v>
       </c>
       <c r="F178" t="s">
-        <v>1431</v>
+        <v>1473</v>
       </c>
       <c r="G178" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -9282,10 +9591,10 @@
         <v>1275</v>
       </c>
       <c r="F179" t="s">
-        <v>1432</v>
+        <v>1474</v>
       </c>
       <c r="G179" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -9305,10 +9614,10 @@
         <v>1305</v>
       </c>
       <c r="F180" t="s">
-        <v>1433</v>
+        <v>1475</v>
       </c>
       <c r="G180" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -9328,10 +9637,10 @@
         <v>1274</v>
       </c>
       <c r="F181" t="s">
-        <v>1434</v>
+        <v>1476</v>
       </c>
       <c r="G181" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -9351,10 +9660,10 @@
         <v>1282</v>
       </c>
       <c r="F182" t="s">
-        <v>1435</v>
+        <v>1477</v>
       </c>
       <c r="G182" t="s">
-        <v>1574</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -9374,10 +9683,10 @@
         <v>1306</v>
       </c>
       <c r="F183" t="s">
-        <v>1436</v>
+        <v>1478</v>
       </c>
       <c r="G183" t="s">
-        <v>1585</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -9397,10 +9706,10 @@
         <v>1307</v>
       </c>
       <c r="F184" t="s">
-        <v>1437</v>
+        <v>1479</v>
       </c>
       <c r="G184" t="s">
-        <v>1576</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -9420,10 +9729,10 @@
         <v>1291</v>
       </c>
       <c r="F185" t="s">
-        <v>1438</v>
+        <v>1480</v>
       </c>
       <c r="G185" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -9443,10 +9752,10 @@
         <v>1275</v>
       </c>
       <c r="F186" t="s">
-        <v>1439</v>
+        <v>1474</v>
       </c>
       <c r="G186" t="s">
-        <v>1579</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -9466,10 +9775,10 @@
         <v>1276</v>
       </c>
       <c r="F187" t="s">
-        <v>992</v>
+        <v>1481</v>
       </c>
       <c r="G187" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -9489,10 +9798,10 @@
         <v>1276</v>
       </c>
       <c r="F188" t="s">
-        <v>1352</v>
+        <v>1416</v>
       </c>
       <c r="G188" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -9512,10 +9821,10 @@
         <v>1276</v>
       </c>
       <c r="F189" t="s">
-        <v>1440</v>
+        <v>1482</v>
       </c>
       <c r="G189" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -9535,10 +9844,10 @@
         <v>1308</v>
       </c>
       <c r="F190" t="s">
-        <v>1350</v>
+        <v>1483</v>
       </c>
       <c r="G190" t="s">
-        <v>1579</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -9558,10 +9867,10 @@
         <v>1283</v>
       </c>
       <c r="F191" t="s">
-        <v>1441</v>
+        <v>1092</v>
       </c>
       <c r="G191" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -9581,10 +9890,10 @@
         <v>1276</v>
       </c>
       <c r="F192" t="s">
-        <v>936</v>
+        <v>1484</v>
       </c>
       <c r="G192" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -9604,10 +9913,10 @@
         <v>1275</v>
       </c>
       <c r="F193" t="s">
-        <v>992</v>
+        <v>1485</v>
       </c>
       <c r="G193" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -9630,7 +9939,7 @@
         <v>951</v>
       </c>
       <c r="G194" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -9653,7 +9962,7 @@
         <v>936</v>
       </c>
       <c r="G195" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -9673,10 +9982,10 @@
         <v>1275</v>
       </c>
       <c r="F196" t="s">
-        <v>1442</v>
+        <v>1486</v>
       </c>
       <c r="G196" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -9696,10 +10005,10 @@
         <v>1309</v>
       </c>
       <c r="F197" t="s">
-        <v>1349</v>
+        <v>1487</v>
       </c>
       <c r="G197" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -9719,10 +10028,10 @@
         <v>1282</v>
       </c>
       <c r="F198" t="s">
-        <v>1443</v>
+        <v>1488</v>
       </c>
       <c r="G198" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -9742,10 +10051,10 @@
         <v>1276</v>
       </c>
       <c r="F199" t="s">
-        <v>1444</v>
+        <v>1489</v>
       </c>
       <c r="G199" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -9768,7 +10077,7 @@
         <v>971</v>
       </c>
       <c r="G200" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -9788,10 +10097,10 @@
         <v>1283</v>
       </c>
       <c r="F201" t="s">
-        <v>1351</v>
+        <v>1391</v>
       </c>
       <c r="G201" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -9814,7 +10123,7 @@
         <v>999</v>
       </c>
       <c r="G202" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -9833,8 +10142,11 @@
       <c r="E203" t="s">
         <v>1295</v>
       </c>
+      <c r="F203" t="s">
+        <v>1490</v>
+      </c>
       <c r="G203" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -9854,10 +10166,10 @@
         <v>1276</v>
       </c>
       <c r="F204" t="s">
-        <v>1445</v>
+        <v>1491</v>
       </c>
       <c r="G204" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -9877,10 +10189,10 @@
         <v>1276</v>
       </c>
       <c r="F205" t="s">
-        <v>1417</v>
+        <v>1480</v>
       </c>
       <c r="G205" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -9900,10 +10212,10 @@
         <v>1283</v>
       </c>
       <c r="F206" t="s">
-        <v>1417</v>
+        <v>1480</v>
       </c>
       <c r="G206" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -9923,10 +10235,10 @@
         <v>1307</v>
       </c>
       <c r="F207" t="s">
-        <v>1446</v>
+        <v>1492</v>
       </c>
       <c r="G207" t="s">
-        <v>1576</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -9946,10 +10258,10 @@
         <v>1283</v>
       </c>
       <c r="F208" t="s">
-        <v>1092</v>
+        <v>1493</v>
       </c>
       <c r="G208" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -9969,10 +10281,10 @@
         <v>1310</v>
       </c>
       <c r="F209" t="s">
-        <v>1447</v>
+        <v>1494</v>
       </c>
       <c r="G209" t="s">
-        <v>1582</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -9992,10 +10304,10 @@
         <v>1277</v>
       </c>
       <c r="F210" t="s">
-        <v>1448</v>
+        <v>1495</v>
       </c>
       <c r="G210" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -10015,10 +10327,10 @@
         <v>1274</v>
       </c>
       <c r="F211" t="s">
-        <v>1449</v>
+        <v>1496</v>
       </c>
       <c r="G211" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -10038,10 +10350,10 @@
         <v>1274</v>
       </c>
       <c r="F212" t="s">
-        <v>951</v>
+        <v>1497</v>
       </c>
       <c r="G212" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -10061,10 +10373,10 @@
         <v>1276</v>
       </c>
       <c r="F213" t="s">
-        <v>936</v>
+        <v>1498</v>
       </c>
       <c r="G213" t="s">
-        <v>1571</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -10084,10 +10396,10 @@
         <v>1275</v>
       </c>
       <c r="F214" t="s">
-        <v>1450</v>
+        <v>1499</v>
       </c>
       <c r="G214" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -10107,10 +10419,10 @@
         <v>1276</v>
       </c>
       <c r="F215" t="s">
-        <v>1426</v>
+        <v>1500</v>
       </c>
       <c r="G215" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -10130,10 +10442,10 @@
         <v>1309</v>
       </c>
       <c r="F216" t="s">
-        <v>1451</v>
+        <v>1501</v>
       </c>
       <c r="G216" t="s">
-        <v>1586</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -10153,10 +10465,10 @@
         <v>1276</v>
       </c>
       <c r="F217" t="s">
-        <v>1452</v>
+        <v>1502</v>
       </c>
       <c r="G217" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -10176,10 +10488,10 @@
         <v>1276</v>
       </c>
       <c r="F218" t="s">
-        <v>1351</v>
+        <v>1391</v>
       </c>
       <c r="G218" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -10199,10 +10511,10 @@
         <v>1294</v>
       </c>
       <c r="F219" t="s">
-        <v>1453</v>
+        <v>1503</v>
       </c>
       <c r="G219" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -10222,10 +10534,10 @@
         <v>1276</v>
       </c>
       <c r="F220" t="s">
-        <v>1386</v>
+        <v>1398</v>
       </c>
       <c r="G220" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -10245,10 +10557,10 @@
         <v>1309</v>
       </c>
       <c r="F221" t="s">
-        <v>1454</v>
+        <v>1504</v>
       </c>
       <c r="G221" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -10268,10 +10580,10 @@
         <v>1283</v>
       </c>
       <c r="F222" t="s">
-        <v>1455</v>
+        <v>1505</v>
       </c>
       <c r="G222" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -10291,10 +10603,10 @@
         <v>1308</v>
       </c>
       <c r="F223" t="s">
-        <v>1456</v>
+        <v>1506</v>
       </c>
       <c r="G223" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -10314,10 +10626,10 @@
         <v>1311</v>
       </c>
       <c r="F224" t="s">
-        <v>951</v>
+        <v>1507</v>
       </c>
       <c r="G224" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -10337,10 +10649,10 @@
         <v>1274</v>
       </c>
       <c r="F225" t="s">
-        <v>1456</v>
+        <v>951</v>
       </c>
       <c r="G225" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -10360,10 +10672,10 @@
         <v>1309</v>
       </c>
       <c r="F226" t="s">
-        <v>1457</v>
+        <v>1508</v>
       </c>
       <c r="G226" t="s">
-        <v>1587</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -10383,10 +10695,10 @@
         <v>1312</v>
       </c>
       <c r="F227" t="s">
-        <v>1458</v>
+        <v>1509</v>
       </c>
       <c r="G227" t="s">
-        <v>1588</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -10406,10 +10718,10 @@
         <v>1283</v>
       </c>
       <c r="F228" t="s">
-        <v>1459</v>
+        <v>1510</v>
       </c>
       <c r="G228" t="s">
-        <v>1567</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -10432,7 +10744,7 @@
         <v>1092</v>
       </c>
       <c r="G229" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -10455,7 +10767,7 @@
         <v>934</v>
       </c>
       <c r="G230" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -10478,7 +10790,7 @@
         <v>1092</v>
       </c>
       <c r="G231" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -10498,10 +10810,10 @@
         <v>1283</v>
       </c>
       <c r="F232" t="s">
-        <v>1460</v>
+        <v>1511</v>
       </c>
       <c r="G232" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -10521,10 +10833,10 @@
         <v>1274</v>
       </c>
       <c r="F233" t="s">
-        <v>1354</v>
+        <v>1512</v>
       </c>
       <c r="G233" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -10544,10 +10856,10 @@
         <v>1292</v>
       </c>
       <c r="F234" t="s">
-        <v>1353</v>
+        <v>1513</v>
       </c>
       <c r="G234" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -10570,7 +10882,7 @@
         <v>951</v>
       </c>
       <c r="G235" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -10590,10 +10902,10 @@
         <v>1274</v>
       </c>
       <c r="F236" t="s">
-        <v>1461</v>
+        <v>1514</v>
       </c>
       <c r="G236" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -10613,10 +10925,10 @@
         <v>1313</v>
       </c>
       <c r="F237" t="s">
-        <v>1353</v>
+        <v>1515</v>
       </c>
       <c r="G237" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -10636,10 +10948,10 @@
         <v>1283</v>
       </c>
       <c r="F238" t="s">
-        <v>1462</v>
+        <v>1516</v>
       </c>
       <c r="G238" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -10659,10 +10971,10 @@
         <v>1298</v>
       </c>
       <c r="F239" t="s">
-        <v>1463</v>
+        <v>1351</v>
       </c>
       <c r="G239" t="s">
-        <v>1571</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -10682,10 +10994,10 @@
         <v>1283</v>
       </c>
       <c r="F240" t="s">
-        <v>1427</v>
+        <v>1517</v>
       </c>
       <c r="G240" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -10705,10 +11017,10 @@
         <v>1283</v>
       </c>
       <c r="F241" t="s">
-        <v>934</v>
+        <v>1518</v>
       </c>
       <c r="G241" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -10728,10 +11040,10 @@
         <v>1314</v>
       </c>
       <c r="F242" t="s">
-        <v>1464</v>
+        <v>1519</v>
       </c>
       <c r="G242" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -10751,10 +11063,10 @@
         <v>1274</v>
       </c>
       <c r="F243" t="s">
-        <v>951</v>
+        <v>1520</v>
       </c>
       <c r="G243" t="s">
-        <v>1567</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -10774,10 +11086,10 @@
         <v>1283</v>
       </c>
       <c r="F244" t="s">
-        <v>971</v>
+        <v>1521</v>
       </c>
       <c r="G244" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -10797,10 +11109,10 @@
         <v>1315</v>
       </c>
       <c r="F245" t="s">
-        <v>1465</v>
+        <v>1522</v>
       </c>
       <c r="G245" t="s">
-        <v>1576</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -10820,10 +11132,10 @@
         <v>1283</v>
       </c>
       <c r="F246" t="s">
-        <v>1466</v>
+        <v>1523</v>
       </c>
       <c r="G246" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -10843,10 +11155,10 @@
         <v>1316</v>
       </c>
       <c r="F247" t="s">
-        <v>1419</v>
+        <v>1524</v>
       </c>
       <c r="G247" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -10866,10 +11178,10 @@
         <v>1274</v>
       </c>
       <c r="F248" t="s">
-        <v>1350</v>
+        <v>1525</v>
       </c>
       <c r="G248" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -10889,10 +11201,10 @@
         <v>1274</v>
       </c>
       <c r="F249" t="s">
-        <v>1467</v>
+        <v>1363</v>
       </c>
       <c r="G249" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -10912,10 +11224,10 @@
         <v>1274</v>
       </c>
       <c r="F250" t="s">
-        <v>1468</v>
+        <v>1351</v>
       </c>
       <c r="G250" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -10938,7 +11250,7 @@
         <v>934</v>
       </c>
       <c r="G251" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -10958,10 +11270,10 @@
         <v>1308</v>
       </c>
       <c r="F252" t="s">
-        <v>1341</v>
+        <v>1526</v>
       </c>
       <c r="G252" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -10981,10 +11293,10 @@
         <v>1274</v>
       </c>
       <c r="F253" t="s">
-        <v>1469</v>
+        <v>1527</v>
       </c>
       <c r="G253" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -11004,10 +11316,10 @@
         <v>1303</v>
       </c>
       <c r="F254" t="s">
-        <v>1470</v>
+        <v>1528</v>
       </c>
       <c r="G254" t="s">
-        <v>1570</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -11030,7 +11342,7 @@
         <v>962</v>
       </c>
       <c r="G255" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -11050,10 +11362,10 @@
         <v>1298</v>
       </c>
       <c r="F256" t="s">
-        <v>1396</v>
+        <v>951</v>
       </c>
       <c r="G256" t="s">
-        <v>1571</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -11073,10 +11385,10 @@
         <v>1274</v>
       </c>
       <c r="F257" t="s">
-        <v>1471</v>
+        <v>1163</v>
       </c>
       <c r="G257" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -11096,10 +11408,10 @@
         <v>1274</v>
       </c>
       <c r="F258" t="s">
-        <v>1472</v>
+        <v>951</v>
       </c>
       <c r="G258" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -11122,7 +11434,7 @@
         <v>951</v>
       </c>
       <c r="G259" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -11142,10 +11454,10 @@
         <v>1274</v>
       </c>
       <c r="F260" t="s">
-        <v>1473</v>
+        <v>971</v>
       </c>
       <c r="G260" t="s">
-        <v>1579</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -11165,10 +11477,10 @@
         <v>1277</v>
       </c>
       <c r="F261" t="s">
-        <v>1474</v>
+        <v>1515</v>
       </c>
       <c r="G261" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -11188,10 +11500,10 @@
         <v>1284</v>
       </c>
       <c r="F262" t="s">
-        <v>1475</v>
+        <v>1355</v>
       </c>
       <c r="G262" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -11211,10 +11523,10 @@
         <v>1277</v>
       </c>
       <c r="F263" t="s">
-        <v>1351</v>
+        <v>1529</v>
       </c>
       <c r="G263" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -11237,7 +11549,7 @@
         <v>1068</v>
       </c>
       <c r="G264" t="s">
-        <v>1571</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -11257,10 +11569,10 @@
         <v>1277</v>
       </c>
       <c r="F265" t="s">
-        <v>1353</v>
+        <v>1515</v>
       </c>
       <c r="G265" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -11280,10 +11592,10 @@
         <v>1283</v>
       </c>
       <c r="F266" t="s">
-        <v>1476</v>
+        <v>1530</v>
       </c>
       <c r="G266" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -11303,10 +11615,10 @@
         <v>1283</v>
       </c>
       <c r="F267" t="s">
-        <v>971</v>
+        <v>1531</v>
       </c>
       <c r="G267" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -11326,10 +11638,10 @@
         <v>1298</v>
       </c>
       <c r="F268" t="s">
-        <v>1477</v>
+        <v>1532</v>
       </c>
       <c r="G268" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -11349,10 +11661,10 @@
         <v>1274</v>
       </c>
       <c r="F269" t="s">
-        <v>1478</v>
+        <v>1533</v>
       </c>
       <c r="G269" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -11372,10 +11684,10 @@
         <v>1309</v>
       </c>
       <c r="F270" t="s">
-        <v>1479</v>
+        <v>1534</v>
       </c>
       <c r="G270" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -11395,10 +11707,10 @@
         <v>1292</v>
       </c>
       <c r="F271" t="s">
-        <v>1480</v>
+        <v>1535</v>
       </c>
       <c r="G271" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -11418,10 +11730,10 @@
         <v>1277</v>
       </c>
       <c r="F272" t="s">
-        <v>1481</v>
+        <v>1536</v>
       </c>
       <c r="G272" t="s">
-        <v>1571</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -11441,10 +11753,10 @@
         <v>1284</v>
       </c>
       <c r="F273" t="s">
-        <v>1482</v>
+        <v>1537</v>
       </c>
       <c r="G273" t="s">
-        <v>1575</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -11464,10 +11776,10 @@
         <v>1274</v>
       </c>
       <c r="F274" t="s">
-        <v>1483</v>
+        <v>1538</v>
       </c>
       <c r="G274" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -11487,10 +11799,10 @@
         <v>1274</v>
       </c>
       <c r="F275" t="s">
-        <v>1484</v>
+        <v>1539</v>
       </c>
       <c r="G275" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -11510,10 +11822,10 @@
         <v>1302</v>
       </c>
       <c r="F276" t="s">
-        <v>1485</v>
+        <v>936</v>
       </c>
       <c r="G276" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -11533,10 +11845,10 @@
         <v>1284</v>
       </c>
       <c r="F277" t="s">
-        <v>1356</v>
+        <v>1363</v>
       </c>
       <c r="G277" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -11556,10 +11868,10 @@
         <v>1277</v>
       </c>
       <c r="F278" t="s">
-        <v>1374</v>
+        <v>1540</v>
       </c>
       <c r="G278" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -11579,10 +11891,10 @@
         <v>1283</v>
       </c>
       <c r="F279" t="s">
-        <v>1486</v>
+        <v>1541</v>
       </c>
       <c r="G279" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -11602,10 +11914,10 @@
         <v>1317</v>
       </c>
       <c r="F280" t="s">
-        <v>1487</v>
+        <v>1542</v>
       </c>
       <c r="G280" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -11625,10 +11937,10 @@
         <v>1274</v>
       </c>
       <c r="F281" t="s">
-        <v>1488</v>
+        <v>1391</v>
       </c>
       <c r="G281" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -11648,10 +11960,10 @@
         <v>1274</v>
       </c>
       <c r="F282" t="s">
-        <v>1351</v>
+        <v>1543</v>
       </c>
       <c r="G282" t="s">
-        <v>1579</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -11671,10 +11983,10 @@
         <v>1274</v>
       </c>
       <c r="F283" t="s">
-        <v>951</v>
+        <v>1544</v>
       </c>
       <c r="G283" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -11694,10 +12006,10 @@
         <v>1274</v>
       </c>
       <c r="F284" t="s">
-        <v>1352</v>
+        <v>1545</v>
       </c>
       <c r="G284" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -11717,10 +12029,10 @@
         <v>1274</v>
       </c>
       <c r="F285" t="s">
-        <v>1489</v>
+        <v>1546</v>
       </c>
       <c r="G285" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -11740,10 +12052,10 @@
         <v>1274</v>
       </c>
       <c r="F286" t="s">
-        <v>1490</v>
+        <v>1547</v>
       </c>
       <c r="G286" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -11763,10 +12075,10 @@
         <v>1274</v>
       </c>
       <c r="F287" t="s">
-        <v>1491</v>
+        <v>1548</v>
       </c>
       <c r="G287" t="s">
-        <v>1579</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -11786,10 +12098,10 @@
         <v>1283</v>
       </c>
       <c r="F288" t="s">
-        <v>1118</v>
+        <v>1549</v>
       </c>
       <c r="G288" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -11812,7 +12124,7 @@
         <v>951</v>
       </c>
       <c r="G289" t="s">
-        <v>1567</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -11832,10 +12144,10 @@
         <v>1318</v>
       </c>
       <c r="F290" t="s">
-        <v>1492</v>
+        <v>1550</v>
       </c>
       <c r="G290" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -11855,10 +12167,10 @@
         <v>1274</v>
       </c>
       <c r="F291" t="s">
-        <v>1493</v>
+        <v>1551</v>
       </c>
       <c r="G291" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -11878,10 +12190,10 @@
         <v>1274</v>
       </c>
       <c r="F292" t="s">
-        <v>1494</v>
+        <v>1552</v>
       </c>
       <c r="G292" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -11901,10 +12213,10 @@
         <v>1277</v>
       </c>
       <c r="F293" t="s">
-        <v>1492</v>
+        <v>1550</v>
       </c>
       <c r="G293" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -11924,10 +12236,10 @@
         <v>1274</v>
       </c>
       <c r="F294" t="s">
-        <v>1431</v>
+        <v>1553</v>
       </c>
       <c r="G294" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -11947,10 +12259,10 @@
         <v>1283</v>
       </c>
       <c r="F295" t="s">
-        <v>1430</v>
+        <v>1554</v>
       </c>
       <c r="G295" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -11970,10 +12282,10 @@
         <v>1319</v>
       </c>
       <c r="F296" t="s">
-        <v>1471</v>
+        <v>1555</v>
       </c>
       <c r="G296" t="s">
-        <v>1575</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -11993,10 +12305,10 @@
         <v>1274</v>
       </c>
       <c r="F297" t="s">
-        <v>1495</v>
+        <v>1556</v>
       </c>
       <c r="G297" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -12016,10 +12328,10 @@
         <v>1274</v>
       </c>
       <c r="F298" t="s">
-        <v>1478</v>
+        <v>1382</v>
       </c>
       <c r="G298" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -12039,10 +12351,10 @@
         <v>1296</v>
       </c>
       <c r="F299" t="s">
-        <v>1496</v>
+        <v>1557</v>
       </c>
       <c r="G299" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -12062,10 +12374,10 @@
         <v>1283</v>
       </c>
       <c r="F300" t="s">
-        <v>1441</v>
+        <v>1092</v>
       </c>
       <c r="G300" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -12088,7 +12400,7 @@
         <v>951</v>
       </c>
       <c r="G301" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -12108,10 +12420,10 @@
         <v>1274</v>
       </c>
       <c r="F302" t="s">
-        <v>1412</v>
+        <v>1558</v>
       </c>
       <c r="G302" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -12131,10 +12443,10 @@
         <v>1283</v>
       </c>
       <c r="F303" t="s">
-        <v>1497</v>
+        <v>1559</v>
       </c>
       <c r="G303" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -12154,10 +12466,10 @@
         <v>1292</v>
       </c>
       <c r="F304" t="s">
-        <v>1092</v>
+        <v>1560</v>
       </c>
       <c r="G304" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -12177,10 +12489,10 @@
         <v>1274</v>
       </c>
       <c r="F305" t="s">
-        <v>951</v>
+        <v>1561</v>
       </c>
       <c r="G305" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -12200,10 +12512,10 @@
         <v>1274</v>
       </c>
       <c r="F306" t="s">
-        <v>1430</v>
+        <v>954</v>
       </c>
       <c r="G306" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -12223,10 +12535,10 @@
         <v>1283</v>
       </c>
       <c r="F307" t="s">
-        <v>1498</v>
+        <v>1562</v>
       </c>
       <c r="G307" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -12246,10 +12558,10 @@
         <v>1277</v>
       </c>
       <c r="F308" t="s">
-        <v>1365</v>
+        <v>1563</v>
       </c>
       <c r="G308" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -12269,10 +12581,10 @@
         <v>1274</v>
       </c>
       <c r="F309" t="s">
-        <v>1499</v>
+        <v>1564</v>
       </c>
       <c r="G309" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -12295,7 +12607,7 @@
         <v>1003</v>
       </c>
       <c r="G310" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -12315,10 +12627,10 @@
         <v>1277</v>
       </c>
       <c r="F311" t="s">
-        <v>1500</v>
+        <v>936</v>
       </c>
       <c r="G311" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -12338,10 +12650,10 @@
         <v>1274</v>
       </c>
       <c r="F312" t="s">
-        <v>934</v>
+        <v>1565</v>
       </c>
       <c r="G312" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -12364,7 +12676,7 @@
         <v>951</v>
       </c>
       <c r="G313" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -12384,10 +12696,10 @@
         <v>1277</v>
       </c>
       <c r="F314" t="s">
-        <v>1353</v>
+        <v>1374</v>
       </c>
       <c r="G314" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -12410,7 +12722,7 @@
         <v>1092</v>
       </c>
       <c r="G315" t="s">
-        <v>1568</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -12430,10 +12742,10 @@
         <v>1283</v>
       </c>
       <c r="F316" t="s">
-        <v>1092</v>
+        <v>1566</v>
       </c>
       <c r="G316" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -12453,10 +12765,10 @@
         <v>1283</v>
       </c>
       <c r="F317" t="s">
-        <v>971</v>
+        <v>1567</v>
       </c>
       <c r="G317" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -12476,10 +12788,10 @@
         <v>1283</v>
       </c>
       <c r="F318" t="s">
-        <v>1501</v>
+        <v>1568</v>
       </c>
       <c r="G318" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -12499,10 +12811,10 @@
         <v>1274</v>
       </c>
       <c r="F319" t="s">
-        <v>951</v>
+        <v>1569</v>
       </c>
       <c r="G319" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -12525,7 +12837,7 @@
         <v>951</v>
       </c>
       <c r="G320" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -12545,10 +12857,10 @@
         <v>1292</v>
       </c>
       <c r="F321" t="s">
-        <v>1502</v>
+        <v>1570</v>
       </c>
       <c r="G321" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -12568,10 +12880,10 @@
         <v>1274</v>
       </c>
       <c r="F322" t="s">
-        <v>1503</v>
+        <v>1571</v>
       </c>
       <c r="G322" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -12591,10 +12903,10 @@
         <v>1274</v>
       </c>
       <c r="F323" t="s">
-        <v>1412</v>
+        <v>1435</v>
       </c>
       <c r="G323" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -12614,10 +12926,10 @@
         <v>1277</v>
       </c>
       <c r="F324" t="s">
-        <v>1340</v>
+        <v>1355</v>
       </c>
       <c r="G324" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -12640,7 +12952,7 @@
         <v>1174</v>
       </c>
       <c r="G325" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -12660,10 +12972,10 @@
         <v>1283</v>
       </c>
       <c r="F326" t="s">
-        <v>1092</v>
+        <v>1572</v>
       </c>
       <c r="G326" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -12683,10 +12995,10 @@
         <v>1313</v>
       </c>
       <c r="F327" t="s">
-        <v>1504</v>
+        <v>1573</v>
       </c>
       <c r="G327" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -12706,10 +13018,10 @@
         <v>1283</v>
       </c>
       <c r="F328" t="s">
-        <v>1356</v>
+        <v>1363</v>
       </c>
       <c r="G328" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -12729,10 +13041,10 @@
         <v>1308</v>
       </c>
       <c r="F329" t="s">
-        <v>934</v>
+        <v>1574</v>
       </c>
       <c r="G329" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -12752,10 +13064,10 @@
         <v>1277</v>
       </c>
       <c r="F330" t="s">
-        <v>1505</v>
+        <v>1575</v>
       </c>
       <c r="G330" t="s">
-        <v>1574</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -12778,7 +13090,7 @@
         <v>951</v>
       </c>
       <c r="G331" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -12801,7 +13113,7 @@
         <v>1092</v>
       </c>
       <c r="G332" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -12821,10 +13133,10 @@
         <v>1274</v>
       </c>
       <c r="F333" t="s">
-        <v>934</v>
+        <v>1576</v>
       </c>
       <c r="G333" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -12844,10 +13156,10 @@
         <v>1283</v>
       </c>
       <c r="F334" t="s">
-        <v>1068</v>
+        <v>1577</v>
       </c>
       <c r="G334" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -12867,10 +13179,10 @@
         <v>1321</v>
       </c>
       <c r="F335" t="s">
-        <v>1506</v>
+        <v>1578</v>
       </c>
       <c r="G335" t="s">
-        <v>1589</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -12890,10 +13202,10 @@
         <v>1283</v>
       </c>
       <c r="F336" t="s">
-        <v>1352</v>
+        <v>1579</v>
       </c>
       <c r="G336" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -12913,10 +13225,10 @@
         <v>1295</v>
       </c>
       <c r="F337" t="s">
-        <v>1482</v>
+        <v>1580</v>
       </c>
       <c r="G337" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -12936,10 +13248,10 @@
         <v>1283</v>
       </c>
       <c r="F338" t="s">
-        <v>1356</v>
+        <v>1581</v>
       </c>
       <c r="G338" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -12959,10 +13271,10 @@
         <v>1274</v>
       </c>
       <c r="F339" t="s">
-        <v>1507</v>
+        <v>971</v>
       </c>
       <c r="G339" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -12982,10 +13294,10 @@
         <v>1283</v>
       </c>
       <c r="F340" t="s">
-        <v>1183</v>
+        <v>1582</v>
       </c>
       <c r="G340" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -13005,10 +13317,10 @@
         <v>1320</v>
       </c>
       <c r="F341" t="s">
-        <v>1353</v>
+        <v>1583</v>
       </c>
       <c r="G341" t="s">
-        <v>1579</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -13028,10 +13340,10 @@
         <v>1309</v>
       </c>
       <c r="F342" t="s">
-        <v>1427</v>
+        <v>1584</v>
       </c>
       <c r="G342" t="s">
-        <v>1568</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -13051,10 +13363,10 @@
         <v>1309</v>
       </c>
       <c r="F343" t="s">
-        <v>1508</v>
+        <v>1585</v>
       </c>
       <c r="G343" t="s">
-        <v>1574</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -13074,10 +13386,10 @@
         <v>1295</v>
       </c>
       <c r="F344" t="s">
-        <v>1502</v>
+        <v>1570</v>
       </c>
       <c r="G344" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -13097,10 +13409,10 @@
         <v>1274</v>
       </c>
       <c r="F345" t="s">
-        <v>1509</v>
+        <v>1586</v>
       </c>
       <c r="G345" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -13120,10 +13432,10 @@
         <v>1274</v>
       </c>
       <c r="F346" t="s">
-        <v>1510</v>
+        <v>1587</v>
       </c>
       <c r="G346" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -13143,10 +13455,10 @@
         <v>1315</v>
       </c>
       <c r="F347" t="s">
-        <v>1511</v>
+        <v>1588</v>
       </c>
       <c r="G347" t="s">
-        <v>1590</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -13166,10 +13478,10 @@
         <v>1274</v>
       </c>
       <c r="F348" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="G348" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -13189,10 +13501,10 @@
         <v>1298</v>
       </c>
       <c r="F349" t="s">
-        <v>1512</v>
+        <v>1589</v>
       </c>
       <c r="G349" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -13212,10 +13524,10 @@
         <v>1322</v>
       </c>
       <c r="F350" t="s">
-        <v>1362</v>
+        <v>1590</v>
       </c>
       <c r="G350" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -13235,10 +13547,10 @@
         <v>1277</v>
       </c>
       <c r="F351" t="s">
-        <v>1513</v>
+        <v>1480</v>
       </c>
       <c r="G351" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -13258,10 +13570,10 @@
         <v>1298</v>
       </c>
       <c r="F352" t="s">
-        <v>1514</v>
+        <v>1591</v>
       </c>
       <c r="G352" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -13281,10 +13593,10 @@
         <v>1274</v>
       </c>
       <c r="F353" t="s">
-        <v>951</v>
+        <v>1592</v>
       </c>
       <c r="G353" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -13307,7 +13619,7 @@
         <v>954</v>
       </c>
       <c r="G354" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -13327,10 +13639,10 @@
         <v>1296</v>
       </c>
       <c r="F355" t="s">
-        <v>1092</v>
+        <v>1593</v>
       </c>
       <c r="G355" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -13350,10 +13662,10 @@
         <v>1274</v>
       </c>
       <c r="F356" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="G356" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -13373,10 +13685,10 @@
         <v>1277</v>
       </c>
       <c r="F357" t="s">
-        <v>1374</v>
+        <v>1540</v>
       </c>
       <c r="G357" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -13396,10 +13708,10 @@
         <v>1320</v>
       </c>
       <c r="F358" t="s">
-        <v>1515</v>
+        <v>1594</v>
       </c>
       <c r="G358" t="s">
-        <v>1578</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -13419,10 +13731,10 @@
         <v>1283</v>
       </c>
       <c r="F359" t="s">
-        <v>971</v>
+        <v>1595</v>
       </c>
       <c r="G359" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -13442,10 +13754,10 @@
         <v>1283</v>
       </c>
       <c r="F360" t="s">
-        <v>1516</v>
+        <v>1596</v>
       </c>
       <c r="G360" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -13465,10 +13777,10 @@
         <v>1323</v>
       </c>
       <c r="F361" t="s">
-        <v>1517</v>
+        <v>1597</v>
       </c>
       <c r="G361" t="s">
-        <v>1591</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -13488,10 +13800,10 @@
         <v>1296</v>
       </c>
       <c r="F362" t="s">
-        <v>1346</v>
+        <v>1598</v>
       </c>
       <c r="G362" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -13511,10 +13823,10 @@
         <v>1283</v>
       </c>
       <c r="F363" t="s">
-        <v>1200</v>
+        <v>1599</v>
       </c>
       <c r="G363" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -13534,10 +13846,10 @@
         <v>1277</v>
       </c>
       <c r="F364" t="s">
-        <v>1385</v>
+        <v>1600</v>
       </c>
       <c r="G364" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -13557,10 +13869,10 @@
         <v>1296</v>
       </c>
       <c r="F365" t="s">
-        <v>1405</v>
+        <v>1601</v>
       </c>
       <c r="G365" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -13580,10 +13892,10 @@
         <v>1284</v>
       </c>
       <c r="F366" t="s">
-        <v>1518</v>
+        <v>1602</v>
       </c>
       <c r="G366" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -13603,10 +13915,10 @@
         <v>1277</v>
       </c>
       <c r="F367" t="s">
-        <v>1482</v>
+        <v>1603</v>
       </c>
       <c r="G367" t="s">
-        <v>1571</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -13626,10 +13938,10 @@
         <v>1277</v>
       </c>
       <c r="F368" t="s">
-        <v>1519</v>
+        <v>1604</v>
       </c>
       <c r="G368" t="s">
-        <v>1592</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -13649,10 +13961,10 @@
         <v>1292</v>
       </c>
       <c r="F369" t="s">
-        <v>1501</v>
+        <v>1605</v>
       </c>
       <c r="G369" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -13672,10 +13984,10 @@
         <v>1283</v>
       </c>
       <c r="F370" t="s">
-        <v>1520</v>
+        <v>1606</v>
       </c>
       <c r="G370" t="s">
-        <v>1567</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -13695,10 +14007,10 @@
         <v>1277</v>
       </c>
       <c r="F371" t="s">
-        <v>1521</v>
+        <v>1407</v>
       </c>
       <c r="G371" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -13718,10 +14030,10 @@
         <v>1296</v>
       </c>
       <c r="F372" t="s">
-        <v>1372</v>
+        <v>1607</v>
       </c>
       <c r="G372" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -13741,10 +14053,10 @@
         <v>1320</v>
       </c>
       <c r="F373" t="s">
-        <v>1522</v>
+        <v>1608</v>
       </c>
       <c r="G373" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -13764,10 +14076,10 @@
         <v>1283</v>
       </c>
       <c r="F374" t="s">
-        <v>1523</v>
+        <v>1609</v>
       </c>
       <c r="G374" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -13787,10 +14099,10 @@
         <v>1277</v>
       </c>
       <c r="F375" t="s">
-        <v>1524</v>
+        <v>1610</v>
       </c>
       <c r="G375" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -13810,10 +14122,10 @@
         <v>1283</v>
       </c>
       <c r="F376" t="s">
-        <v>1525</v>
+        <v>1611</v>
       </c>
       <c r="G376" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -13833,10 +14145,10 @@
         <v>1283</v>
       </c>
       <c r="F377" t="s">
-        <v>1526</v>
+        <v>1612</v>
       </c>
       <c r="G377" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -13856,7 +14168,7 @@
         <v>1283</v>
       </c>
       <c r="G378" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -13876,10 +14188,10 @@
         <v>1283</v>
       </c>
       <c r="F379" t="s">
-        <v>1118</v>
+        <v>1613</v>
       </c>
       <c r="G379" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -13899,10 +14211,10 @@
         <v>1277</v>
       </c>
       <c r="F380" t="s">
-        <v>1492</v>
+        <v>1614</v>
       </c>
       <c r="G380" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -13922,10 +14234,10 @@
         <v>1277</v>
       </c>
       <c r="F381" t="s">
-        <v>1481</v>
+        <v>1615</v>
       </c>
       <c r="G381" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -13945,10 +14257,10 @@
         <v>1283</v>
       </c>
       <c r="F382" t="s">
-        <v>1527</v>
+        <v>1616</v>
       </c>
       <c r="G382" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="383" spans="1:7">
@@ -13968,10 +14280,10 @@
         <v>1324</v>
       </c>
       <c r="F383" t="s">
-        <v>1528</v>
+        <v>1617</v>
       </c>
       <c r="G383" t="s">
-        <v>1576</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -13991,10 +14303,10 @@
         <v>1283</v>
       </c>
       <c r="F384" t="s">
-        <v>1529</v>
+        <v>1068</v>
       </c>
       <c r="G384" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -14014,10 +14326,10 @@
         <v>1320</v>
       </c>
       <c r="F385" t="s">
-        <v>1353</v>
+        <v>1515</v>
       </c>
       <c r="G385" t="s">
-        <v>1568</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -14037,10 +14349,10 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1530</v>
+        <v>1618</v>
       </c>
       <c r="G386" t="s">
-        <v>1593</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -14060,10 +14372,10 @@
         <v>1326</v>
       </c>
       <c r="F387" t="s">
-        <v>1531</v>
+        <v>1619</v>
       </c>
       <c r="G387" t="s">
-        <v>1584</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -14083,10 +14395,10 @@
         <v>1327</v>
       </c>
       <c r="F388" t="s">
-        <v>1532</v>
+        <v>1519</v>
       </c>
       <c r="G388" t="s">
-        <v>1568</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -14106,10 +14418,10 @@
         <v>1277</v>
       </c>
       <c r="F389" t="s">
-        <v>1505</v>
+        <v>1575</v>
       </c>
       <c r="G389" t="s">
-        <v>1583</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -14129,10 +14441,10 @@
         <v>1323</v>
       </c>
       <c r="F390" t="s">
-        <v>1533</v>
+        <v>1620</v>
       </c>
       <c r="G390" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -14155,7 +14467,7 @@
         <v>999</v>
       </c>
       <c r="G391" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -14175,10 +14487,10 @@
         <v>1281</v>
       </c>
       <c r="F392" t="s">
-        <v>1534</v>
+        <v>1621</v>
       </c>
       <c r="G392" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -14198,10 +14510,10 @@
         <v>1283</v>
       </c>
       <c r="F393" t="s">
-        <v>1427</v>
+        <v>1463</v>
       </c>
       <c r="G393" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -14221,10 +14533,10 @@
         <v>1293</v>
       </c>
       <c r="F394" t="s">
-        <v>1353</v>
+        <v>1374</v>
       </c>
       <c r="G394" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -14247,7 +14559,7 @@
         <v>971</v>
       </c>
       <c r="G395" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -14267,10 +14579,10 @@
         <v>1283</v>
       </c>
       <c r="F396" t="s">
-        <v>1351</v>
+        <v>1391</v>
       </c>
       <c r="G396" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="397" spans="1:7">
@@ -14290,10 +14602,10 @@
         <v>1277</v>
       </c>
       <c r="F397" t="s">
-        <v>1352</v>
+        <v>1622</v>
       </c>
       <c r="G397" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="398" spans="1:7">
@@ -14313,10 +14625,10 @@
         <v>1283</v>
       </c>
       <c r="F398" t="s">
-        <v>1092</v>
+        <v>1623</v>
       </c>
       <c r="G398" t="s">
-        <v>1578</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="399" spans="1:7">
@@ -14336,10 +14648,10 @@
         <v>1283</v>
       </c>
       <c r="F399" t="s">
-        <v>1501</v>
+        <v>1624</v>
       </c>
       <c r="G399" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="400" spans="1:7">
@@ -14359,10 +14671,10 @@
         <v>1283</v>
       </c>
       <c r="F400" t="s">
-        <v>1068</v>
+        <v>1625</v>
       </c>
       <c r="G400" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -14382,10 +14694,10 @@
         <v>1277</v>
       </c>
       <c r="F401" t="s">
-        <v>1492</v>
+        <v>1626</v>
       </c>
       <c r="G401" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -14405,10 +14717,10 @@
         <v>1292</v>
       </c>
       <c r="F402" t="s">
-        <v>1535</v>
+        <v>1092</v>
       </c>
       <c r="G402" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -14428,10 +14740,10 @@
         <v>1283</v>
       </c>
       <c r="F403" t="s">
-        <v>1536</v>
+        <v>971</v>
       </c>
       <c r="G403" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -14451,10 +14763,10 @@
         <v>1302</v>
       </c>
       <c r="F404" t="s">
-        <v>1532</v>
+        <v>1627</v>
       </c>
       <c r="G404" t="s">
-        <v>1594</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -14473,8 +14785,11 @@
       <c r="E405" t="s">
         <v>1292</v>
       </c>
+      <c r="F405" t="s">
+        <v>1628</v>
+      </c>
       <c r="G405" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -14494,10 +14809,10 @@
         <v>1292</v>
       </c>
       <c r="F406" t="s">
-        <v>1537</v>
+        <v>1227</v>
       </c>
       <c r="G406" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -14517,10 +14832,10 @@
         <v>1283</v>
       </c>
       <c r="F407" t="s">
-        <v>1430</v>
+        <v>1523</v>
       </c>
       <c r="G407" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -14540,10 +14855,10 @@
         <v>1277</v>
       </c>
       <c r="F408" t="s">
-        <v>1538</v>
+        <v>1453</v>
       </c>
       <c r="G408" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -14563,10 +14878,10 @@
         <v>1323</v>
       </c>
       <c r="F409" t="s">
-        <v>1539</v>
+        <v>1629</v>
       </c>
       <c r="G409" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -14586,10 +14901,10 @@
         <v>1283</v>
       </c>
       <c r="F410" t="s">
-        <v>1092</v>
+        <v>1630</v>
       </c>
       <c r="G410" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -14609,10 +14924,10 @@
         <v>1292</v>
       </c>
       <c r="F411" t="s">
-        <v>1540</v>
+        <v>1631</v>
       </c>
       <c r="G411" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="412" spans="1:7">
@@ -14632,10 +14947,10 @@
         <v>1283</v>
       </c>
       <c r="F412" t="s">
-        <v>1430</v>
+        <v>1632</v>
       </c>
       <c r="G412" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -14655,10 +14970,10 @@
         <v>1283</v>
       </c>
       <c r="F413" t="s">
-        <v>971</v>
+        <v>1633</v>
       </c>
       <c r="G413" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -14681,7 +14996,7 @@
         <v>1234</v>
       </c>
       <c r="G414" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -14701,10 +15016,10 @@
         <v>1322</v>
       </c>
       <c r="F415" t="s">
-        <v>1541</v>
+        <v>1634</v>
       </c>
       <c r="G415" t="s">
-        <v>1581</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -14724,10 +15039,10 @@
         <v>1283</v>
       </c>
       <c r="F416" t="s">
-        <v>1351</v>
+        <v>1391</v>
       </c>
       <c r="G416" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -14747,10 +15062,10 @@
         <v>1310</v>
       </c>
       <c r="F417" t="s">
-        <v>1505</v>
+        <v>1575</v>
       </c>
       <c r="G417" t="s">
-        <v>1580</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -14770,10 +15085,10 @@
         <v>1283</v>
       </c>
       <c r="F418" t="s">
-        <v>1542</v>
+        <v>1635</v>
       </c>
       <c r="G418" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -14793,10 +15108,10 @@
         <v>1328</v>
       </c>
       <c r="F419" t="s">
-        <v>1543</v>
+        <v>1636</v>
       </c>
       <c r="G419" t="s">
-        <v>1595</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -14816,10 +15131,10 @@
         <v>1283</v>
       </c>
       <c r="F420" t="s">
-        <v>1356</v>
+        <v>1637</v>
       </c>
       <c r="G420" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -14839,10 +15154,10 @@
         <v>1283</v>
       </c>
       <c r="F421" t="s">
-        <v>1544</v>
+        <v>1638</v>
       </c>
       <c r="G421" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -14862,10 +15177,10 @@
         <v>1329</v>
       </c>
       <c r="F422" t="s">
-        <v>1408</v>
+        <v>1428</v>
       </c>
       <c r="G422" t="s">
-        <v>1582</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -14885,10 +15200,10 @@
         <v>1293</v>
       </c>
       <c r="F423" t="s">
-        <v>1505</v>
+        <v>1575</v>
       </c>
       <c r="G423" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -14908,10 +15223,10 @@
         <v>1283</v>
       </c>
       <c r="F424" t="s">
-        <v>1545</v>
+        <v>1639</v>
       </c>
       <c r="G424" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -14931,10 +15246,10 @@
         <v>1292</v>
       </c>
       <c r="F425" t="s">
-        <v>1546</v>
+        <v>1640</v>
       </c>
       <c r="G425" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -14954,10 +15269,10 @@
         <v>1284</v>
       </c>
       <c r="F426" t="s">
-        <v>1505</v>
+        <v>1575</v>
       </c>
       <c r="G426" t="s">
-        <v>1569</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -14980,7 +15295,7 @@
         <v>1068</v>
       </c>
       <c r="G427" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -15003,7 +15318,7 @@
         <v>1245</v>
       </c>
       <c r="G428" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -15023,10 +15338,10 @@
         <v>1296</v>
       </c>
       <c r="F429" t="s">
-        <v>1529</v>
+        <v>1068</v>
       </c>
       <c r="G429" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -15046,10 +15361,10 @@
         <v>1328</v>
       </c>
       <c r="F430" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="G430" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -15069,10 +15384,10 @@
         <v>1283</v>
       </c>
       <c r="F431" t="s">
-        <v>1547</v>
+        <v>1454</v>
       </c>
       <c r="G431" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -15092,10 +15407,10 @@
         <v>1277</v>
       </c>
       <c r="F432" t="s">
-        <v>1353</v>
+        <v>1641</v>
       </c>
       <c r="G432" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -15115,10 +15430,10 @@
         <v>1283</v>
       </c>
       <c r="F433" t="s">
-        <v>1431</v>
+        <v>1642</v>
       </c>
       <c r="G433" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -15138,10 +15453,10 @@
         <v>1292</v>
       </c>
       <c r="F434" t="s">
-        <v>1448</v>
+        <v>1643</v>
       </c>
       <c r="G434" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -15161,10 +15476,10 @@
         <v>1295</v>
       </c>
       <c r="F435" t="s">
-        <v>1548</v>
+        <v>1644</v>
       </c>
       <c r="G435" t="s">
-        <v>1596</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -15184,10 +15499,10 @@
         <v>1295</v>
       </c>
       <c r="F436" t="s">
-        <v>1092</v>
+        <v>1645</v>
       </c>
       <c r="G436" t="s">
-        <v>1571</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -15207,10 +15522,10 @@
         <v>1292</v>
       </c>
       <c r="F437" t="s">
-        <v>971</v>
+        <v>1646</v>
       </c>
       <c r="G437" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -15230,10 +15545,10 @@
         <v>1292</v>
       </c>
       <c r="F438" t="s">
-        <v>1549</v>
+        <v>1647</v>
       </c>
       <c r="G438" t="s">
-        <v>1592</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -15253,10 +15568,10 @@
         <v>1283</v>
       </c>
       <c r="F439" t="s">
-        <v>1550</v>
+        <v>1648</v>
       </c>
       <c r="G439" t="s">
-        <v>1583</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -15279,7 +15594,7 @@
         <v>951</v>
       </c>
       <c r="G440" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -15299,10 +15614,10 @@
         <v>1292</v>
       </c>
       <c r="F441" t="s">
-        <v>1431</v>
+        <v>1649</v>
       </c>
       <c r="G441" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -15322,10 +15637,10 @@
         <v>1283</v>
       </c>
       <c r="F442" t="s">
-        <v>1092</v>
+        <v>1593</v>
       </c>
       <c r="G442" t="s">
-        <v>1565</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -15345,10 +15660,10 @@
         <v>1277</v>
       </c>
       <c r="F443" t="s">
-        <v>1551</v>
+        <v>1610</v>
       </c>
       <c r="G443" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -15368,10 +15683,10 @@
         <v>1277</v>
       </c>
       <c r="F444" t="s">
-        <v>1377</v>
+        <v>1650</v>
       </c>
       <c r="G444" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -15391,10 +15706,10 @@
         <v>1277</v>
       </c>
       <c r="F445" t="s">
-        <v>1552</v>
+        <v>1651</v>
       </c>
       <c r="G445" t="s">
-        <v>1568</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="446" spans="1:7">
@@ -15414,10 +15729,10 @@
         <v>1277</v>
       </c>
       <c r="F446" t="s">
-        <v>1377</v>
+        <v>1650</v>
       </c>
       <c r="G446" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -15437,10 +15752,10 @@
         <v>1292</v>
       </c>
       <c r="F447" t="s">
-        <v>1553</v>
+        <v>1652</v>
       </c>
       <c r="G447" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -15460,10 +15775,10 @@
         <v>1277</v>
       </c>
       <c r="F448" t="s">
-        <v>1393</v>
+        <v>1653</v>
       </c>
       <c r="G448" t="s">
-        <v>1571</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="449" spans="1:7">
@@ -15483,10 +15798,10 @@
         <v>1330</v>
       </c>
       <c r="F449" t="s">
-        <v>1554</v>
+        <v>1654</v>
       </c>
       <c r="G449" t="s">
-        <v>1597</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="450" spans="1:7">
@@ -15506,10 +15821,10 @@
         <v>1277</v>
       </c>
       <c r="F450" t="s">
-        <v>1385</v>
+        <v>1655</v>
       </c>
       <c r="G450" t="s">
-        <v>1571</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="451" spans="1:7">
@@ -15529,10 +15844,10 @@
         <v>1320</v>
       </c>
       <c r="F451" t="s">
-        <v>1555</v>
+        <v>1656</v>
       </c>
       <c r="G451" t="s">
-        <v>1579</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="452" spans="1:7">
@@ -15552,10 +15867,10 @@
         <v>1283</v>
       </c>
       <c r="F452" t="s">
-        <v>1092</v>
+        <v>1657</v>
       </c>
       <c r="G452" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="453" spans="1:7">
@@ -15575,10 +15890,10 @@
         <v>1292</v>
       </c>
       <c r="F453" t="s">
-        <v>1556</v>
+        <v>1658</v>
       </c>
       <c r="G453" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="454" spans="1:7">
@@ -15598,10 +15913,10 @@
         <v>1320</v>
       </c>
       <c r="F454" t="s">
-        <v>1557</v>
+        <v>1659</v>
       </c>
       <c r="G454" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="455" spans="1:7">
@@ -15621,10 +15936,10 @@
         <v>1292</v>
       </c>
       <c r="F455" t="s">
-        <v>1558</v>
+        <v>1660</v>
       </c>
       <c r="G455" t="s">
-        <v>1566</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="456" spans="1:7">
@@ -15644,10 +15959,10 @@
         <v>1331</v>
       </c>
       <c r="F456" t="s">
-        <v>1559</v>
+        <v>1661</v>
       </c>
       <c r="G456" t="s">
-        <v>1584</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -15667,10 +15982,10 @@
         <v>1332</v>
       </c>
       <c r="F457" t="s">
-        <v>1560</v>
+        <v>1662</v>
       </c>
       <c r="G457" t="s">
-        <v>1589</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="458" spans="1:7">
@@ -15690,10 +16005,10 @@
         <v>1277</v>
       </c>
       <c r="F458" t="s">
-        <v>1561</v>
+        <v>1663</v>
       </c>
       <c r="G458" t="s">
-        <v>1587</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="459" spans="1:7">
@@ -15713,10 +16028,10 @@
         <v>1277</v>
       </c>
       <c r="F459" t="s">
-        <v>1553</v>
+        <v>1664</v>
       </c>
       <c r="G459" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="460" spans="1:7">
@@ -15736,10 +16051,10 @@
         <v>1333</v>
       </c>
       <c r="F460" t="s">
-        <v>1562</v>
+        <v>1413</v>
       </c>
       <c r="G460" t="s">
-        <v>1598</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="461" spans="1:7">
@@ -15759,10 +16074,10 @@
         <v>1292</v>
       </c>
       <c r="F461" t="s">
-        <v>1377</v>
+        <v>1665</v>
       </c>
       <c r="G461" t="s">
-        <v>1563</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -15785,7 +16100,7 @@
         <v>951</v>
       </c>
       <c r="G462" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -15805,10 +16120,10 @@
         <v>1320</v>
       </c>
       <c r="F463" t="s">
-        <v>1502</v>
+        <v>1570</v>
       </c>
       <c r="G463" t="s">
-        <v>1579</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -15831,7 +16146,7 @@
         <v>971</v>
       </c>
       <c r="G464" t="s">
-        <v>1564</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -15851,10 +16166,10 @@
         <v>1334</v>
       </c>
       <c r="F465" t="s">
-        <v>1353</v>
+        <v>1374</v>
       </c>
       <c r="G465" t="s">
-        <v>1568</v>
+        <v>1671</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Filter/lda-partial-ner.xlsx
+++ b/Results/Filter/lda-partial-ner.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="1715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="1723">
   <si>
     <t>id</t>
   </si>
@@ -4036,16 +4036,16 @@
     <t>good|list|rest|wine</t>
   </si>
   <si>
-    <t>away</t>
+    <t>away|rice|rice</t>
   </si>
   <si>
     <t>share|family</t>
   </si>
   <si>
-    <t>service|price|come</t>
-  </si>
-  <si>
-    <t>service|always|everything</t>
+    <t>service|price|rice|come</t>
+  </si>
+  <si>
+    <t>service|always</t>
   </si>
   <si>
     <t>edible|special</t>
@@ -4087,10 +4087,10 @@
     <t>fresh|adequately|seemed|sushi|pretty</t>
   </si>
   <si>
-    <t>good|fish</t>
-  </si>
-  <si>
-    <t>price|well|sushi</t>
+    <t>good|fish|rice|rice</t>
+  </si>
+  <si>
+    <t>price|well|sushi|rice</t>
   </si>
   <si>
     <t>service|well|food</t>
@@ -4108,19 +4108,16 @@
     <t>good|food|like</t>
   </si>
   <si>
-    <t>service|sometimes|sometimes</t>
-  </si>
-  <si>
     <t>bland|spicy|food|like</t>
   </si>
   <si>
     <t>ambience|pretty|casual|would</t>
   </si>
   <si>
-    <t>idea|view|chart|house</t>
-  </si>
-  <si>
-    <t>great|great|great|service|price|food|reasonable</t>
+    <t>river|weehawken|idea|top|view|chart|house</t>
+  </si>
+  <si>
+    <t>great|great|great|service|price|food|rice|reasonable</t>
   </si>
   <si>
     <t>edible|dessert|recommend</t>
@@ -4141,7 +4138,7 @@
     <t>pizza|live</t>
   </si>
   <si>
-    <t>pizza|price</t>
+    <t>pizza|price|rice</t>
   </si>
   <si>
     <t>good|pizza</t>
@@ -4168,7 +4165,7 @@
     <t>always|always|young|friendly|nevertheless|wife|well</t>
   </si>
   <si>
-    <t>price|wine|reasonable</t>
+    <t>price|wine|rice|reasonable</t>
   </si>
   <si>
     <t>great|delicious|service|food|come</t>
@@ -4186,7 +4183,7 @@
     <t>great|always|wine</t>
   </si>
   <si>
-    <t>sometimes|always|friendly|forget|work|people</t>
+    <t>always|friendly|forget|work|people</t>
   </si>
   <si>
     <t>pizza|like</t>
@@ -4201,12 +4198,21 @@
     <t>food|much</t>
   </si>
   <si>
+    <t>food|waitress</t>
+  </si>
+  <si>
     <t>great|service|friendly</t>
   </si>
   <si>
     <t>great|pizza|service</t>
   </si>
   <si>
+    <t>end|block</t>
+  </si>
+  <si>
+    <t>city|york|sushi</t>
+  </si>
+  <si>
     <t>food|place</t>
   </si>
   <si>
@@ -4216,7 +4222,7 @@
     <t>great|always|food|sushi</t>
   </si>
   <si>
-    <t>great|price|atmosphere</t>
+    <t>great|price|atmosphere|rice</t>
   </si>
   <si>
     <t>looked|dumpling|appetizer</t>
@@ -4237,7 +4243,7 @@
     <t>restaurant|charm|rest|warm</t>
   </si>
   <si>
-    <t>great|great|price|selection|wine</t>
+    <t>great|great|price|selection|wine|rice</t>
   </si>
   <si>
     <t>good|food|find|vibe</t>
@@ -4255,13 +4261,16 @@
     <t>spicy|roll</t>
   </si>
   <si>
+    <t>lobster</t>
+  </si>
+  <si>
     <t>pretty</t>
   </si>
   <si>
-    <t>price|dessert</t>
-  </si>
-  <si>
-    <t>made|price|always|well|selection|wine</t>
+    <t>price|rice|dessert</t>
+  </si>
+  <si>
+    <t>made|price|always|well|selection|wine|rice</t>
   </si>
   <si>
     <t>special</t>
@@ -4276,10 +4285,10 @@
     <t>delight|delicious|food</t>
   </si>
   <si>
-    <t>price|well|well|rest|wine</t>
-  </si>
-  <si>
-    <t>sitting|bathroom|order</t>
+    <t>price|well|well|rest|wine|rice</t>
+  </si>
+  <si>
+    <t>sitting|waitress|bathroom|order</t>
   </si>
   <si>
     <t>restaurant|service|away|rest|food</t>
@@ -4306,660 +4315,672 @@
     <t>mozzarella|appetizer|selection|would</t>
   </si>
   <si>
-    <t>staff|business</t>
+    <t>staff|business|pie|uws</t>
+  </si>
+  <si>
+    <t>restaurant|salad|rest|food</t>
+  </si>
+  <si>
+    <t>service|warm</t>
+  </si>
+  <si>
+    <t>staff|nonsense</t>
+  </si>
+  <si>
+    <t>would|would|still|else|lived|live</t>
+  </si>
+  <si>
+    <t>roll|served</t>
+  </si>
+  <si>
+    <t>looked|sake</t>
+  </si>
+  <si>
+    <t>roll|special|lobster</t>
+  </si>
+  <si>
+    <t>good|service</t>
+  </si>
+  <si>
+    <t>good|well|though|food|selection|order</t>
+  </si>
+  <si>
+    <t>good|list|filled|selection|wine|wine</t>
+  </si>
+  <si>
+    <t>restaurant|though|rest</t>
+  </si>
+  <si>
+    <t>restaurant|always|though|rest</t>
+  </si>
+  <si>
+    <t>good|fresh|though|food|order</t>
+  </si>
+  <si>
+    <t>take|salad|atmosphere|order|lobster|jazz|cobb|live|band|taken</t>
+  </si>
+  <si>
+    <t>delicious|made|food|food</t>
+  </si>
+  <si>
+    <t>served|food</t>
+  </si>
+  <si>
+    <t>good|made|laugh|hidden|bathroom|place</t>
+  </si>
+  <si>
+    <t>delicious|made|dish|guest|food|must|must|recommend|tortelini|happy|band</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>service|bart|food|must</t>
+  </si>
+  <si>
+    <t>fresh|high|roll|highly|much|recommend|lobster|lobster</t>
+  </si>
+  <si>
+    <t>pizza|chip|enjoyed|salad|santa|chopped|fish|guest</t>
+  </si>
+  <si>
+    <t>service|high|ambience|bart|food|wonderful|highly|recommend</t>
+  </si>
+  <si>
+    <t>bland</t>
+  </si>
+  <si>
+    <t>dumpling</t>
+  </si>
+  <si>
+    <t>restaurant|good|service|rest</t>
+  </si>
+  <si>
+    <t>roll|sushi|pretty|average</t>
+  </si>
+  <si>
+    <t>delicious|else</t>
+  </si>
+  <si>
+    <t>service|price|though|rice|reasonable</t>
+  </si>
+  <si>
+    <t>restaurant|fresh|fresh|delicious|rest|food</t>
+  </si>
+  <si>
+    <t>hats|chef</t>
+  </si>
+  <si>
+    <t>fresh|delicious|spicy|salad</t>
+  </si>
+  <si>
+    <t>fish|special</t>
+  </si>
+  <si>
+    <t>great|people|vibe</t>
+  </si>
+  <si>
+    <t>atmosphere|much|like</t>
+  </si>
+  <si>
+    <t>good|though|ambience</t>
+  </si>
+  <si>
+    <t>great|salad|though</t>
+  </si>
+  <si>
+    <t>good|sushi</t>
+  </si>
+  <si>
+    <t>spicy|price|roll|rice</t>
+  </si>
+  <si>
+    <t>good|well</t>
+  </si>
+  <si>
+    <t>food|order</t>
+  </si>
+  <si>
+    <t>great|service|price|food|rice</t>
+  </si>
+  <si>
+    <t>price|dish|rice|rice|come|congee|noodle|reasonable</t>
+  </si>
+  <si>
+    <t>great|high|well|take</t>
+  </si>
+  <si>
+    <t>wife|enjoyed|salad|tasty</t>
+  </si>
+  <si>
+    <t>fresh|dish|pasta|served</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>delicious|food|place</t>
+  </si>
+  <si>
+    <t>visit|manager</t>
+  </si>
+  <si>
+    <t>good|service|food</t>
+  </si>
+  <si>
+    <t>good|good|service|service|food</t>
+  </si>
+  <si>
+    <t>dish|served|atmosphere|wine|place</t>
+  </si>
+  <si>
+    <t>good|pizza|place</t>
+  </si>
+  <si>
+    <t>delicious|though|still</t>
+  </si>
+  <si>
+    <t>pizza|taste</t>
+  </si>
+  <si>
+    <t>good|pretty|tasty</t>
+  </si>
+  <si>
+    <t>bombay|beer</t>
+  </si>
+  <si>
+    <t>service|friendly|people</t>
+  </si>
+  <si>
+    <t>delicious|food</t>
+  </si>
+  <si>
+    <t>pizza|made|pasta</t>
+  </si>
+  <si>
+    <t>delight|service|ambience</t>
+  </si>
+  <si>
+    <t>food|still</t>
+  </si>
+  <si>
+    <t>taste|like|like|hanger|rubber</t>
+  </si>
+  <si>
+    <t>great|service|ambience</t>
+  </si>
+  <si>
+    <t>restaurant|service|rest|food</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>ambience|like</t>
+  </si>
+  <si>
+    <t>dish|noodle|order</t>
+  </si>
+  <si>
+    <t>good|meal|place</t>
+  </si>
+  <si>
+    <t>good|place</t>
+  </si>
+  <si>
+    <t>pizza|service|made|wine|place</t>
+  </si>
+  <si>
+    <t>city|place|romantic|claimed</t>
+  </si>
+  <si>
+    <t>restaurant|price|list|rest|wine|rice</t>
+  </si>
+  <si>
+    <t>list|selection|wine|listed|average</t>
+  </si>
+  <si>
+    <t>service|price|rice|would</t>
+  </si>
+  <si>
+    <t>working|charm|grazie|proper|constant|mille|service|constitute|somehow|work</t>
+  </si>
+  <si>
+    <t>food|could|average</t>
+  </si>
+  <si>
+    <t>meal|bland|flavoring|weird|rosemary|made|edible</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>place|would</t>
+  </si>
+  <si>
+    <t>left|dessert|recommend|else</t>
+  </si>
+  <si>
+    <t>fresh|delicious|service|fish</t>
+  </si>
+  <si>
+    <t>appetizer</t>
+  </si>
+  <si>
+    <t>pizza|family|blow|away|pizzeria|receipies|come</t>
+  </si>
+  <si>
+    <t>service|place</t>
+  </si>
+  <si>
+    <t>great|great|restaurant|service|rest|food|atmosphere</t>
+  </si>
+  <si>
+    <t>fresh|music</t>
+  </si>
+  <si>
+    <t>service|meal</t>
+  </si>
+  <si>
+    <t>service|wonderful</t>
+  </si>
+  <si>
+    <t>great|service|special|place|romantic</t>
+  </si>
+  <si>
+    <t>great|good|price|price|food|food|food|food|food|rice|rice|like</t>
+  </si>
+  <si>
+    <t>place|much</t>
+  </si>
+  <si>
+    <t>characters|experience</t>
+  </si>
+  <si>
+    <t>service|though|food|order</t>
+  </si>
+  <si>
+    <t>price|rice</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>high|price|rest|rice</t>
+  </si>
+  <si>
+    <t>ambiance|boot</t>
+  </si>
+  <si>
+    <t>sushi|special|atmosphere|like</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>cheap|service|price|food|rice</t>
+  </si>
+  <si>
+    <t>restaurant|list|rest|romantic</t>
+  </si>
+  <si>
+    <t>price|food|wine|rice</t>
+  </si>
+  <si>
+    <t>secret|room</t>
+  </si>
+  <si>
+    <t>great|service|always</t>
+  </si>
+  <si>
+    <t>hostess|waitress|could</t>
+  </si>
+  <si>
+    <t>waitress|dessert|order</t>
+  </si>
+  <si>
+    <t>service|price|price|food|place|rice|rice|like</t>
+  </si>
+  <si>
+    <t>dish|average</t>
+  </si>
+  <si>
+    <t>service|though</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>restaurant|rest|must</t>
+  </si>
+  <si>
+    <t>cheap|price|rice</t>
+  </si>
+  <si>
+    <t>great|cheap|food</t>
+  </si>
+  <si>
+    <t>chip|come|like</t>
+  </si>
+  <si>
+    <t>sitting|uncomfortable|wooden</t>
+  </si>
+  <si>
+    <t>good|good|service|ambience</t>
+  </si>
+  <si>
+    <t>restaurant|price|rest|rice</t>
+  </si>
+  <si>
+    <t>good|high|price|though|food|rice</t>
+  </si>
+  <si>
+    <t>good|price|though|rice|lobster</t>
+  </si>
+  <si>
+    <t>knew|gift|opening|special|sort|dessert|must|card|candle|birthday</t>
+  </si>
+  <si>
+    <t>mark|waiter</t>
+  </si>
+  <si>
+    <t>cheap|food</t>
+  </si>
+  <si>
+    <t>great|delight</t>
+  </si>
+  <si>
+    <t>price|list|wine|rice</t>
+  </si>
+  <si>
+    <t>great|atmosphere|come|would</t>
+  </si>
+  <si>
+    <t>great|great|good|food|place</t>
+  </si>
+  <si>
+    <t>work|people|wrong|evil|like</t>
+  </si>
+  <si>
+    <t>service|served|people</t>
+  </si>
+  <si>
+    <t>good|waitress|waitress</t>
+  </si>
+  <si>
+    <t>away|work</t>
+  </si>
+  <si>
+    <t>great|good|place|would</t>
+  </si>
+  <si>
+    <t>charm</t>
+  </si>
+  <si>
+    <t>great|price|ambience|food|rice|tasty</t>
+  </si>
+  <si>
+    <t>restaurant|service|rest</t>
+  </si>
+  <si>
+    <t>much|order</t>
+  </si>
+  <si>
+    <t>great|price|food|rice</t>
+  </si>
+  <si>
+    <t>weather|snag|table</t>
+  </si>
+  <si>
+    <t>seemed|bathroom</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>meal|friendly</t>
+  </si>
+  <si>
+    <t>well|music</t>
+  </si>
+  <si>
+    <t>sitting</t>
+  </si>
+  <si>
+    <t>wonderful|special|place</t>
+  </si>
+  <si>
+    <t>waiter|money|guys|outta</t>
+  </si>
+  <si>
+    <t>bit|menu</t>
+  </si>
+  <si>
+    <t>cheap|food|could</t>
+  </si>
+  <si>
+    <t>wait|staff</t>
+  </si>
+  <si>
+    <t>price|taste|rice</t>
+  </si>
+  <si>
+    <t>great|take|place</t>
+  </si>
+  <si>
+    <t>price|place|rice</t>
+  </si>
+  <si>
+    <t>take|else</t>
+  </si>
+  <si>
+    <t>well|place</t>
+  </si>
+  <si>
+    <t>great|music|like</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>price|food|rice</t>
+  </si>
+  <si>
+    <t>delight|place</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>delight|atmosphere</t>
+  </si>
+  <si>
+    <t>great|great|homey|setting|vanilla|music|recommend</t>
+  </si>
+  <si>
+    <t>good|request|lady|take|music|taste|moreover|outrageously</t>
+  </si>
+  <si>
+    <t>good|price|rice|reasonable</t>
+  </si>
+  <si>
+    <t>restaurant|working|work|rest</t>
+  </si>
+  <si>
+    <t>setting|casual|romantic</t>
+  </si>
+  <si>
+    <t>price|though|rest|rice</t>
+  </si>
+  <si>
+    <t>atmosphere|like</t>
+  </si>
+  <si>
+    <t>service|friendly|casual|atmosphere</t>
+  </si>
+  <si>
+    <t>city|price|place|rice</t>
+  </si>
+  <si>
+    <t>service|served|place|much|would</t>
+  </si>
+  <si>
+    <t>management</t>
+  </si>
+  <si>
+    <t>great|price|though|rice</t>
+  </si>
+  <si>
+    <t>guest|ambience|place|like</t>
+  </si>
+  <si>
+    <t>great|great|great|service|price|food|rice</t>
+  </si>
+  <si>
+    <t>good|cheap|place</t>
+  </si>
+  <si>
+    <t>great|service|place|place|romantic|live</t>
+  </si>
+  <si>
+    <t>meal|price|list|wine|rice</t>
+  </si>
+  <si>
+    <t>still|courtesey|measure|liquers</t>
+  </si>
+  <si>
+    <t>waiters|chin</t>
+  </si>
+  <si>
+    <t>romantic</t>
+  </si>
+  <si>
+    <t>great|great|price|food|place|rice</t>
+  </si>
+  <si>
+    <t>sitting|high</t>
+  </si>
+  <si>
+    <t>friendly|warm|warm</t>
+  </si>
+  <si>
+    <t>great|good|price|food|wine|rice|reasonable|selecion</t>
+  </si>
+  <si>
+    <t>good|price|rice</t>
+  </si>
+  <si>
+    <t>price|food|rice|would|average</t>
+  </si>
+  <si>
+    <t>great|place</t>
+  </si>
+  <si>
+    <t>good|cheap|food</t>
+  </si>
+  <si>
+    <t>good|atmosphere</t>
+  </si>
+  <si>
+    <t>good|cheap|wine</t>
+  </si>
+  <si>
+    <t>drinks|half</t>
+  </si>
+  <si>
+    <t>toons|redone|space</t>
+  </si>
+  <si>
+    <t>delight|york</t>
+  </si>
+  <si>
+    <t>great|price|food|rice|reasonable</t>
+  </si>
+  <si>
+    <t>good|edible|price|food|rice</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>great|good|service|price|music|food|rice</t>
+  </si>
+  <si>
+    <t>price|fish|rice</t>
+  </si>
+  <si>
+    <t>restaurant|good|cheap|price|price|friendly|rest|food|village|rice|rice|rice|like</t>
+  </si>
+  <si>
+    <t>restaurant|good|service|price|work|rest|food|rice</t>
+  </si>
+  <si>
+    <t>service|price|though|food|rice</t>
+  </si>
+  <si>
+    <t>price|food|rice|reasonable</t>
+  </si>
+  <si>
+    <t>price|chip|fish|rice</t>
+  </si>
+  <si>
+    <t>restaurant|city|york|rest|warm</t>
+  </si>
+  <si>
+    <t>setting|like</t>
+  </si>
+  <si>
+    <t>good|meal|though</t>
+  </si>
+  <si>
+    <t>away|hidden|place</t>
+  </si>
+  <si>
+    <t>atmosphere|come</t>
+  </si>
+  <si>
+    <t>service|price|food|rice</t>
+  </si>
+  <si>
+    <t>season|charge</t>
+  </si>
+  <si>
+    <t>dinner|manhattan|feet</t>
+  </si>
+  <si>
+    <t>garden|area</t>
+  </si>
+  <si>
+    <t>good|food|place</t>
+  </si>
+  <si>
+    <t>high|highly|place|recommend</t>
+  </si>
+  <si>
+    <t>water|table|voss|bottles|water|piece</t>
+  </si>
+  <si>
+    <t>view|river|nyc</t>
+  </si>
+  <si>
+    <t>good|price|friendly|people|food|rice</t>
+  </si>
+  <si>
+    <t>high|price|food|rice</t>
+  </si>
+  <si>
+    <t>bathroom|bathroom</t>
+  </si>
+  <si>
+    <t>price|rest|rice|would</t>
+  </si>
+  <si>
+    <t>great|romantic</t>
   </si>
   <si>
     <t>restaurant|rest|food</t>
   </si>
   <si>
-    <t>service|warm</t>
-  </si>
-  <si>
-    <t>staff|nonsense</t>
-  </si>
-  <si>
-    <t>would|would|still|else|lived|live</t>
-  </si>
-  <si>
-    <t>roll|served</t>
-  </si>
-  <si>
-    <t>looked|sake</t>
-  </si>
-  <si>
-    <t>roll|special</t>
-  </si>
-  <si>
-    <t>good|service</t>
-  </si>
-  <si>
-    <t>good|well|though|food|selection|order</t>
-  </si>
-  <si>
-    <t>good|list|filled|selection|wine|wine</t>
-  </si>
-  <si>
-    <t>restaurant|though|rest</t>
-  </si>
-  <si>
-    <t>restaurant|always|though|rest</t>
-  </si>
-  <si>
-    <t>good|fresh|though|food|order</t>
-  </si>
-  <si>
-    <t>take|atmosphere|order|jazz|live|band|taken</t>
-  </si>
-  <si>
-    <t>delicious|made|food|food</t>
-  </si>
-  <si>
-    <t>served|food</t>
-  </si>
-  <si>
-    <t>good|made|laugh|hidden|bathroom|place</t>
-  </si>
-  <si>
-    <t>delicious|made|dish|guest|food|must|must|recommend|tortelini|happy|band</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>service|food|must</t>
-  </si>
-  <si>
-    <t>fresh|high|roll|highly|much|recommend</t>
-  </si>
-  <si>
-    <t>pizza|chip|enjoyed|santa|chopped|fish|guest</t>
-  </si>
-  <si>
-    <t>service|high|ambience|food|wonderful|highly|recommend</t>
-  </si>
-  <si>
-    <t>bland</t>
-  </si>
-  <si>
-    <t>dumpling</t>
-  </si>
-  <si>
-    <t>restaurant|good|service|rest</t>
-  </si>
-  <si>
-    <t>roll|sushi|pretty|average</t>
-  </si>
-  <si>
-    <t>delicious|everything|else</t>
-  </si>
-  <si>
-    <t>service|price|though|reasonable</t>
-  </si>
-  <si>
-    <t>restaurant|fresh|fresh|delicious|rest|food</t>
-  </si>
-  <si>
-    <t>hats</t>
-  </si>
-  <si>
-    <t>fresh|delicious|spicy</t>
-  </si>
-  <si>
-    <t>fish|special</t>
-  </si>
-  <si>
-    <t>great|people|vibe</t>
-  </si>
-  <si>
-    <t>atmosphere|much|like</t>
-  </si>
-  <si>
-    <t>good|though|ambience</t>
-  </si>
-  <si>
-    <t>great|though</t>
-  </si>
-  <si>
-    <t>good|sushi</t>
-  </si>
-  <si>
-    <t>spicy|price|roll</t>
-  </si>
-  <si>
-    <t>good|well</t>
-  </si>
-  <si>
-    <t>food|order</t>
-  </si>
-  <si>
-    <t>great|service|price|food</t>
-  </si>
-  <si>
-    <t>price|dish|come|congee|noodle|reasonable</t>
-  </si>
-  <si>
-    <t>great|high|well|take</t>
-  </si>
-  <si>
-    <t>wife|enjoyed|tasty</t>
-  </si>
-  <si>
-    <t>fresh|dish|timely|pasta|served</t>
-  </si>
-  <si>
-    <t>delicious</t>
-  </si>
-  <si>
-    <t>delicious|food|place</t>
-  </si>
-  <si>
-    <t>visit</t>
-  </si>
-  <si>
-    <t>good|service|sometimes|food</t>
-  </si>
-  <si>
-    <t>good|good|service|service|sometimes|sometimes|food</t>
-  </si>
-  <si>
-    <t>dish|served|atmosphere|wine|place</t>
-  </si>
-  <si>
-    <t>good|pizza|place</t>
-  </si>
-  <si>
-    <t>delicious|though|still</t>
-  </si>
-  <si>
-    <t>pizza|taste</t>
-  </si>
-  <si>
-    <t>good|pretty|tasty</t>
-  </si>
-  <si>
-    <t>beer</t>
-  </si>
-  <si>
-    <t>service|friendly|people</t>
-  </si>
-  <si>
-    <t>delicious|food</t>
-  </si>
-  <si>
-    <t>pizza|made|pasta</t>
-  </si>
-  <si>
-    <t>delight|service|ambience</t>
-  </si>
-  <si>
-    <t>food|still</t>
-  </si>
-  <si>
-    <t>taste|like|like|hanger</t>
-  </si>
-  <si>
-    <t>great|service|ambience</t>
-  </si>
-  <si>
-    <t>restaurant|service|rest|food</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>ambience|like</t>
-  </si>
-  <si>
-    <t>dish|noodle|order</t>
-  </si>
-  <si>
-    <t>good|meal|place</t>
-  </si>
-  <si>
-    <t>good|place</t>
-  </si>
-  <si>
-    <t>pizza|service|made|wine|place</t>
-  </si>
-  <si>
-    <t>place|romantic|claimed</t>
-  </si>
-  <si>
-    <t>restaurant|price|list|rest|wine</t>
-  </si>
-  <si>
-    <t>list|selection|wine|listed|average</t>
-  </si>
-  <si>
-    <t>service|price|would</t>
-  </si>
-  <si>
-    <t>working|charm|grazie|proper|constant|mille|service|constitute|somehow|work</t>
-  </si>
-  <si>
-    <t>food|could|average</t>
-  </si>
-  <si>
-    <t>meal|bland|flavoring|weird|rosemary|made|edible</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>place|would</t>
-  </si>
-  <si>
-    <t>left|dessert|recommend|else</t>
-  </si>
-  <si>
-    <t>fresh|delicious|service|fish</t>
-  </si>
-  <si>
-    <t>appetizer</t>
-  </si>
-  <si>
-    <t>pizza|family|blow|away|pizzeria|receipies|come</t>
-  </si>
-  <si>
-    <t>service|place</t>
-  </si>
-  <si>
-    <t>great|great|restaurant|service|rest|food|atmosphere</t>
-  </si>
-  <si>
-    <t>fresh|music</t>
-  </si>
-  <si>
-    <t>service|meal</t>
-  </si>
-  <si>
-    <t>service|wonderful</t>
-  </si>
-  <si>
-    <t>great|service|special|place|romantic</t>
-  </si>
-  <si>
-    <t>great|good|price|price|food|food|food|food|food|like</t>
-  </si>
-  <si>
-    <t>place|much</t>
-  </si>
-  <si>
-    <t>characters|experience</t>
-  </si>
-  <si>
-    <t>service|though|food|order</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>high|price|rest</t>
-  </si>
-  <si>
-    <t>ambiance|boot</t>
-  </si>
-  <si>
-    <t>sushi|special|atmosphere|like</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>cheap|service|price|food</t>
-  </si>
-  <si>
-    <t>restaurant|list|rest|romantic</t>
-  </si>
-  <si>
-    <t>price|food|wine</t>
-  </si>
-  <si>
-    <t>secret|room</t>
-  </si>
-  <si>
-    <t>great|service|always</t>
-  </si>
-  <si>
-    <t>everything|could</t>
-  </si>
-  <si>
-    <t>dessert|order</t>
-  </si>
-  <si>
-    <t>service|price|price|food|place|like</t>
-  </si>
-  <si>
-    <t>dish|average</t>
-  </si>
-  <si>
-    <t>service|though</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>restaurant|rest|must</t>
-  </si>
-  <si>
-    <t>cheap|price</t>
-  </si>
-  <si>
-    <t>great|cheap|food</t>
-  </si>
-  <si>
-    <t>chip|come|like</t>
-  </si>
-  <si>
-    <t>sitting|uncomfortable|wooden</t>
-  </si>
-  <si>
-    <t>good|good|service|ambience</t>
-  </si>
-  <si>
-    <t>restaurant|price|rest</t>
-  </si>
-  <si>
-    <t>good|high|price|though|food</t>
-  </si>
-  <si>
-    <t>good|price|though</t>
-  </si>
-  <si>
-    <t>knew|gift|opening|special|sort|dessert|must|card|candle|birthday</t>
-  </si>
-  <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>cheap|food</t>
-  </si>
-  <si>
-    <t>great|delight</t>
-  </si>
-  <si>
-    <t>price|list|wine</t>
-  </si>
-  <si>
-    <t>great|atmosphere|come|would</t>
-  </si>
-  <si>
-    <t>great|great|good|food|place</t>
-  </si>
-  <si>
-    <t>work|people|wrong|evil|like</t>
-  </si>
-  <si>
-    <t>service|served|people|everything</t>
-  </si>
-  <si>
-    <t>away|work</t>
-  </si>
-  <si>
-    <t>great|good|place|would</t>
-  </si>
-  <si>
-    <t>charm</t>
-  </si>
-  <si>
-    <t>great|price|ambience|food|tasty</t>
-  </si>
-  <si>
-    <t>restaurant|service|rest</t>
-  </si>
-  <si>
-    <t>much|order</t>
-  </si>
-  <si>
-    <t>great|price|food</t>
-  </si>
-  <si>
-    <t>weather|snag|table</t>
-  </si>
-  <si>
-    <t>seemed|bathroom</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>meal|friendly</t>
-  </si>
-  <si>
-    <t>well|music</t>
-  </si>
-  <si>
-    <t>sitting</t>
-  </si>
-  <si>
-    <t>wonderful|special|place</t>
-  </si>
-  <si>
-    <t>money|guys|outta</t>
-  </si>
-  <si>
-    <t>cheap|food|could</t>
-  </si>
-  <si>
-    <t>wait|staff</t>
-  </si>
-  <si>
-    <t>price|taste</t>
-  </si>
-  <si>
-    <t>great|take|place</t>
-  </si>
-  <si>
-    <t>price|place</t>
-  </si>
-  <si>
-    <t>take|else</t>
-  </si>
-  <si>
-    <t>well|place</t>
-  </si>
-  <si>
-    <t>great|music|like</t>
-  </si>
-  <si>
-    <t>find</t>
-  </si>
-  <si>
-    <t>price|food</t>
-  </si>
-  <si>
-    <t>delight|place</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>delight|atmosphere</t>
-  </si>
-  <si>
-    <t>great|great|homey|setting|vanilla|music|recommend</t>
-  </si>
-  <si>
-    <t>good|request|lady|take|music|taste|moreover|outrageously</t>
-  </si>
-  <si>
-    <t>good|price|reasonable</t>
-  </si>
-  <si>
-    <t>restaurant|working|work|rest</t>
-  </si>
-  <si>
-    <t>setting|casual|romantic</t>
-  </si>
-  <si>
-    <t>price|though|rest</t>
-  </si>
-  <si>
-    <t>atmosphere|like</t>
-  </si>
-  <si>
-    <t>service|friendly|casual|atmosphere</t>
-  </si>
-  <si>
-    <t>service|served|place|much|would</t>
-  </si>
-  <si>
-    <t>management</t>
-  </si>
-  <si>
-    <t>great|price|though</t>
-  </si>
-  <si>
-    <t>guest|ambience|place|like</t>
-  </si>
-  <si>
-    <t>great|great|great|service|price|food</t>
-  </si>
-  <si>
-    <t>good|cheap|place</t>
-  </si>
-  <si>
-    <t>great|service|place|place|romantic|live</t>
-  </si>
-  <si>
-    <t>meal|price|list|wine</t>
-  </si>
-  <si>
-    <t>still|courtesey|measure|liquers</t>
-  </si>
-  <si>
-    <t>thing|waiters|chin</t>
-  </si>
-  <si>
-    <t>romantic</t>
-  </si>
-  <si>
-    <t>great|great|price|food|place</t>
-  </si>
-  <si>
-    <t>sitting|high</t>
-  </si>
-  <si>
-    <t>friendly|warm|warm</t>
-  </si>
-  <si>
-    <t>great|good|price|food|wine|reasonable|selecion</t>
-  </si>
-  <si>
-    <t>good|price|everything</t>
-  </si>
-  <si>
-    <t>price|food|would|average</t>
-  </si>
-  <si>
-    <t>great|place</t>
-  </si>
-  <si>
-    <t>good|cheap|food</t>
-  </si>
-  <si>
-    <t>good|atmosphere</t>
-  </si>
-  <si>
-    <t>good|cheap|wine</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>drinks|half</t>
-  </si>
-  <si>
-    <t>toons|redone|space</t>
-  </si>
-  <si>
-    <t>delight</t>
-  </si>
-  <si>
-    <t>great|price|food|reasonable</t>
-  </si>
-  <si>
-    <t>good|edible|price|food</t>
-  </si>
-  <si>
-    <t>jazz</t>
-  </si>
-  <si>
-    <t>great|good|service|price|music|food</t>
-  </si>
-  <si>
-    <t>price|fish</t>
-  </si>
-  <si>
-    <t>restaurant|good|cheap|price|price|friendly|rest|food|village|like</t>
-  </si>
-  <si>
-    <t>restaurant|good|service|price|work|rest|food</t>
-  </si>
-  <si>
-    <t>service|price|though|food</t>
-  </si>
-  <si>
-    <t>price|food|reasonable</t>
-  </si>
-  <si>
-    <t>price|chip|fish</t>
-  </si>
-  <si>
-    <t>restaurant|rest|warm</t>
-  </si>
-  <si>
-    <t>setting|like</t>
-  </si>
-  <si>
-    <t>good|meal|though</t>
-  </si>
-  <si>
-    <t>away|hidden|place</t>
-  </si>
-  <si>
-    <t>atmosphere|come</t>
-  </si>
-  <si>
-    <t>service|price|food</t>
-  </si>
-  <si>
-    <t>season|charge</t>
-  </si>
-  <si>
-    <t>dinner|feet</t>
-  </si>
-  <si>
-    <t>garden|area</t>
-  </si>
-  <si>
-    <t>good|food|place</t>
-  </si>
-  <si>
-    <t>high|highly|place|recommend</t>
-  </si>
-  <si>
-    <t>water|table|voss|bottles|water|piece</t>
-  </si>
-  <si>
-    <t>good|price|friendly|people|food</t>
-  </si>
-  <si>
-    <t>high|price|food</t>
-  </si>
-  <si>
-    <t>bathroom|bathroom</t>
-  </si>
-  <si>
-    <t>price|rest|would</t>
-  </si>
-  <si>
-    <t>great|romantic</t>
-  </si>
-  <si>
     <t>belly|dancing|crowd</t>
   </si>
   <si>
@@ -4972,10 +4993,7 @@
     <t>pretty|atmosphere</t>
   </si>
   <si>
-    <t>service|price|dish|average</t>
-  </si>
-  <si>
-    <t>thing|decor</t>
+    <t>service|price|dish|rice|average</t>
   </si>
   <si>
     <t>birthday</t>
@@ -4990,7 +5008,7 @@
     <t>common|place</t>
   </si>
   <si>
-    <t>season|season|restaurant|restaurant|nose|history|trust|charge|rest|rest|sort</t>
+    <t>season|season|restaurant|restaurant|nose|history|trust|charge|city|york|rest|rest|sort</t>
   </si>
   <si>
     <t>high|highly</t>
@@ -5014,7 +5032,7 @@
     <t>good|fresh|food</t>
   </si>
   <si>
-    <t>restaurant|instead|price|rest|place|would</t>
+    <t>restaurant|instead|price|rest|place|rice|rice|would</t>
   </si>
   <si>
     <t>lunch|buffet</t>
@@ -5026,22 +5044,25 @@
     <t>stone|bowl</t>
   </si>
   <si>
-    <t>restaurant|rest|sushi|romantic</t>
+    <t>restaurant|city|rest|romantic</t>
+  </si>
+  <si>
+    <t>restaurant|city|rest|sushi|romantic</t>
   </si>
   <si>
     <t>sake|wonderful</t>
   </si>
   <si>
-    <t>great|good|price|reasonable</t>
+    <t>great|good|price|rice|reasonable</t>
   </si>
   <si>
     <t>service|well</t>
   </si>
   <si>
-    <t>great|good|fresh|service|meal</t>
-  </si>
-  <si>
-    <t>good|high|price|food|come|would</t>
+    <t>great|good|fresh|service|meal|salad</t>
+  </si>
+  <si>
+    <t>good|high|price|food|rice|come|would</t>
   </si>
   <si>
     <t>restaurant|bland|taste|fish|rest</t>
@@ -5053,7 +5074,10 @@
     <t>list|reasonable|would|listed</t>
   </si>
   <si>
-    <t>price|place|average</t>
+    <t>price|place|rice|average</t>
+  </si>
+  <si>
+    <t>price|salad|rice</t>
   </si>
   <si>
     <t>negative</t>
@@ -5562,7 +5586,7 @@
         <v>1336</v>
       </c>
       <c r="G2" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5585,7 +5609,7 @@
         <v>932</v>
       </c>
       <c r="G3" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5608,7 +5632,7 @@
         <v>1337</v>
       </c>
       <c r="G4" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5631,7 +5655,7 @@
         <v>1338</v>
       </c>
       <c r="G5" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5654,7 +5678,7 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5677,7 +5701,7 @@
         <v>1340</v>
       </c>
       <c r="G7" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5700,7 +5724,7 @@
         <v>1341</v>
       </c>
       <c r="G8" t="s">
-        <v>1684</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5723,7 +5747,7 @@
         <v>1342</v>
       </c>
       <c r="G9" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5746,7 +5770,7 @@
         <v>1343</v>
       </c>
       <c r="G10" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5769,7 +5793,7 @@
         <v>1344</v>
       </c>
       <c r="G11" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5792,7 +5816,7 @@
         <v>1345</v>
       </c>
       <c r="G12" t="s">
-        <v>1684</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5815,7 +5839,7 @@
         <v>1346</v>
       </c>
       <c r="G13" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5838,7 +5862,7 @@
         <v>1347</v>
       </c>
       <c r="G14" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5861,7 +5885,7 @@
         <v>1088</v>
       </c>
       <c r="G15" t="s">
-        <v>1686</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5884,7 +5908,7 @@
         <v>1348</v>
       </c>
       <c r="G16" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5907,7 +5931,7 @@
         <v>1349</v>
       </c>
       <c r="G17" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5930,7 +5954,7 @@
         <v>1350</v>
       </c>
       <c r="G18" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5953,7 +5977,7 @@
         <v>932</v>
       </c>
       <c r="G19" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5976,7 +6000,7 @@
         <v>1351</v>
       </c>
       <c r="G20" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5999,7 +6023,7 @@
         <v>1119</v>
       </c>
       <c r="G21" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -6022,7 +6046,7 @@
         <v>1352</v>
       </c>
       <c r="G22" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -6045,7 +6069,7 @@
         <v>1353</v>
       </c>
       <c r="G23" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -6068,7 +6092,7 @@
         <v>1354</v>
       </c>
       <c r="G24" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -6091,7 +6115,7 @@
         <v>946</v>
       </c>
       <c r="G25" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -6114,7 +6138,7 @@
         <v>1355</v>
       </c>
       <c r="G26" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -6137,7 +6161,7 @@
         <v>1356</v>
       </c>
       <c r="G27" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -6160,7 +6184,7 @@
         <v>1357</v>
       </c>
       <c r="G28" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -6183,7 +6207,7 @@
         <v>1358</v>
       </c>
       <c r="G29" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -6206,7 +6230,7 @@
         <v>1359</v>
       </c>
       <c r="G30" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -6229,7 +6253,7 @@
         <v>1360</v>
       </c>
       <c r="G31" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -6252,7 +6276,7 @@
         <v>1361</v>
       </c>
       <c r="G32" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -6275,7 +6299,7 @@
         <v>1362</v>
       </c>
       <c r="G33" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -6298,7 +6322,7 @@
         <v>1363</v>
       </c>
       <c r="G34" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -6321,7 +6345,7 @@
         <v>1353</v>
       </c>
       <c r="G35" t="s">
-        <v>1688</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -6341,10 +6365,10 @@
         <v>1275</v>
       </c>
       <c r="F36" t="s">
-        <v>1364</v>
+        <v>946</v>
       </c>
       <c r="G36" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -6367,7 +6391,7 @@
         <v>1338</v>
       </c>
       <c r="G37" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -6387,10 +6411,10 @@
         <v>1277</v>
       </c>
       <c r="F38" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G38" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -6410,10 +6434,10 @@
         <v>1284</v>
       </c>
       <c r="F39" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="G39" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -6433,10 +6457,10 @@
         <v>1284</v>
       </c>
       <c r="F40" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="G40" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -6456,10 +6480,10 @@
         <v>1279</v>
       </c>
       <c r="F41" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G41" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -6479,10 +6503,10 @@
         <v>1277</v>
       </c>
       <c r="F42" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G42" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -6502,10 +6526,10 @@
         <v>1284</v>
       </c>
       <c r="F43" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="G43" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -6525,10 +6549,10 @@
         <v>1284</v>
       </c>
       <c r="F44" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G44" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -6548,10 +6572,10 @@
         <v>1287</v>
       </c>
       <c r="F45" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G45" t="s">
-        <v>1689</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -6571,10 +6595,10 @@
         <v>1288</v>
       </c>
       <c r="F46" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="G46" t="s">
-        <v>1690</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -6594,10 +6618,10 @@
         <v>1276</v>
       </c>
       <c r="F47" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="G47" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -6617,10 +6641,10 @@
         <v>1278</v>
       </c>
       <c r="F48" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="G48" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -6640,10 +6664,10 @@
         <v>1281</v>
       </c>
       <c r="F49" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="G49" t="s">
-        <v>1691</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -6666,7 +6690,7 @@
         <v>1045</v>
       </c>
       <c r="G50" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -6686,10 +6710,10 @@
         <v>1281</v>
       </c>
       <c r="F51" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="G51" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -6709,10 +6733,10 @@
         <v>1277</v>
       </c>
       <c r="F52" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="G52" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -6732,10 +6756,10 @@
         <v>1276</v>
       </c>
       <c r="F53" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G53" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -6755,10 +6779,10 @@
         <v>1276</v>
       </c>
       <c r="F54" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G54" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -6778,10 +6802,10 @@
         <v>1289</v>
       </c>
       <c r="F55" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="G55" t="s">
-        <v>1692</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -6801,10 +6825,10 @@
         <v>1290</v>
       </c>
       <c r="F56" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G56" t="s">
-        <v>1693</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -6824,10 +6848,10 @@
         <v>1275</v>
       </c>
       <c r="F57" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G57" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -6847,10 +6871,10 @@
         <v>1278</v>
       </c>
       <c r="F58" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="G58" t="s">
-        <v>1694</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -6870,10 +6894,10 @@
         <v>1291</v>
       </c>
       <c r="F59" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="G59" t="s">
-        <v>1692</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -6892,8 +6916,11 @@
       <c r="E60" t="s">
         <v>1275</v>
       </c>
+      <c r="F60" t="s">
+        <v>982</v>
+      </c>
       <c r="G60" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -6913,10 +6940,10 @@
         <v>1277</v>
       </c>
       <c r="F61" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="G61" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -6936,10 +6963,10 @@
         <v>1289</v>
       </c>
       <c r="F62" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="G62" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -6959,10 +6986,10 @@
         <v>1275</v>
       </c>
       <c r="F63" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="G63" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -6982,10 +7009,10 @@
         <v>1277</v>
       </c>
       <c r="F64" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="G64" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -7008,7 +7035,7 @@
         <v>1350</v>
       </c>
       <c r="G65" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -7028,10 +7055,10 @@
         <v>1275</v>
       </c>
       <c r="F66" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="G66" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -7051,10 +7078,10 @@
         <v>1292</v>
       </c>
       <c r="F67" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="G67" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -7077,7 +7104,7 @@
         <v>988</v>
       </c>
       <c r="G68" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -7097,10 +7124,10 @@
         <v>1294</v>
       </c>
       <c r="F69" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G69" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -7120,10 +7147,10 @@
         <v>1277</v>
       </c>
       <c r="F70" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="G70" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -7143,10 +7170,10 @@
         <v>1276</v>
       </c>
       <c r="F71" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="G71" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -7166,10 +7193,10 @@
         <v>1295</v>
       </c>
       <c r="F72" t="s">
-        <v>932</v>
+        <v>1394</v>
       </c>
       <c r="G72" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -7192,7 +7219,7 @@
         <v>1395</v>
       </c>
       <c r="G73" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -7215,7 +7242,7 @@
         <v>1396</v>
       </c>
       <c r="G74" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -7238,7 +7265,7 @@
         <v>984</v>
       </c>
       <c r="G75" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -7258,10 +7285,10 @@
         <v>1284</v>
       </c>
       <c r="F76" t="s">
-        <v>994</v>
+        <v>1397</v>
       </c>
       <c r="G76" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -7281,10 +7308,10 @@
         <v>1277</v>
       </c>
       <c r="F77" t="s">
-        <v>995</v>
+        <v>1398</v>
       </c>
       <c r="G77" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -7304,10 +7331,10 @@
         <v>1288</v>
       </c>
       <c r="F78" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="G78" t="s">
-        <v>1695</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -7327,10 +7354,10 @@
         <v>1277</v>
       </c>
       <c r="F79" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="G79" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -7350,10 +7377,10 @@
         <v>1276</v>
       </c>
       <c r="F80" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="G80" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -7373,10 +7400,10 @@
         <v>1277</v>
       </c>
       <c r="F81" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G81" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -7396,10 +7423,10 @@
         <v>1296</v>
       </c>
       <c r="F82" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="G82" t="s">
-        <v>1694</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -7422,7 +7449,7 @@
         <v>932</v>
       </c>
       <c r="G83" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -7442,10 +7469,10 @@
         <v>1277</v>
       </c>
       <c r="F84" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="G84" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -7465,10 +7492,10 @@
         <v>1281</v>
       </c>
       <c r="F85" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="G85" t="s">
-        <v>1696</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -7488,10 +7515,10 @@
         <v>1277</v>
       </c>
       <c r="F86" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="G86" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -7511,10 +7538,10 @@
         <v>1284</v>
       </c>
       <c r="F87" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="G87" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -7534,10 +7561,10 @@
         <v>1283</v>
       </c>
       <c r="F88" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="G88" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -7557,10 +7584,10 @@
         <v>1277</v>
       </c>
       <c r="F89" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G89" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -7580,10 +7607,10 @@
         <v>1297</v>
       </c>
       <c r="F90" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="G90" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -7603,10 +7630,10 @@
         <v>1285</v>
       </c>
       <c r="F91" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="G91" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -7626,10 +7653,10 @@
         <v>1298</v>
       </c>
       <c r="F92" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="G92" t="s">
-        <v>1697</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -7649,10 +7676,10 @@
         <v>1276</v>
       </c>
       <c r="F93" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="G93" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -7672,10 +7699,10 @@
         <v>1288</v>
       </c>
       <c r="F94" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="G94" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -7695,10 +7722,10 @@
         <v>1299</v>
       </c>
       <c r="F95" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="G95" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -7718,10 +7745,10 @@
         <v>1277</v>
       </c>
       <c r="F96" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="G96" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -7740,8 +7767,11 @@
       <c r="E97" t="s">
         <v>1276</v>
       </c>
+      <c r="F97" t="s">
+        <v>1415</v>
+      </c>
       <c r="G97" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -7761,10 +7791,10 @@
         <v>1275</v>
       </c>
       <c r="F98" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="G98" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -7784,10 +7814,10 @@
         <v>1278</v>
       </c>
       <c r="F99" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="G99" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -7807,10 +7837,10 @@
         <v>1278</v>
       </c>
       <c r="F100" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="G100" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -7830,10 +7860,10 @@
         <v>1277</v>
       </c>
       <c r="F101" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="G101" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -7853,10 +7883,10 @@
         <v>1284</v>
       </c>
       <c r="F102" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="G102" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -7876,10 +7906,10 @@
         <v>1284</v>
       </c>
       <c r="F103" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="G103" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -7899,10 +7929,10 @@
         <v>1276</v>
       </c>
       <c r="F104" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="G104" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -7925,7 +7955,7 @@
         <v>930</v>
       </c>
       <c r="G105" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -7945,10 +7975,10 @@
         <v>1285</v>
       </c>
       <c r="F106" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="G106" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -7968,10 +7998,10 @@
         <v>1275</v>
       </c>
       <c r="F107" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="G107" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -7991,10 +8021,10 @@
         <v>1295</v>
       </c>
       <c r="F108" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="G108" t="s">
-        <v>1698</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -8014,10 +8044,10 @@
         <v>1297</v>
       </c>
       <c r="F109" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="G109" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -8037,10 +8067,10 @@
         <v>1275</v>
       </c>
       <c r="F110" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="G110" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -8060,10 +8090,10 @@
         <v>1277</v>
       </c>
       <c r="F111" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="G111" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -8083,10 +8113,10 @@
         <v>1276</v>
       </c>
       <c r="F112" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="G112" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -8106,10 +8136,10 @@
         <v>1284</v>
       </c>
       <c r="F113" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="G113" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -8132,7 +8162,7 @@
         <v>946</v>
       </c>
       <c r="G114" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -8152,10 +8182,10 @@
         <v>1295</v>
       </c>
       <c r="F115" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="G115" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -8175,10 +8205,10 @@
         <v>1276</v>
       </c>
       <c r="F116" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="G116" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -8198,10 +8228,10 @@
         <v>1277</v>
       </c>
       <c r="F117" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="G117" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -8221,10 +8251,10 @@
         <v>1295</v>
       </c>
       <c r="F118" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="G118" t="s">
-        <v>1695</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -8244,10 +8274,10 @@
         <v>1277</v>
       </c>
       <c r="F119" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="G119" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -8267,10 +8297,10 @@
         <v>1277</v>
       </c>
       <c r="F120" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G120" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -8290,10 +8320,10 @@
         <v>1300</v>
       </c>
       <c r="F121" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="G121" t="s">
-        <v>1692</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -8313,10 +8343,10 @@
         <v>1275</v>
       </c>
       <c r="F122" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="G122" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -8339,7 +8369,7 @@
         <v>932</v>
       </c>
       <c r="G123" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -8359,10 +8389,10 @@
         <v>1277</v>
       </c>
       <c r="F124" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="G124" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -8382,10 +8412,10 @@
         <v>1277</v>
       </c>
       <c r="F125" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="G125" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -8405,10 +8435,10 @@
         <v>1277</v>
       </c>
       <c r="F126" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="G126" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -8428,10 +8458,10 @@
         <v>1276</v>
       </c>
       <c r="F127" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="G127" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -8451,10 +8481,10 @@
         <v>1275</v>
       </c>
       <c r="F128" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="G128" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -8474,10 +8504,10 @@
         <v>1276</v>
       </c>
       <c r="F129" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="G129" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -8497,10 +8527,10 @@
         <v>1276</v>
       </c>
       <c r="F130" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="G130" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -8520,10 +8550,10 @@
         <v>1297</v>
       </c>
       <c r="F131" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="G131" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -8543,10 +8573,10 @@
         <v>1275</v>
       </c>
       <c r="F132" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="G132" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -8566,10 +8596,10 @@
         <v>1276</v>
       </c>
       <c r="F133" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="G133" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -8589,10 +8619,10 @@
         <v>1297</v>
       </c>
       <c r="F134" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G134" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -8612,10 +8642,10 @@
         <v>1297</v>
       </c>
       <c r="F135" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="G135" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -8638,7 +8668,7 @@
         <v>1045</v>
       </c>
       <c r="G136" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -8658,10 +8688,10 @@
         <v>1276</v>
       </c>
       <c r="F137" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="G137" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -8681,10 +8711,10 @@
         <v>1275</v>
       </c>
       <c r="F138" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="G138" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -8704,10 +8734,10 @@
         <v>1297</v>
       </c>
       <c r="F139" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="G139" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -8727,10 +8757,10 @@
         <v>1281</v>
       </c>
       <c r="F140" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="G140" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -8753,7 +8783,7 @@
         <v>1049</v>
       </c>
       <c r="G141" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -8773,10 +8803,10 @@
         <v>1277</v>
       </c>
       <c r="F142" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="G142" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -8796,10 +8826,10 @@
         <v>1283</v>
       </c>
       <c r="F143" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="G143" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -8819,10 +8849,10 @@
         <v>1276</v>
       </c>
       <c r="F144" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="G144" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -8842,10 +8872,10 @@
         <v>1281</v>
       </c>
       <c r="F145" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="G145" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -8865,10 +8895,10 @@
         <v>1301</v>
       </c>
       <c r="F146" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="G146" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -8891,7 +8921,7 @@
         <v>930</v>
       </c>
       <c r="G147" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -8911,10 +8941,10 @@
         <v>1277</v>
       </c>
       <c r="F148" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="G148" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -8934,10 +8964,10 @@
         <v>1276</v>
       </c>
       <c r="F149" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="G149" t="s">
-        <v>1699</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -8957,10 +8987,10 @@
         <v>1275</v>
       </c>
       <c r="F150" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="G150" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -8980,10 +9010,10 @@
         <v>1302</v>
       </c>
       <c r="F151" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="G151" t="s">
-        <v>1700</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -9003,10 +9033,10 @@
         <v>1276</v>
       </c>
       <c r="F152" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="G152" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -9026,10 +9056,10 @@
         <v>1303</v>
       </c>
       <c r="F153" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="G153" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -9049,10 +9079,10 @@
         <v>1277</v>
       </c>
       <c r="F154" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="G154" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -9072,10 +9102,10 @@
         <v>1277</v>
       </c>
       <c r="F155" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="G155" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -9095,10 +9125,10 @@
         <v>1277</v>
       </c>
       <c r="F156" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="G156" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -9118,10 +9148,10 @@
         <v>1277</v>
       </c>
       <c r="F157" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="G157" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -9141,10 +9171,10 @@
         <v>1284</v>
       </c>
       <c r="F158" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="G158" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -9164,10 +9194,10 @@
         <v>1284</v>
       </c>
       <c r="F159" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="G159" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -9187,10 +9217,10 @@
         <v>1284</v>
       </c>
       <c r="F160" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="G160" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -9209,8 +9239,11 @@
       <c r="E161" t="s">
         <v>1277</v>
       </c>
+      <c r="F161" t="s">
+        <v>1031</v>
+      </c>
       <c r="G161" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -9230,10 +9263,10 @@
         <v>1277</v>
       </c>
       <c r="F162" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="G162" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -9256,7 +9289,7 @@
         <v>975</v>
       </c>
       <c r="G163" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -9276,10 +9309,10 @@
         <v>1278</v>
       </c>
       <c r="F164" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="G164" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -9299,10 +9332,10 @@
         <v>1285</v>
       </c>
       <c r="F165" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="G165" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -9322,10 +9355,10 @@
         <v>1277</v>
       </c>
       <c r="F166" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="G166" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -9345,10 +9378,10 @@
         <v>1278</v>
       </c>
       <c r="F167" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="G167" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -9368,10 +9401,10 @@
         <v>1304</v>
       </c>
       <c r="F168" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="G168" t="s">
-        <v>1692</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -9394,7 +9427,7 @@
         <v>1064</v>
       </c>
       <c r="G169" t="s">
-        <v>1695</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -9414,10 +9447,10 @@
         <v>1305</v>
       </c>
       <c r="F170" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="G170" t="s">
-        <v>1692</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -9437,10 +9470,10 @@
         <v>1275</v>
       </c>
       <c r="F171" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="G171" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -9460,10 +9493,10 @@
         <v>1276</v>
       </c>
       <c r="F172" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="G172" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -9483,10 +9516,10 @@
         <v>1295</v>
       </c>
       <c r="F173" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="G173" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -9506,10 +9539,10 @@
         <v>1276</v>
       </c>
       <c r="F174" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="G174" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -9529,10 +9562,10 @@
         <v>1306</v>
       </c>
       <c r="F175" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="G175" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -9552,10 +9585,10 @@
         <v>1275</v>
       </c>
       <c r="F176" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="G176" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -9575,10 +9608,10 @@
         <v>1283</v>
       </c>
       <c r="F177" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="G177" t="s">
-        <v>1690</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -9598,10 +9631,10 @@
         <v>1307</v>
       </c>
       <c r="F178" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="G178" t="s">
-        <v>1701</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -9621,10 +9654,10 @@
         <v>1308</v>
       </c>
       <c r="F179" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="G179" t="s">
-        <v>1692</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -9644,10 +9677,10 @@
         <v>1292</v>
       </c>
       <c r="F180" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="G180" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -9667,10 +9700,10 @@
         <v>1276</v>
       </c>
       <c r="F181" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="G181" t="s">
-        <v>1695</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -9690,10 +9723,10 @@
         <v>1277</v>
       </c>
       <c r="F182" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="G182" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -9713,10 +9746,10 @@
         <v>1277</v>
       </c>
       <c r="F183" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
       <c r="G183" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -9736,10 +9769,10 @@
         <v>1277</v>
       </c>
       <c r="F184" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="G184" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -9759,10 +9792,10 @@
         <v>1309</v>
       </c>
       <c r="F185" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
       <c r="G185" t="s">
-        <v>1695</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -9785,7 +9818,7 @@
         <v>1088</v>
       </c>
       <c r="G186" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -9805,10 +9838,10 @@
         <v>1277</v>
       </c>
       <c r="F187" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="G187" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -9828,10 +9861,10 @@
         <v>1276</v>
       </c>
       <c r="F188" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="G188" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -9851,10 +9884,10 @@
         <v>1299</v>
       </c>
       <c r="F189" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="G189" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -9874,10 +9907,10 @@
         <v>1277</v>
       </c>
       <c r="F190" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="G190" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -9897,10 +9930,10 @@
         <v>1276</v>
       </c>
       <c r="F191" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="G191" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -9920,10 +9953,10 @@
         <v>1310</v>
       </c>
       <c r="F192" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="G192" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -9943,10 +9976,10 @@
         <v>1283</v>
       </c>
       <c r="F193" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="G193" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -9966,10 +9999,10 @@
         <v>1277</v>
       </c>
       <c r="F194" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="G194" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -9989,10 +10022,10 @@
         <v>1284</v>
       </c>
       <c r="F195" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G195" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -10012,10 +10045,10 @@
         <v>1284</v>
       </c>
       <c r="F196" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="G196" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -10038,7 +10071,7 @@
         <v>995</v>
       </c>
       <c r="G197" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -10058,7 +10091,7 @@
         <v>1296</v>
       </c>
       <c r="G198" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -10078,10 +10111,10 @@
         <v>1277</v>
       </c>
       <c r="F199" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="G199" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -10101,10 +10134,10 @@
         <v>1277</v>
       </c>
       <c r="F200" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="G200" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -10124,10 +10157,10 @@
         <v>1284</v>
       </c>
       <c r="F201" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="G201" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -10147,10 +10180,10 @@
         <v>1308</v>
       </c>
       <c r="F202" t="s">
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="G202" t="s">
-        <v>1692</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -10170,10 +10203,10 @@
         <v>1284</v>
       </c>
       <c r="F203" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="G203" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -10193,10 +10226,10 @@
         <v>1311</v>
       </c>
       <c r="F204" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="G204" t="s">
-        <v>1698</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -10216,10 +10249,10 @@
         <v>1278</v>
       </c>
       <c r="F205" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="G205" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -10239,10 +10272,10 @@
         <v>1275</v>
       </c>
       <c r="F206" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="G206" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -10262,10 +10295,10 @@
         <v>1275</v>
       </c>
       <c r="F207" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="G207" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -10285,10 +10318,10 @@
         <v>1277</v>
       </c>
       <c r="F208" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="G208" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -10308,10 +10341,10 @@
         <v>1276</v>
       </c>
       <c r="F209" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="G209" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -10331,10 +10364,10 @@
         <v>1277</v>
       </c>
       <c r="F210" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="G210" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -10354,10 +10387,10 @@
         <v>1310</v>
       </c>
       <c r="F211" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="G211" t="s">
-        <v>1702</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -10377,10 +10410,10 @@
         <v>1277</v>
       </c>
       <c r="F212" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="G212" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -10403,7 +10436,7 @@
         <v>1353</v>
       </c>
       <c r="G213" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -10423,10 +10456,10 @@
         <v>1295</v>
       </c>
       <c r="F214" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="G214" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -10446,10 +10479,10 @@
         <v>1277</v>
       </c>
       <c r="F215" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="G215" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -10469,10 +10502,10 @@
         <v>1277</v>
       </c>
       <c r="F216" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="G216" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -10492,10 +10525,10 @@
         <v>1310</v>
       </c>
       <c r="F217" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="G217" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -10515,10 +10548,10 @@
         <v>1280</v>
       </c>
       <c r="F218" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="G218" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -10538,10 +10571,10 @@
         <v>1284</v>
       </c>
       <c r="F219" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="G219" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -10561,10 +10594,10 @@
         <v>1309</v>
       </c>
       <c r="F220" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="G220" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -10584,10 +10617,10 @@
         <v>1312</v>
       </c>
       <c r="F221" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="G221" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -10610,7 +10643,7 @@
         <v>946</v>
       </c>
       <c r="G222" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -10630,10 +10663,10 @@
         <v>1310</v>
       </c>
       <c r="F223" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="G223" t="s">
-        <v>1703</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -10653,10 +10686,10 @@
         <v>1313</v>
       </c>
       <c r="F224" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="G224" t="s">
-        <v>1704</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -10676,10 +10709,10 @@
         <v>1284</v>
       </c>
       <c r="F225" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
       <c r="G225" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -10699,7 +10732,7 @@
         <v>1275</v>
       </c>
       <c r="G226" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -10722,7 +10755,7 @@
         <v>1088</v>
       </c>
       <c r="G227" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -10742,10 +10775,10 @@
         <v>1284</v>
       </c>
       <c r="F228" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="G228" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -10765,10 +10798,10 @@
         <v>1275</v>
       </c>
       <c r="F229" t="s">
-        <v>1524</v>
+        <v>1527</v>
       </c>
       <c r="G229" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -10788,10 +10821,10 @@
         <v>1293</v>
       </c>
       <c r="F230" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="G230" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -10814,7 +10847,7 @@
         <v>946</v>
       </c>
       <c r="G231" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -10834,10 +10867,10 @@
         <v>1275</v>
       </c>
       <c r="F232" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="G232" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -10857,10 +10890,10 @@
         <v>1314</v>
       </c>
       <c r="F233" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="G233" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -10880,10 +10913,10 @@
         <v>1284</v>
       </c>
       <c r="F234" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="G234" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -10903,10 +10936,10 @@
         <v>1299</v>
       </c>
       <c r="F235" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="G235" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -10926,10 +10959,10 @@
         <v>1284</v>
       </c>
       <c r="F236" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="G236" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -10949,10 +10982,10 @@
         <v>1284</v>
       </c>
       <c r="F237" t="s">
-        <v>1530</v>
+        <v>1533</v>
       </c>
       <c r="G237" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -10972,10 +11005,10 @@
         <v>1315</v>
       </c>
       <c r="F238" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="G238" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -10995,10 +11028,10 @@
         <v>1284</v>
       </c>
       <c r="F239" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
       <c r="G239" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -11018,10 +11051,10 @@
         <v>1316</v>
       </c>
       <c r="F240" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="G240" t="s">
-        <v>1692</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -11041,10 +11074,10 @@
         <v>1284</v>
       </c>
       <c r="F241" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="G241" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -11064,10 +11097,10 @@
         <v>1317</v>
       </c>
       <c r="F242" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="G242" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -11090,7 +11123,7 @@
         <v>1351</v>
       </c>
       <c r="G243" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -11110,10 +11143,10 @@
         <v>1275</v>
       </c>
       <c r="F244" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G244" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -11133,10 +11166,10 @@
         <v>1275</v>
       </c>
       <c r="F245" t="s">
-        <v>1535</v>
+        <v>1538</v>
       </c>
       <c r="G245" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -11159,7 +11192,7 @@
         <v>930</v>
       </c>
       <c r="G246" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -11179,10 +11212,10 @@
         <v>1309</v>
       </c>
       <c r="F247" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="G247" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -11202,10 +11235,10 @@
         <v>1275</v>
       </c>
       <c r="F248" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="G248" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -11225,10 +11258,10 @@
         <v>1304</v>
       </c>
       <c r="F249" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="G249" t="s">
-        <v>1686</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -11248,10 +11281,10 @@
         <v>1278</v>
       </c>
       <c r="F250" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="G250" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -11271,10 +11304,10 @@
         <v>1299</v>
       </c>
       <c r="F251" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="G251" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -11294,10 +11327,10 @@
         <v>1275</v>
       </c>
       <c r="F252" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
       <c r="G252" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -11320,7 +11353,7 @@
         <v>946</v>
       </c>
       <c r="G253" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -11343,7 +11376,7 @@
         <v>946</v>
       </c>
       <c r="G254" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -11363,10 +11396,10 @@
         <v>1275</v>
       </c>
       <c r="F255" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="G255" t="s">
-        <v>1695</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -11386,10 +11419,10 @@
         <v>1278</v>
       </c>
       <c r="F256" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="G256" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -11409,10 +11442,10 @@
         <v>1285</v>
       </c>
       <c r="F257" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="G257" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -11432,10 +11465,10 @@
         <v>1278</v>
       </c>
       <c r="F258" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="G258" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -11458,7 +11491,7 @@
         <v>1064</v>
       </c>
       <c r="G259" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -11478,10 +11511,10 @@
         <v>1278</v>
       </c>
       <c r="F260" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="G260" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -11501,10 +11534,10 @@
         <v>1284</v>
       </c>
       <c r="F261" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="G261" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -11524,10 +11557,10 @@
         <v>1284</v>
       </c>
       <c r="F262" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G262" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -11547,10 +11580,10 @@
         <v>1299</v>
       </c>
       <c r="F263" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G263" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -11570,10 +11603,10 @@
         <v>1275</v>
       </c>
       <c r="F264" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="G264" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -11593,10 +11626,10 @@
         <v>1310</v>
       </c>
       <c r="F265" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="G265" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -11616,10 +11649,10 @@
         <v>1293</v>
       </c>
       <c r="F266" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="G266" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -11639,10 +11672,10 @@
         <v>1278</v>
       </c>
       <c r="F267" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="G267" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -11662,10 +11695,10 @@
         <v>1285</v>
       </c>
       <c r="F268" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="G268" t="s">
-        <v>1691</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -11685,10 +11718,10 @@
         <v>1275</v>
       </c>
       <c r="F269" t="s">
-        <v>1551</v>
+        <v>1554</v>
       </c>
       <c r="G269" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -11708,10 +11741,10 @@
         <v>1275</v>
       </c>
       <c r="F270" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="G270" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -11731,10 +11764,10 @@
         <v>1303</v>
       </c>
       <c r="F271" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="G271" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -11754,10 +11787,10 @@
         <v>1285</v>
       </c>
       <c r="F272" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="G272" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -11777,10 +11810,10 @@
         <v>1278</v>
       </c>
       <c r="F273" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="G273" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -11800,10 +11833,10 @@
         <v>1284</v>
       </c>
       <c r="F274" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="G274" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -11823,10 +11856,10 @@
         <v>1318</v>
       </c>
       <c r="F275" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="G275" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -11849,7 +11882,7 @@
         <v>1353</v>
       </c>
       <c r="G276" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -11869,10 +11902,10 @@
         <v>1275</v>
       </c>
       <c r="F277" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="G277" t="s">
-        <v>1695</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -11892,10 +11925,10 @@
         <v>1275</v>
       </c>
       <c r="F278" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="G278" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -11915,10 +11948,10 @@
         <v>1275</v>
       </c>
       <c r="F279" t="s">
-        <v>1393</v>
+        <v>1563</v>
       </c>
       <c r="G279" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -11938,10 +11971,10 @@
         <v>1275</v>
       </c>
       <c r="F280" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="G280" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -11960,8 +11993,11 @@
       <c r="E281" t="s">
         <v>1275</v>
       </c>
+      <c r="F281" t="s">
+        <v>1021</v>
+      </c>
       <c r="G281" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -11981,10 +12017,10 @@
         <v>1275</v>
       </c>
       <c r="F282" t="s">
-        <v>1561</v>
+        <v>1565</v>
       </c>
       <c r="G282" t="s">
-        <v>1695</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -12004,10 +12040,10 @@
         <v>1284</v>
       </c>
       <c r="F283" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
       <c r="G283" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -12027,10 +12063,10 @@
         <v>1319</v>
       </c>
       <c r="F284" t="s">
-        <v>1563</v>
+        <v>1567</v>
       </c>
       <c r="G284" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -12050,10 +12086,10 @@
         <v>1275</v>
       </c>
       <c r="F285" t="s">
-        <v>1564</v>
+        <v>1568</v>
       </c>
       <c r="G285" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -12073,10 +12109,10 @@
         <v>1275</v>
       </c>
       <c r="F286" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="G286" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -12096,10 +12132,10 @@
         <v>1278</v>
       </c>
       <c r="F287" t="s">
-        <v>1566</v>
+        <v>1570</v>
       </c>
       <c r="G287" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -12118,8 +12154,11 @@
       <c r="E288" t="s">
         <v>1275</v>
       </c>
+      <c r="F288" t="s">
+        <v>982</v>
+      </c>
       <c r="G288" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -12139,10 +12178,10 @@
         <v>1284</v>
       </c>
       <c r="F289" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="G289" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -12162,10 +12201,10 @@
         <v>1320</v>
       </c>
       <c r="F290" t="s">
-        <v>1568</v>
+        <v>1572</v>
       </c>
       <c r="G290" t="s">
-        <v>1691</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -12185,10 +12224,10 @@
         <v>1275</v>
       </c>
       <c r="F291" t="s">
-        <v>1569</v>
+        <v>1573</v>
       </c>
       <c r="G291" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -12208,10 +12247,10 @@
         <v>1275</v>
       </c>
       <c r="F292" t="s">
-        <v>1570</v>
+        <v>1574</v>
       </c>
       <c r="G292" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -12231,10 +12270,10 @@
         <v>1297</v>
       </c>
       <c r="F293" t="s">
-        <v>1571</v>
+        <v>1575</v>
       </c>
       <c r="G293" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -12257,7 +12296,7 @@
         <v>1088</v>
       </c>
       <c r="G294" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -12280,7 +12319,7 @@
         <v>946</v>
       </c>
       <c r="G295" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -12300,10 +12339,10 @@
         <v>1275</v>
       </c>
       <c r="F296" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="G296" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -12323,10 +12362,10 @@
         <v>1284</v>
       </c>
       <c r="F297" t="s">
-        <v>1572</v>
+        <v>1576</v>
       </c>
       <c r="G297" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -12346,10 +12385,10 @@
         <v>1293</v>
       </c>
       <c r="F298" t="s">
-        <v>1573</v>
+        <v>1577</v>
       </c>
       <c r="G298" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -12372,7 +12411,7 @@
         <v>946</v>
       </c>
       <c r="G299" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -12391,8 +12430,11 @@
       <c r="E300" t="s">
         <v>1275</v>
       </c>
+      <c r="F300" t="s">
+        <v>950</v>
+      </c>
       <c r="G300" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -12415,7 +12457,7 @@
         <v>1338</v>
       </c>
       <c r="G301" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -12435,10 +12477,10 @@
         <v>1278</v>
       </c>
       <c r="F302" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="G302" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -12458,10 +12500,10 @@
         <v>1275</v>
       </c>
       <c r="F303" t="s">
-        <v>1574</v>
+        <v>1578</v>
       </c>
       <c r="G303" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -12481,10 +12523,10 @@
         <v>1321</v>
       </c>
       <c r="F304" t="s">
-        <v>999</v>
+        <v>1579</v>
       </c>
       <c r="G304" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -12504,10 +12546,10 @@
         <v>1278</v>
       </c>
       <c r="F305" t="s">
-        <v>1575</v>
+        <v>1580</v>
       </c>
       <c r="G305" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -12527,10 +12569,10 @@
         <v>1275</v>
       </c>
       <c r="F306" t="s">
-        <v>1576</v>
+        <v>1581</v>
       </c>
       <c r="G306" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -12553,7 +12595,7 @@
         <v>946</v>
       </c>
       <c r="G307" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -12573,10 +12615,10 @@
         <v>1278</v>
       </c>
       <c r="F308" t="s">
-        <v>1577</v>
+        <v>1582</v>
       </c>
       <c r="G308" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -12599,7 +12641,7 @@
         <v>1088</v>
       </c>
       <c r="G309" t="s">
-        <v>1684</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -12622,7 +12664,7 @@
         <v>1088</v>
       </c>
       <c r="G310" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -12642,10 +12684,10 @@
         <v>1284</v>
       </c>
       <c r="F311" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G311" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -12665,10 +12707,10 @@
         <v>1284</v>
       </c>
       <c r="F312" t="s">
-        <v>1578</v>
+        <v>1583</v>
       </c>
       <c r="G312" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -12691,7 +12733,7 @@
         <v>946</v>
       </c>
       <c r="G313" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -12714,7 +12756,7 @@
         <v>946</v>
       </c>
       <c r="G314" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -12734,10 +12776,10 @@
         <v>1293</v>
       </c>
       <c r="F315" t="s">
-        <v>1579</v>
+        <v>1584</v>
       </c>
       <c r="G315" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -12757,10 +12799,10 @@
         <v>1275</v>
       </c>
       <c r="F316" t="s">
-        <v>1580</v>
+        <v>1585</v>
       </c>
       <c r="G316" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -12780,10 +12822,10 @@
         <v>1275</v>
       </c>
       <c r="F317" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="G317" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -12806,7 +12848,7 @@
         <v>1354</v>
       </c>
       <c r="G318" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -12825,8 +12867,11 @@
       <c r="E319" t="s">
         <v>1284</v>
       </c>
+      <c r="F319" t="s">
+        <v>1170</v>
+      </c>
       <c r="G319" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -12846,10 +12891,10 @@
         <v>1284</v>
       </c>
       <c r="F320" t="s">
-        <v>1581</v>
+        <v>1586</v>
       </c>
       <c r="G320" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -12869,10 +12914,10 @@
         <v>1314</v>
       </c>
       <c r="F321" t="s">
-        <v>1582</v>
+        <v>1587</v>
       </c>
       <c r="G321" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -12892,10 +12937,10 @@
         <v>1284</v>
       </c>
       <c r="F322" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G322" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -12915,10 +12960,10 @@
         <v>1309</v>
       </c>
       <c r="F323" t="s">
-        <v>1583</v>
+        <v>1588</v>
       </c>
       <c r="G323" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -12938,10 +12983,10 @@
         <v>1278</v>
       </c>
       <c r="F324" t="s">
-        <v>1584</v>
+        <v>1589</v>
       </c>
       <c r="G324" t="s">
-        <v>1690</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -12964,7 +13009,7 @@
         <v>946</v>
       </c>
       <c r="G325" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -12984,10 +13029,10 @@
         <v>1284</v>
       </c>
       <c r="F326" t="s">
-        <v>1585</v>
+        <v>1590</v>
       </c>
       <c r="G326" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -13007,10 +13052,10 @@
         <v>1275</v>
       </c>
       <c r="F327" t="s">
-        <v>1586</v>
+        <v>1591</v>
       </c>
       <c r="G327" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -13030,10 +13075,10 @@
         <v>1284</v>
       </c>
       <c r="F328" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="G328" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -13053,10 +13098,10 @@
         <v>1322</v>
       </c>
       <c r="F329" t="s">
-        <v>1588</v>
+        <v>1593</v>
       </c>
       <c r="G329" t="s">
-        <v>1705</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -13076,10 +13121,10 @@
         <v>1284</v>
       </c>
       <c r="F330" t="s">
-        <v>1589</v>
+        <v>1594</v>
       </c>
       <c r="G330" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -13099,10 +13144,10 @@
         <v>1296</v>
       </c>
       <c r="F331" t="s">
-        <v>1590</v>
+        <v>1595</v>
       </c>
       <c r="G331" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -13122,10 +13167,10 @@
         <v>1284</v>
       </c>
       <c r="F332" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G332" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -13145,10 +13190,10 @@
         <v>1275</v>
       </c>
       <c r="F333" t="s">
-        <v>1591</v>
+        <v>1596</v>
       </c>
       <c r="G333" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -13168,10 +13213,10 @@
         <v>1284</v>
       </c>
       <c r="F334" t="s">
-        <v>1592</v>
+        <v>1597</v>
       </c>
       <c r="G334" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -13191,10 +13236,10 @@
         <v>1321</v>
       </c>
       <c r="F335" t="s">
-        <v>1593</v>
+        <v>1598</v>
       </c>
       <c r="G335" t="s">
-        <v>1695</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -13214,10 +13259,10 @@
         <v>1310</v>
       </c>
       <c r="F336" t="s">
-        <v>1594</v>
+        <v>1599</v>
       </c>
       <c r="G336" t="s">
-        <v>1684</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -13237,10 +13282,10 @@
         <v>1310</v>
       </c>
       <c r="F337" t="s">
-        <v>1595</v>
+        <v>1600</v>
       </c>
       <c r="G337" t="s">
-        <v>1690</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -13260,10 +13305,10 @@
         <v>1296</v>
       </c>
       <c r="F338" t="s">
-        <v>1579</v>
+        <v>1601</v>
       </c>
       <c r="G338" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -13283,10 +13328,10 @@
         <v>1275</v>
       </c>
       <c r="F339" t="s">
-        <v>1596</v>
+        <v>1602</v>
       </c>
       <c r="G339" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -13306,10 +13351,10 @@
         <v>1275</v>
       </c>
       <c r="F340" t="s">
-        <v>1597</v>
+        <v>1603</v>
       </c>
       <c r="G340" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -13329,10 +13374,10 @@
         <v>1316</v>
       </c>
       <c r="F341" t="s">
-        <v>1598</v>
+        <v>1604</v>
       </c>
       <c r="G341" t="s">
-        <v>1706</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -13355,7 +13400,7 @@
         <v>1351</v>
       </c>
       <c r="G342" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -13375,10 +13420,10 @@
         <v>1299</v>
       </c>
       <c r="F343" t="s">
-        <v>1599</v>
+        <v>1605</v>
       </c>
       <c r="G343" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -13398,10 +13443,10 @@
         <v>1323</v>
       </c>
       <c r="F344" t="s">
-        <v>1600</v>
+        <v>1606</v>
       </c>
       <c r="G344" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -13421,10 +13466,10 @@
         <v>1278</v>
       </c>
       <c r="F345" t="s">
-        <v>1601</v>
+        <v>1607</v>
       </c>
       <c r="G345" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -13444,10 +13489,10 @@
         <v>1299</v>
       </c>
       <c r="F346" t="s">
-        <v>1602</v>
+        <v>1608</v>
       </c>
       <c r="G346" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -13470,7 +13515,7 @@
         <v>946</v>
       </c>
       <c r="G347" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -13489,8 +13534,11 @@
       <c r="E348" t="s">
         <v>1275</v>
       </c>
+      <c r="F348" t="s">
+        <v>950</v>
+      </c>
       <c r="G348" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -13513,7 +13561,7 @@
         <v>1088</v>
       </c>
       <c r="G349" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -13536,7 +13584,7 @@
         <v>1351</v>
       </c>
       <c r="G350" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -13556,10 +13604,10 @@
         <v>1278</v>
       </c>
       <c r="F351" t="s">
-        <v>1603</v>
+        <v>1609</v>
       </c>
       <c r="G351" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -13579,10 +13627,10 @@
         <v>1321</v>
       </c>
       <c r="F352" t="s">
-        <v>1604</v>
+        <v>1610</v>
       </c>
       <c r="G352" t="s">
-        <v>1694</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -13602,10 +13650,10 @@
         <v>1284</v>
       </c>
       <c r="F353" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G353" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -13625,10 +13673,10 @@
         <v>1275</v>
       </c>
       <c r="F354" t="s">
-        <v>1605</v>
+        <v>1611</v>
       </c>
       <c r="G354" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -13648,10 +13696,10 @@
         <v>1284</v>
       </c>
       <c r="F355" t="s">
-        <v>1606</v>
+        <v>1612</v>
       </c>
       <c r="G355" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -13674,7 +13722,7 @@
         <v>946</v>
       </c>
       <c r="G356" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -13694,10 +13742,10 @@
         <v>1324</v>
       </c>
       <c r="F357" t="s">
-        <v>1607</v>
+        <v>1613</v>
       </c>
       <c r="G357" t="s">
-        <v>1707</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -13720,7 +13768,7 @@
         <v>1351</v>
       </c>
       <c r="G358" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -13740,10 +13788,10 @@
         <v>1297</v>
       </c>
       <c r="F359" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="G359" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -13766,7 +13814,7 @@
         <v>1198</v>
       </c>
       <c r="G360" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -13786,10 +13834,10 @@
         <v>1278</v>
       </c>
       <c r="F361" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="G361" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -13809,10 +13857,10 @@
         <v>1297</v>
       </c>
       <c r="F362" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
       <c r="G362" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -13832,10 +13880,10 @@
         <v>1285</v>
       </c>
       <c r="F363" t="s">
-        <v>1610</v>
+        <v>1616</v>
       </c>
       <c r="G363" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -13855,10 +13903,10 @@
         <v>1278</v>
       </c>
       <c r="F364" t="s">
-        <v>1611</v>
+        <v>1617</v>
       </c>
       <c r="G364" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -13878,10 +13926,10 @@
         <v>1278</v>
       </c>
       <c r="F365" t="s">
-        <v>1612</v>
+        <v>1618</v>
       </c>
       <c r="G365" t="s">
-        <v>1708</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -13901,10 +13949,10 @@
         <v>1293</v>
       </c>
       <c r="F366" t="s">
-        <v>1613</v>
+        <v>1619</v>
       </c>
       <c r="G366" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -13924,10 +13972,10 @@
         <v>1278</v>
       </c>
       <c r="F367" t="s">
-        <v>1614</v>
+        <v>1620</v>
       </c>
       <c r="G367" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -13947,10 +13995,10 @@
         <v>1297</v>
       </c>
       <c r="F368" t="s">
-        <v>1615</v>
+        <v>1621</v>
       </c>
       <c r="G368" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -13970,10 +14018,10 @@
         <v>1321</v>
       </c>
       <c r="F369" t="s">
-        <v>1616</v>
+        <v>1622</v>
       </c>
       <c r="G369" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -13992,11 +14040,8 @@
       <c r="E370" t="s">
         <v>1284</v>
       </c>
-      <c r="F370" t="s">
-        <v>1617</v>
-      </c>
       <c r="G370" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -14016,10 +14061,10 @@
         <v>1278</v>
       </c>
       <c r="F371" t="s">
-        <v>1618</v>
+        <v>1623</v>
       </c>
       <c r="G371" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -14039,10 +14084,10 @@
         <v>1284</v>
       </c>
       <c r="F372" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
       <c r="G372" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -14062,10 +14107,10 @@
         <v>1284</v>
       </c>
       <c r="F373" t="s">
-        <v>1620</v>
+        <v>1625</v>
       </c>
       <c r="G373" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -14085,7 +14130,7 @@
         <v>1284</v>
       </c>
       <c r="G374" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -14108,7 +14153,7 @@
         <v>1210</v>
       </c>
       <c r="G375" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -14128,10 +14173,10 @@
         <v>1278</v>
       </c>
       <c r="F376" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
       <c r="G376" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -14151,10 +14196,10 @@
         <v>1278</v>
       </c>
       <c r="F377" t="s">
-        <v>1622</v>
+        <v>1627</v>
       </c>
       <c r="G377" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -14174,10 +14219,10 @@
         <v>1284</v>
       </c>
       <c r="F378" t="s">
-        <v>1623</v>
+        <v>1628</v>
       </c>
       <c r="G378" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -14197,10 +14242,10 @@
         <v>1325</v>
       </c>
       <c r="F379" t="s">
-        <v>1624</v>
+        <v>1629</v>
       </c>
       <c r="G379" t="s">
-        <v>1692</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -14223,7 +14268,7 @@
         <v>1064</v>
       </c>
       <c r="G380" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -14243,10 +14288,10 @@
         <v>1321</v>
       </c>
       <c r="F381" t="s">
-        <v>1625</v>
+        <v>1630</v>
       </c>
       <c r="G381" t="s">
-        <v>1684</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -14266,10 +14311,10 @@
         <v>1326</v>
       </c>
       <c r="F382" t="s">
-        <v>1626</v>
+        <v>1631</v>
       </c>
       <c r="G382" t="s">
-        <v>1709</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="383" spans="1:7">
@@ -14289,10 +14334,10 @@
         <v>1327</v>
       </c>
       <c r="F383" t="s">
-        <v>1627</v>
+        <v>1632</v>
       </c>
       <c r="G383" t="s">
-        <v>1700</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -14312,10 +14357,10 @@
         <v>1328</v>
       </c>
       <c r="F384" t="s">
-        <v>1628</v>
+        <v>1633</v>
       </c>
       <c r="G384" t="s">
-        <v>1684</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -14335,10 +14380,10 @@
         <v>1278</v>
       </c>
       <c r="F385" t="s">
-        <v>1584</v>
+        <v>1589</v>
       </c>
       <c r="G385" t="s">
-        <v>1699</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -14358,10 +14403,10 @@
         <v>1324</v>
       </c>
       <c r="F386" t="s">
-        <v>1629</v>
+        <v>1634</v>
       </c>
       <c r="G386" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -14384,7 +14429,7 @@
         <v>995</v>
       </c>
       <c r="G387" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -14407,7 +14452,7 @@
         <v>1088</v>
       </c>
       <c r="G388" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -14427,10 +14472,10 @@
         <v>1284</v>
       </c>
       <c r="F389" t="s">
-        <v>1594</v>
+        <v>1599</v>
       </c>
       <c r="G389" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -14450,10 +14495,10 @@
         <v>1294</v>
       </c>
       <c r="F390" t="s">
-        <v>1630</v>
+        <v>1635</v>
       </c>
       <c r="G390" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -14473,10 +14518,10 @@
         <v>1284</v>
       </c>
       <c r="F391" t="s">
-        <v>1631</v>
+        <v>1636</v>
       </c>
       <c r="G391" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -14496,10 +14541,10 @@
         <v>1284</v>
       </c>
       <c r="F392" t="s">
-        <v>1632</v>
+        <v>1637</v>
       </c>
       <c r="G392" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -14519,10 +14564,10 @@
         <v>1278</v>
       </c>
       <c r="F393" t="s">
-        <v>1633</v>
+        <v>1638</v>
       </c>
       <c r="G393" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -14542,10 +14587,10 @@
         <v>1284</v>
       </c>
       <c r="F394" t="s">
-        <v>1634</v>
+        <v>1639</v>
       </c>
       <c r="G394" t="s">
-        <v>1694</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -14565,10 +14610,10 @@
         <v>1284</v>
       </c>
       <c r="F395" t="s">
-        <v>1613</v>
+        <v>1619</v>
       </c>
       <c r="G395" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -14588,10 +14633,10 @@
         <v>1284</v>
       </c>
       <c r="F396" t="s">
-        <v>1635</v>
+        <v>1640</v>
       </c>
       <c r="G396" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="397" spans="1:7">
@@ -14611,10 +14656,10 @@
         <v>1278</v>
       </c>
       <c r="F397" t="s">
-        <v>1566</v>
+        <v>1570</v>
       </c>
       <c r="G397" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="398" spans="1:7">
@@ -14637,7 +14682,7 @@
         <v>1088</v>
       </c>
       <c r="G398" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="399" spans="1:7">
@@ -14657,10 +14702,10 @@
         <v>1284</v>
       </c>
       <c r="F399" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="G399" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="400" spans="1:7">
@@ -14680,10 +14725,10 @@
         <v>1303</v>
       </c>
       <c r="F400" t="s">
-        <v>1636</v>
+        <v>1641</v>
       </c>
       <c r="G400" t="s">
-        <v>1710</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -14703,10 +14748,10 @@
         <v>1293</v>
       </c>
       <c r="F401" t="s">
-        <v>1637</v>
+        <v>1642</v>
       </c>
       <c r="G401" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -14726,10 +14771,10 @@
         <v>1293</v>
       </c>
       <c r="F402" t="s">
-        <v>1638</v>
+        <v>1643</v>
       </c>
       <c r="G402" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -14749,10 +14794,10 @@
         <v>1284</v>
       </c>
       <c r="F403" t="s">
-        <v>1639</v>
+        <v>1644</v>
       </c>
       <c r="G403" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -14772,10 +14817,10 @@
         <v>1278</v>
       </c>
       <c r="F404" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="G404" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -14795,10 +14840,10 @@
         <v>1324</v>
       </c>
       <c r="F405" t="s">
-        <v>1640</v>
+        <v>1645</v>
       </c>
       <c r="G405" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -14818,10 +14863,10 @@
         <v>1284</v>
       </c>
       <c r="F406" t="s">
-        <v>1641</v>
+        <v>1646</v>
       </c>
       <c r="G406" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -14841,10 +14886,10 @@
         <v>1293</v>
       </c>
       <c r="F407" t="s">
-        <v>1642</v>
+        <v>1647</v>
       </c>
       <c r="G407" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -14864,10 +14909,10 @@
         <v>1284</v>
       </c>
       <c r="F408" t="s">
-        <v>963</v>
+        <v>1648</v>
       </c>
       <c r="G408" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -14887,10 +14932,10 @@
         <v>1284</v>
       </c>
       <c r="F409" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G409" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -14913,7 +14958,7 @@
         <v>1233</v>
       </c>
       <c r="G410" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -14933,10 +14978,10 @@
         <v>1323</v>
       </c>
       <c r="F411" t="s">
-        <v>1643</v>
+        <v>1649</v>
       </c>
       <c r="G411" t="s">
-        <v>1697</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="412" spans="1:7">
@@ -14959,7 +15004,7 @@
         <v>1353</v>
       </c>
       <c r="G412" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -14979,10 +15024,10 @@
         <v>1311</v>
       </c>
       <c r="F413" t="s">
-        <v>1644</v>
+        <v>1650</v>
       </c>
       <c r="G413" t="s">
-        <v>1696</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -15002,10 +15047,10 @@
         <v>1284</v>
       </c>
       <c r="F414" t="s">
-        <v>1645</v>
+        <v>1651</v>
       </c>
       <c r="G414" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -15025,10 +15070,10 @@
         <v>1329</v>
       </c>
       <c r="F415" t="s">
-        <v>1646</v>
+        <v>1652</v>
       </c>
       <c r="G415" t="s">
-        <v>1711</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -15048,10 +15093,10 @@
         <v>1284</v>
       </c>
       <c r="F416" t="s">
-        <v>1647</v>
+        <v>1653</v>
       </c>
       <c r="G416" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -15074,7 +15119,7 @@
         <v>986</v>
       </c>
       <c r="G417" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -15094,10 +15139,10 @@
         <v>1330</v>
       </c>
       <c r="F418" t="s">
-        <v>1431</v>
+        <v>1654</v>
       </c>
       <c r="G418" t="s">
-        <v>1698</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -15117,10 +15162,10 @@
         <v>1294</v>
       </c>
       <c r="F419" t="s">
-        <v>1584</v>
+        <v>1589</v>
       </c>
       <c r="G419" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -15140,10 +15185,10 @@
         <v>1284</v>
       </c>
       <c r="F420" t="s">
-        <v>1648</v>
+        <v>1655</v>
       </c>
       <c r="G420" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -15163,10 +15208,10 @@
         <v>1293</v>
       </c>
       <c r="F421" t="s">
-        <v>1649</v>
+        <v>1656</v>
       </c>
       <c r="G421" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -15186,10 +15231,10 @@
         <v>1285</v>
       </c>
       <c r="F422" t="s">
-        <v>1584</v>
+        <v>1589</v>
       </c>
       <c r="G422" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -15209,10 +15254,10 @@
         <v>1284</v>
       </c>
       <c r="F423" t="s">
-        <v>1650</v>
+        <v>1657</v>
       </c>
       <c r="G423" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -15235,7 +15280,7 @@
         <v>1244</v>
       </c>
       <c r="G424" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -15255,10 +15300,10 @@
         <v>1297</v>
       </c>
       <c r="F425" t="s">
-        <v>1651</v>
+        <v>1658</v>
       </c>
       <c r="G425" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -15278,10 +15323,10 @@
         <v>1329</v>
       </c>
       <c r="F426" t="s">
-        <v>1652</v>
+        <v>1659</v>
       </c>
       <c r="G426" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -15301,10 +15346,10 @@
         <v>1284</v>
       </c>
       <c r="F427" t="s">
-        <v>1653</v>
+        <v>1210</v>
       </c>
       <c r="G427" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -15324,10 +15369,10 @@
         <v>1278</v>
       </c>
       <c r="F428" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="G428" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -15347,10 +15392,10 @@
         <v>1284</v>
       </c>
       <c r="F429" t="s">
-        <v>1654</v>
+        <v>1660</v>
       </c>
       <c r="G429" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -15370,10 +15415,10 @@
         <v>1293</v>
       </c>
       <c r="F430" t="s">
-        <v>1655</v>
+        <v>1661</v>
       </c>
       <c r="G430" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -15393,10 +15438,10 @@
         <v>1296</v>
       </c>
       <c r="F431" t="s">
-        <v>1656</v>
+        <v>1662</v>
       </c>
       <c r="G431" t="s">
-        <v>1712</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -15416,10 +15461,10 @@
         <v>1296</v>
       </c>
       <c r="F432" t="s">
-        <v>1657</v>
+        <v>1663</v>
       </c>
       <c r="G432" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -15439,10 +15484,10 @@
         <v>1293</v>
       </c>
       <c r="F433" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="G433" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -15462,10 +15507,10 @@
         <v>1293</v>
       </c>
       <c r="F434" t="s">
-        <v>1658</v>
+        <v>1664</v>
       </c>
       <c r="G434" t="s">
-        <v>1708</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -15485,10 +15530,10 @@
         <v>1284</v>
       </c>
       <c r="F435" t="s">
-        <v>1659</v>
+        <v>1665</v>
       </c>
       <c r="G435" t="s">
-        <v>1699</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -15511,7 +15556,7 @@
         <v>946</v>
       </c>
       <c r="G436" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -15531,7 +15576,7 @@
         <v>1293</v>
       </c>
       <c r="G437" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -15554,7 +15599,7 @@
         <v>1088</v>
       </c>
       <c r="G438" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -15574,10 +15619,10 @@
         <v>1278</v>
       </c>
       <c r="F439" t="s">
-        <v>1660</v>
+        <v>1666</v>
       </c>
       <c r="G439" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -15597,10 +15642,10 @@
         <v>1278</v>
       </c>
       <c r="F440" t="s">
-        <v>1661</v>
+        <v>1667</v>
       </c>
       <c r="G440" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -15620,10 +15665,10 @@
         <v>1278</v>
       </c>
       <c r="F441" t="s">
-        <v>1662</v>
+        <v>1668</v>
       </c>
       <c r="G441" t="s">
-        <v>1684</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -15643,10 +15688,10 @@
         <v>1278</v>
       </c>
       <c r="F442" t="s">
-        <v>1663</v>
+        <v>1669</v>
       </c>
       <c r="G442" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -15666,10 +15711,10 @@
         <v>1293</v>
       </c>
       <c r="F443" t="s">
-        <v>1664</v>
+        <v>1670</v>
       </c>
       <c r="G443" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -15689,10 +15734,10 @@
         <v>1278</v>
       </c>
       <c r="F444" t="s">
-        <v>1665</v>
+        <v>1671</v>
       </c>
       <c r="G444" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -15712,10 +15757,10 @@
         <v>1331</v>
       </c>
       <c r="F445" t="s">
-        <v>1666</v>
+        <v>1672</v>
       </c>
       <c r="G445" t="s">
-        <v>1713</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="446" spans="1:7">
@@ -15735,10 +15780,10 @@
         <v>1278</v>
       </c>
       <c r="F446" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="G446" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -15758,10 +15803,10 @@
         <v>1321</v>
       </c>
       <c r="F447" t="s">
-        <v>1667</v>
+        <v>1673</v>
       </c>
       <c r="G447" t="s">
-        <v>1695</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -15781,10 +15826,10 @@
         <v>1284</v>
       </c>
       <c r="F448" t="s">
-        <v>1668</v>
+        <v>1674</v>
       </c>
       <c r="G448" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="449" spans="1:7">
@@ -15804,10 +15849,10 @@
         <v>1293</v>
       </c>
       <c r="F449" t="s">
-        <v>1669</v>
+        <v>1675</v>
       </c>
       <c r="G449" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="450" spans="1:7">
@@ -15827,10 +15872,10 @@
         <v>1284</v>
       </c>
       <c r="F450" t="s">
-        <v>1418</v>
+        <v>1676</v>
       </c>
       <c r="G450" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="451" spans="1:7">
@@ -15850,10 +15895,10 @@
         <v>1284</v>
       </c>
       <c r="F451" t="s">
-        <v>1670</v>
+        <v>1677</v>
       </c>
       <c r="G451" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="452" spans="1:7">
@@ -15873,10 +15918,10 @@
         <v>1321</v>
       </c>
       <c r="F452" t="s">
-        <v>1671</v>
+        <v>1678</v>
       </c>
       <c r="G452" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="453" spans="1:7">
@@ -15896,10 +15941,10 @@
         <v>1293</v>
       </c>
       <c r="F453" t="s">
-        <v>1672</v>
+        <v>1679</v>
       </c>
       <c r="G453" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="454" spans="1:7">
@@ -15919,10 +15964,10 @@
         <v>1332</v>
       </c>
       <c r="F454" t="s">
-        <v>1673</v>
+        <v>1680</v>
       </c>
       <c r="G454" t="s">
-        <v>1700</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="455" spans="1:7">
@@ -15942,10 +15987,10 @@
         <v>1333</v>
       </c>
       <c r="F455" t="s">
-        <v>1674</v>
+        <v>1681</v>
       </c>
       <c r="G455" t="s">
-        <v>1705</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="456" spans="1:7">
@@ -15965,10 +16010,10 @@
         <v>1278</v>
       </c>
       <c r="F456" t="s">
-        <v>1675</v>
+        <v>1682</v>
       </c>
       <c r="G456" t="s">
-        <v>1703</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -15988,10 +16033,10 @@
         <v>1278</v>
       </c>
       <c r="F457" t="s">
-        <v>1676</v>
+        <v>1683</v>
       </c>
       <c r="G457" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="458" spans="1:7">
@@ -16011,10 +16056,10 @@
         <v>1334</v>
       </c>
       <c r="F458" t="s">
-        <v>1677</v>
+        <v>1684</v>
       </c>
       <c r="G458" t="s">
-        <v>1714</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="459" spans="1:7">
@@ -16034,10 +16079,10 @@
         <v>1293</v>
       </c>
       <c r="F459" t="s">
-        <v>1678</v>
+        <v>1685</v>
       </c>
       <c r="G459" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="460" spans="1:7">
@@ -16060,7 +16105,7 @@
         <v>946</v>
       </c>
       <c r="G460" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="461" spans="1:7">
@@ -16080,10 +16125,10 @@
         <v>1321</v>
       </c>
       <c r="F461" t="s">
-        <v>1679</v>
+        <v>1686</v>
       </c>
       <c r="G461" t="s">
-        <v>1695</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -16103,10 +16148,10 @@
         <v>1303</v>
       </c>
       <c r="F462" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G462" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -16126,10 +16171,10 @@
         <v>1335</v>
       </c>
       <c r="F463" t="s">
-        <v>1525</v>
+        <v>1687</v>
       </c>
       <c r="G463" t="s">
-        <v>1684</v>
+        <v>1692</v>
       </c>
     </row>
   </sheetData>
